--- a/review.xlsx
+++ b/review.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/IdeaProjects/algorithms/leetcode/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66211D0-9BD7-1E4C-9D3D-8302DF12BF6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="8775"/>
+    <workbookView xWindow="2200" yWindow="1480" windowWidth="23860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -39,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +57,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,10 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +123,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +207,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +259,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,20 +451,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,7 +512,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +540,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -518,7 +568,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -529,7 +579,7 @@
         <f>B5+1</f>
         <v>43390</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f>B5+5</f>
         <v>43394</v>
       </c>
@@ -546,14 +596,14 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>43392</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f>B6+1</f>
         <v>43393</v>
       </c>
@@ -572,6 +622,34 @@
       <c r="G6" s="1">
         <f>B6+30</f>
         <v>43422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43395</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B7+1</f>
+        <v>43396</v>
+      </c>
+      <c r="D7" s="3">
+        <f>B7+5</f>
+        <v>43400</v>
+      </c>
+      <c r="E7" s="3">
+        <f>B7+7</f>
+        <v>43402</v>
+      </c>
+      <c r="F7" s="1">
+        <f>B7+15</f>
+        <v>43410</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B7+30</f>
+        <v>43425</v>
       </c>
     </row>
   </sheetData>
@@ -596,24 +674,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/IdeaProjects/algorithms/leetcode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66211D0-9BD7-1E4C-9D3D-8302DF12BF6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1480" windowWidth="23860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1485" windowWidth="23865" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,16 +82,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -174,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,26 +222,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,23 +257,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,17 +432,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -484,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,23 +473,23 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f>B2+1</f>
+        <f t="shared" ref="C2:C11" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
-        <f>B2+5</f>
+        <f t="shared" ref="D2:D8" si="1">B2+5</f>
         <v>43386</v>
       </c>
       <c r="E2" s="2">
-        <f>B2+7</f>
+        <f t="shared" ref="E2:E8" si="2">B2+7</f>
         <v>43388</v>
       </c>
-      <c r="F2" s="1">
-        <f>B2+15</f>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F9" si="3">B2+15</f>
         <v>43396</v>
       </c>
       <c r="G2" s="1">
-        <f>B2+30</f>
+        <f t="shared" ref="G2:G9" si="4">B2+30</f>
         <v>43411</v>
       </c>
     </row>
@@ -520,23 +501,23 @@
         <v>43382</v>
       </c>
       <c r="C3" s="2">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>43383</v>
       </c>
       <c r="D3" s="2">
-        <f>B3+5</f>
+        <f t="shared" si="1"/>
         <v>43387</v>
       </c>
       <c r="E3" s="2">
-        <f>B3+7</f>
+        <f t="shared" si="2"/>
         <v>43389</v>
       </c>
       <c r="F3" s="1">
-        <f>B3+15</f>
+        <f t="shared" si="3"/>
         <v>43397</v>
       </c>
       <c r="G3" s="1">
-        <f>B3+30</f>
+        <f t="shared" si="4"/>
         <v>43412</v>
       </c>
     </row>
@@ -548,27 +529,27 @@
         <v>43385</v>
       </c>
       <c r="C4" s="2">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>43386</v>
       </c>
       <c r="D4" s="2">
-        <f>B4+5</f>
+        <f t="shared" si="1"/>
         <v>43390</v>
       </c>
       <c r="E4" s="2">
-        <f>B4+7</f>
+        <f t="shared" si="2"/>
         <v>43392</v>
       </c>
       <c r="F4" s="1">
-        <f>B4+15</f>
+        <f t="shared" si="3"/>
         <v>43400</v>
       </c>
       <c r="G4" s="1">
-        <f>B4+30</f>
+        <f t="shared" si="4"/>
         <v>43415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,23 +557,23 @@
         <v>43389</v>
       </c>
       <c r="C5" s="2">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>43390</v>
       </c>
       <c r="D5" s="2">
-        <f>B5+5</f>
+        <f t="shared" si="1"/>
         <v>43394</v>
       </c>
-      <c r="E5" s="1">
-        <f>B5+7</f>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
         <v>43396</v>
       </c>
       <c r="F5" s="1">
-        <f>B5+15</f>
+        <f t="shared" si="3"/>
         <v>43404</v>
       </c>
       <c r="G5" s="1">
-        <f>B5+30</f>
+        <f t="shared" si="4"/>
         <v>43419</v>
       </c>
     </row>
@@ -604,67 +585,7579 @@
         <v>43392</v>
       </c>
       <c r="C6" s="2">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>43393</v>
       </c>
       <c r="D6" s="1">
-        <f>B6+5</f>
+        <f t="shared" si="1"/>
         <v>43397</v>
       </c>
       <c r="E6" s="1">
-        <f>B6+7</f>
+        <f t="shared" si="2"/>
         <v>43399</v>
       </c>
       <c r="F6" s="1">
-        <f>B6+15</f>
+        <f t="shared" si="3"/>
         <v>43407</v>
       </c>
       <c r="G6" s="1">
-        <f>B6+30</f>
+        <f t="shared" si="4"/>
         <v>43422</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>43395</v>
       </c>
-      <c r="C7" s="3">
-        <f>B7+1</f>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>43396</v>
       </c>
       <c r="D7" s="3">
-        <f>B7+5</f>
+        <f t="shared" si="1"/>
         <v>43400</v>
       </c>
       <c r="E7" s="3">
-        <f>B7+7</f>
+        <f t="shared" si="2"/>
         <v>43402</v>
       </c>
       <c r="F7" s="1">
-        <f>B7+15</f>
+        <f t="shared" si="3"/>
         <v>43410</v>
       </c>
       <c r="G7" s="1">
-        <f>B7+30</f>
+        <f t="shared" si="4"/>
         <v>43425</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43396</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>43397</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>43401</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>43403</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>43411</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43397</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>43398</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D11" si="5">B9+5</f>
+        <v>43402</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9:E11" si="6">B9+7</f>
+        <v>43404</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F11" si="7">B9+15</f>
+        <v>43412</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G11" si="8">B9+30</f>
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>43399</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="5"/>
+        <v>43403</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="6"/>
+        <v>43405</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="7"/>
+        <v>43413</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="8"/>
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>43400</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="5"/>
+        <v>43404</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="6"/>
+        <v>43406</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="7"/>
+        <v>43414</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="8"/>
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B352" s="4"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B361" s="4"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B362" s="4"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B363" s="4"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B365" s="4"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B371" s="4"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B372" s="4"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4"/>
+      <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B380" s="4"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B382" s="4"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="E382" s="4"/>
+      <c r="F382" s="4"/>
+      <c r="G382" s="4"/>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B383" s="4"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="4"/>
+      <c r="F383" s="4"/>
+      <c r="G383" s="4"/>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B384" s="4"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="4"/>
+      <c r="G384" s="4"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B386" s="4"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B390" s="4"/>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B399" s="4"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B400" s="4"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B405" s="4"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B406" s="4"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B407" s="4"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B408" s="4"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B409" s="4"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B411" s="4"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B412" s="4"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B413" s="4"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B414" s="4"/>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B415" s="4"/>
+      <c r="C415" s="4"/>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B416" s="4"/>
+      <c r="C416" s="4"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B417" s="4"/>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B418" s="4"/>
+      <c r="C418" s="4"/>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B419" s="4"/>
+      <c r="C419" s="4"/>
+      <c r="D419" s="4"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B420" s="4"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B421" s="4"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B422" s="4"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B424" s="4"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B425" s="4"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B428" s="4"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B435" s="4"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B436" s="4"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B437" s="4"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B438" s="4"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
+    </row>
+    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
+    </row>
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+    </row>
+    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B454" s="4"/>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+    </row>
+    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+    </row>
+    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
+    </row>
+    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
+    </row>
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
+    </row>
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+    </row>
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+    </row>
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+    </row>
+    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B462" s="4"/>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+    </row>
+    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B463" s="4"/>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
+    </row>
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B464" s="4"/>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="E464" s="4"/>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B466" s="4"/>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B467" s="4"/>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B468" s="4"/>
+      <c r="C468" s="4"/>
+      <c r="D468" s="4"/>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B469" s="4"/>
+      <c r="C469" s="4"/>
+      <c r="D469" s="4"/>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B471" s="4"/>
+      <c r="C471" s="4"/>
+      <c r="D471" s="4"/>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="D472" s="4"/>
+      <c r="E472" s="4"/>
+      <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B473" s="4"/>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+      <c r="E473" s="4"/>
+      <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
+    </row>
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B480" s="4"/>
+      <c r="C480" s="4"/>
+      <c r="D480" s="4"/>
+      <c r="E480" s="4"/>
+      <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
+    </row>
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B481" s="4"/>
+      <c r="C481" s="4"/>
+      <c r="D481" s="4"/>
+      <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B482" s="4"/>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+      <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B483" s="4"/>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
+    </row>
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B484" s="4"/>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
+    </row>
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+    </row>
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4"/>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
+    </row>
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="4"/>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
+    </row>
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
+    </row>
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B489" s="4"/>
+      <c r="C489" s="4"/>
+      <c r="D489" s="4"/>
+      <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
+    </row>
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B490" s="4"/>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+      <c r="E490" s="4"/>
+      <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B491" s="4"/>
+      <c r="C491" s="4"/>
+      <c r="D491" s="4"/>
+      <c r="E491" s="4"/>
+      <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
+    </row>
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B492" s="4"/>
+      <c r="C492" s="4"/>
+      <c r="D492" s="4"/>
+      <c r="E492" s="4"/>
+      <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B493" s="4"/>
+      <c r="C493" s="4"/>
+      <c r="D493" s="4"/>
+      <c r="E493" s="4"/>
+      <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
+    </row>
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B494" s="4"/>
+      <c r="C494" s="4"/>
+      <c r="D494" s="4"/>
+      <c r="E494" s="4"/>
+      <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
+    </row>
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B495" s="4"/>
+      <c r="C495" s="4"/>
+      <c r="D495" s="4"/>
+      <c r="E495" s="4"/>
+      <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
+    </row>
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B496" s="4"/>
+      <c r="C496" s="4"/>
+      <c r="D496" s="4"/>
+      <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
+    </row>
+    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B497" s="4"/>
+      <c r="C497" s="4"/>
+      <c r="D497" s="4"/>
+      <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
+    </row>
+    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B498" s="4"/>
+      <c r="C498" s="4"/>
+      <c r="D498" s="4"/>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
+    </row>
+    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B499" s="4"/>
+      <c r="C499" s="4"/>
+      <c r="D499" s="4"/>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
+    </row>
+    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B500" s="4"/>
+      <c r="C500" s="4"/>
+      <c r="D500" s="4"/>
+      <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
+    </row>
+    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B501" s="4"/>
+      <c r="C501" s="4"/>
+      <c r="D501" s="4"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
+    </row>
+    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B502" s="4"/>
+      <c r="C502" s="4"/>
+      <c r="D502" s="4"/>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
+    </row>
+    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B503" s="4"/>
+      <c r="C503" s="4"/>
+      <c r="D503" s="4"/>
+      <c r="E503" s="4"/>
+      <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
+    </row>
+    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B504" s="4"/>
+      <c r="C504" s="4"/>
+      <c r="D504" s="4"/>
+      <c r="E504" s="4"/>
+      <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
+    </row>
+    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B505" s="4"/>
+      <c r="C505" s="4"/>
+      <c r="D505" s="4"/>
+      <c r="E505" s="4"/>
+      <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
+    </row>
+    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B506" s="4"/>
+      <c r="C506" s="4"/>
+      <c r="D506" s="4"/>
+      <c r="E506" s="4"/>
+      <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
+    </row>
+    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B507" s="4"/>
+      <c r="C507" s="4"/>
+      <c r="D507" s="4"/>
+      <c r="E507" s="4"/>
+      <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
+    </row>
+    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B508" s="4"/>
+      <c r="C508" s="4"/>
+      <c r="D508" s="4"/>
+      <c r="E508" s="4"/>
+      <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
+    </row>
+    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B509" s="4"/>
+      <c r="C509" s="4"/>
+      <c r="D509" s="4"/>
+      <c r="E509" s="4"/>
+      <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
+    </row>
+    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B510" s="4"/>
+      <c r="C510" s="4"/>
+      <c r="D510" s="4"/>
+      <c r="E510" s="4"/>
+      <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
+    </row>
+    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B511" s="4"/>
+      <c r="C511" s="4"/>
+      <c r="D511" s="4"/>
+      <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
+    </row>
+    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B512" s="4"/>
+      <c r="C512" s="4"/>
+      <c r="D512" s="4"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B513" s="4"/>
+      <c r="C513" s="4"/>
+      <c r="D513" s="4"/>
+      <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B514" s="4"/>
+      <c r="C514" s="4"/>
+      <c r="D514" s="4"/>
+      <c r="E514" s="4"/>
+      <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B515" s="4"/>
+      <c r="C515" s="4"/>
+      <c r="D515" s="4"/>
+      <c r="E515" s="4"/>
+      <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B516" s="4"/>
+      <c r="C516" s="4"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B517" s="4"/>
+      <c r="C517" s="4"/>
+      <c r="D517" s="4"/>
+      <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B518" s="4"/>
+      <c r="C518" s="4"/>
+      <c r="D518" s="4"/>
+      <c r="E518" s="4"/>
+      <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
+    </row>
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B519" s="4"/>
+      <c r="C519" s="4"/>
+      <c r="D519" s="4"/>
+      <c r="E519" s="4"/>
+      <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B520" s="4"/>
+      <c r="C520" s="4"/>
+      <c r="D520" s="4"/>
+      <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B521" s="4"/>
+      <c r="C521" s="4"/>
+      <c r="D521" s="4"/>
+      <c r="E521" s="4"/>
+      <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B522" s="4"/>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4"/>
+      <c r="E522" s="4"/>
+      <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B523" s="4"/>
+      <c r="C523" s="4"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="4"/>
+      <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B524" s="4"/>
+      <c r="C524" s="4"/>
+      <c r="D524" s="4"/>
+      <c r="E524" s="4"/>
+      <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B525" s="4"/>
+      <c r="C525" s="4"/>
+      <c r="D525" s="4"/>
+      <c r="E525" s="4"/>
+      <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
+    </row>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B526" s="4"/>
+      <c r="C526" s="4"/>
+      <c r="D526" s="4"/>
+      <c r="E526" s="4"/>
+      <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
+    </row>
+    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B527" s="4"/>
+      <c r="C527" s="4"/>
+      <c r="D527" s="4"/>
+      <c r="E527" s="4"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+    </row>
+    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B528" s="4"/>
+      <c r="C528" s="4"/>
+      <c r="D528" s="4"/>
+      <c r="E528" s="4"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+    </row>
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B529" s="4"/>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="4"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+    </row>
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B530" s="4"/>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B531" s="4"/>
+      <c r="C531" s="4"/>
+      <c r="D531" s="4"/>
+      <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B533" s="4"/>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="4"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+    </row>
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B534" s="4"/>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="4"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B535" s="4"/>
+      <c r="C535" s="4"/>
+      <c r="D535" s="4"/>
+      <c r="E535" s="4"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B536" s="4"/>
+      <c r="C536" s="4"/>
+      <c r="D536" s="4"/>
+      <c r="E536" s="4"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B537" s="4"/>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="4"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+    </row>
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B538" s="4"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="4"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B539" s="4"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="4"/>
+      <c r="E539" s="4"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="4"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+    </row>
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="4"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="4"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+    </row>
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+    </row>
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+    </row>
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+    </row>
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="4"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+    </row>
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+    </row>
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+    </row>
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B552" s="4"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="4"/>
+      <c r="E552" s="4"/>
+      <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
+    </row>
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B553" s="4"/>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="E553" s="4"/>
+      <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
+    </row>
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B554" s="4"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="E554" s="4"/>
+      <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B555" s="4"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="4"/>
+      <c r="E555" s="4"/>
+      <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
+    </row>
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B556" s="4"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="4"/>
+      <c r="E556" s="4"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+    </row>
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B557" s="4"/>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="E557" s="4"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B558" s="4"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="E558" s="4"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+    </row>
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B559" s="4"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="4"/>
+      <c r="E559" s="4"/>
+      <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
+    </row>
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B560" s="4"/>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="4"/>
+      <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
+    </row>
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="4"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
+    </row>
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="4"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B563" s="4"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="4"/>
+      <c r="E563" s="4"/>
+      <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B564" s="4"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="E564" s="4"/>
+      <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
+    </row>
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B565" s="4"/>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="E565" s="4"/>
+      <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
+    </row>
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B566" s="4"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="E566" s="4"/>
+      <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
+    </row>
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="E567" s="4"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
+    </row>
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="4"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
+    </row>
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="4"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+    </row>
+    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="E570" s="4"/>
+      <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
+    </row>
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="4"/>
+      <c r="E571" s="4"/>
+      <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
+    </row>
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B572" s="4"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="E572" s="4"/>
+      <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
+    </row>
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B573" s="4"/>
+      <c r="C573" s="4"/>
+      <c r="D573" s="4"/>
+      <c r="E573" s="4"/>
+      <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B574" s="4"/>
+      <c r="C574" s="4"/>
+      <c r="D574" s="4"/>
+      <c r="E574" s="4"/>
+      <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
+    </row>
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B575" s="4"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="4"/>
+      <c r="E575" s="4"/>
+      <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
+    </row>
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B576" s="4"/>
+      <c r="C576" s="4"/>
+      <c r="D576" s="4"/>
+      <c r="E576" s="4"/>
+      <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B577" s="4"/>
+      <c r="C577" s="4"/>
+      <c r="D577" s="4"/>
+      <c r="E577" s="4"/>
+      <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B578" s="4"/>
+      <c r="C578" s="4"/>
+      <c r="D578" s="4"/>
+      <c r="E578" s="4"/>
+      <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B579" s="4"/>
+      <c r="C579" s="4"/>
+      <c r="D579" s="4"/>
+      <c r="E579" s="4"/>
+      <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B580" s="4"/>
+      <c r="C580" s="4"/>
+      <c r="D580" s="4"/>
+      <c r="E580" s="4"/>
+      <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B581" s="4"/>
+      <c r="C581" s="4"/>
+      <c r="D581" s="4"/>
+      <c r="E581" s="4"/>
+      <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B582" s="4"/>
+      <c r="C582" s="4"/>
+      <c r="D582" s="4"/>
+      <c r="E582" s="4"/>
+      <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B583" s="4"/>
+      <c r="C583" s="4"/>
+      <c r="D583" s="4"/>
+      <c r="E583" s="4"/>
+      <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B584" s="4"/>
+      <c r="C584" s="4"/>
+      <c r="D584" s="4"/>
+      <c r="E584" s="4"/>
+      <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B585" s="4"/>
+      <c r="C585" s="4"/>
+      <c r="D585" s="4"/>
+      <c r="E585" s="4"/>
+      <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B586" s="4"/>
+      <c r="C586" s="4"/>
+      <c r="D586" s="4"/>
+      <c r="E586" s="4"/>
+      <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B587" s="4"/>
+      <c r="C587" s="4"/>
+      <c r="D587" s="4"/>
+      <c r="E587" s="4"/>
+      <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B588" s="4"/>
+      <c r="C588" s="4"/>
+      <c r="D588" s="4"/>
+      <c r="E588" s="4"/>
+      <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B589" s="4"/>
+      <c r="C589" s="4"/>
+      <c r="D589" s="4"/>
+      <c r="E589" s="4"/>
+      <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B590" s="4"/>
+      <c r="C590" s="4"/>
+      <c r="D590" s="4"/>
+      <c r="E590" s="4"/>
+      <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B591" s="4"/>
+      <c r="C591" s="4"/>
+      <c r="D591" s="4"/>
+      <c r="E591" s="4"/>
+      <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B592" s="4"/>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="E592" s="4"/>
+      <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="E593" s="4"/>
+      <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B594" s="4"/>
+      <c r="C594" s="4"/>
+      <c r="D594" s="4"/>
+      <c r="E594" s="4"/>
+      <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B595" s="4"/>
+      <c r="C595" s="4"/>
+      <c r="D595" s="4"/>
+      <c r="E595" s="4"/>
+      <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
+    </row>
+    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B596" s="4"/>
+      <c r="C596" s="4"/>
+      <c r="D596" s="4"/>
+      <c r="E596" s="4"/>
+      <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
+    </row>
+    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B597" s="4"/>
+      <c r="C597" s="4"/>
+      <c r="D597" s="4"/>
+      <c r="E597" s="4"/>
+      <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
+    </row>
+    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B598" s="4"/>
+      <c r="C598" s="4"/>
+      <c r="D598" s="4"/>
+      <c r="E598" s="4"/>
+      <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
+    </row>
+    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B599" s="4"/>
+      <c r="C599" s="4"/>
+      <c r="D599" s="4"/>
+      <c r="E599" s="4"/>
+      <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
+    </row>
+    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B600" s="4"/>
+      <c r="C600" s="4"/>
+      <c r="D600" s="4"/>
+      <c r="E600" s="4"/>
+      <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
+    </row>
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B601" s="4"/>
+      <c r="C601" s="4"/>
+      <c r="D601" s="4"/>
+      <c r="E601" s="4"/>
+      <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
+    </row>
+    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B602" s="4"/>
+      <c r="C602" s="4"/>
+      <c r="D602" s="4"/>
+      <c r="E602" s="4"/>
+      <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
+    </row>
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B603" s="4"/>
+      <c r="C603" s="4"/>
+      <c r="D603" s="4"/>
+      <c r="E603" s="4"/>
+      <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
+    </row>
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B604" s="4"/>
+      <c r="C604" s="4"/>
+      <c r="D604" s="4"/>
+      <c r="E604" s="4"/>
+      <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
+    </row>
+    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B605" s="4"/>
+      <c r="C605" s="4"/>
+      <c r="D605" s="4"/>
+      <c r="E605" s="4"/>
+      <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
+    </row>
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B606" s="4"/>
+      <c r="C606" s="4"/>
+      <c r="D606" s="4"/>
+      <c r="E606" s="4"/>
+      <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
+    </row>
+    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B607" s="4"/>
+      <c r="C607" s="4"/>
+      <c r="D607" s="4"/>
+      <c r="E607" s="4"/>
+      <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
+    </row>
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B608" s="4"/>
+      <c r="C608" s="4"/>
+      <c r="D608" s="4"/>
+      <c r="E608" s="4"/>
+      <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
+    </row>
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B609" s="4"/>
+      <c r="C609" s="4"/>
+      <c r="D609" s="4"/>
+      <c r="E609" s="4"/>
+      <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
+    </row>
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B610" s="4"/>
+      <c r="C610" s="4"/>
+      <c r="D610" s="4"/>
+      <c r="E610" s="4"/>
+      <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
+    </row>
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B611" s="4"/>
+      <c r="C611" s="4"/>
+      <c r="D611" s="4"/>
+      <c r="E611" s="4"/>
+      <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
+    </row>
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B612" s="4"/>
+      <c r="C612" s="4"/>
+      <c r="D612" s="4"/>
+      <c r="E612" s="4"/>
+      <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
+    </row>
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B613" s="4"/>
+      <c r="C613" s="4"/>
+      <c r="D613" s="4"/>
+      <c r="E613" s="4"/>
+      <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
+    </row>
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B614" s="4"/>
+      <c r="C614" s="4"/>
+      <c r="D614" s="4"/>
+      <c r="E614" s="4"/>
+      <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
+    </row>
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B615" s="4"/>
+      <c r="C615" s="4"/>
+      <c r="D615" s="4"/>
+      <c r="E615" s="4"/>
+      <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
+    </row>
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B616" s="4"/>
+      <c r="C616" s="4"/>
+      <c r="D616" s="4"/>
+      <c r="E616" s="4"/>
+      <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
+    </row>
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B617" s="4"/>
+      <c r="C617" s="4"/>
+      <c r="D617" s="4"/>
+      <c r="E617" s="4"/>
+      <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
+    </row>
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B618" s="4"/>
+      <c r="C618" s="4"/>
+      <c r="D618" s="4"/>
+      <c r="E618" s="4"/>
+      <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
+    </row>
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B619" s="4"/>
+      <c r="C619" s="4"/>
+      <c r="D619" s="4"/>
+      <c r="E619" s="4"/>
+      <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
+    </row>
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B620" s="4"/>
+      <c r="C620" s="4"/>
+      <c r="D620" s="4"/>
+      <c r="E620" s="4"/>
+      <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
+    </row>
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B621" s="4"/>
+      <c r="C621" s="4"/>
+      <c r="D621" s="4"/>
+      <c r="E621" s="4"/>
+      <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
+    </row>
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B622" s="4"/>
+      <c r="C622" s="4"/>
+      <c r="D622" s="4"/>
+      <c r="E622" s="4"/>
+      <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
+    </row>
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B623" s="4"/>
+      <c r="C623" s="4"/>
+      <c r="D623" s="4"/>
+      <c r="E623" s="4"/>
+      <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
+    </row>
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B624" s="4"/>
+      <c r="C624" s="4"/>
+      <c r="D624" s="4"/>
+      <c r="E624" s="4"/>
+      <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
+    </row>
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B625" s="4"/>
+      <c r="C625" s="4"/>
+      <c r="D625" s="4"/>
+      <c r="E625" s="4"/>
+      <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
+    </row>
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B626" s="4"/>
+      <c r="C626" s="4"/>
+      <c r="D626" s="4"/>
+      <c r="E626" s="4"/>
+      <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
+    </row>
+    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B627" s="4"/>
+      <c r="C627" s="4"/>
+      <c r="D627" s="4"/>
+      <c r="E627" s="4"/>
+      <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
+    </row>
+    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B628" s="4"/>
+      <c r="C628" s="4"/>
+      <c r="D628" s="4"/>
+      <c r="E628" s="4"/>
+      <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
+    </row>
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B629" s="4"/>
+      <c r="C629" s="4"/>
+      <c r="D629" s="4"/>
+      <c r="E629" s="4"/>
+      <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
+    </row>
+    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B630" s="4"/>
+      <c r="C630" s="4"/>
+      <c r="D630" s="4"/>
+      <c r="E630" s="4"/>
+      <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
+    </row>
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B631" s="4"/>
+      <c r="C631" s="4"/>
+      <c r="D631" s="4"/>
+      <c r="E631" s="4"/>
+      <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
+    </row>
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B632" s="4"/>
+      <c r="C632" s="4"/>
+      <c r="D632" s="4"/>
+      <c r="E632" s="4"/>
+      <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
+    </row>
+    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B633" s="4"/>
+      <c r="C633" s="4"/>
+      <c r="D633" s="4"/>
+      <c r="E633" s="4"/>
+      <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
+    </row>
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B634" s="4"/>
+      <c r="C634" s="4"/>
+      <c r="D634" s="4"/>
+      <c r="E634" s="4"/>
+      <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
+    </row>
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B635" s="4"/>
+      <c r="C635" s="4"/>
+      <c r="D635" s="4"/>
+      <c r="E635" s="4"/>
+      <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
+    </row>
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B636" s="4"/>
+      <c r="C636" s="4"/>
+      <c r="D636" s="4"/>
+      <c r="E636" s="4"/>
+      <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
+    </row>
+    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B637" s="4"/>
+      <c r="C637" s="4"/>
+      <c r="D637" s="4"/>
+      <c r="E637" s="4"/>
+      <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
+    </row>
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B638" s="4"/>
+      <c r="C638" s="4"/>
+      <c r="D638" s="4"/>
+      <c r="E638" s="4"/>
+      <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
+    </row>
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B639" s="4"/>
+      <c r="C639" s="4"/>
+      <c r="D639" s="4"/>
+      <c r="E639" s="4"/>
+      <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
+    </row>
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B640" s="4"/>
+      <c r="C640" s="4"/>
+      <c r="D640" s="4"/>
+      <c r="E640" s="4"/>
+      <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
+    </row>
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B641" s="4"/>
+      <c r="C641" s="4"/>
+      <c r="D641" s="4"/>
+      <c r="E641" s="4"/>
+      <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
+    </row>
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B642" s="4"/>
+      <c r="C642" s="4"/>
+      <c r="D642" s="4"/>
+      <c r="E642" s="4"/>
+      <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
+    </row>
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B643" s="4"/>
+      <c r="C643" s="4"/>
+      <c r="D643" s="4"/>
+      <c r="E643" s="4"/>
+      <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
+    </row>
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B644" s="4"/>
+      <c r="C644" s="4"/>
+      <c r="D644" s="4"/>
+      <c r="E644" s="4"/>
+      <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
+    </row>
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B645" s="4"/>
+      <c r="C645" s="4"/>
+      <c r="D645" s="4"/>
+      <c r="E645" s="4"/>
+      <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
+    </row>
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B646" s="4"/>
+      <c r="C646" s="4"/>
+      <c r="D646" s="4"/>
+      <c r="E646" s="4"/>
+      <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
+    </row>
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B647" s="4"/>
+      <c r="C647" s="4"/>
+      <c r="D647" s="4"/>
+      <c r="E647" s="4"/>
+      <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
+    </row>
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B648" s="4"/>
+      <c r="C648" s="4"/>
+      <c r="D648" s="4"/>
+      <c r="E648" s="4"/>
+      <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
+    </row>
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B649" s="4"/>
+      <c r="C649" s="4"/>
+      <c r="D649" s="4"/>
+      <c r="E649" s="4"/>
+      <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
+    </row>
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B650" s="4"/>
+      <c r="C650" s="4"/>
+      <c r="D650" s="4"/>
+      <c r="E650" s="4"/>
+      <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
+    </row>
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B651" s="4"/>
+      <c r="C651" s="4"/>
+      <c r="D651" s="4"/>
+      <c r="E651" s="4"/>
+      <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
+    </row>
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B652" s="4"/>
+      <c r="C652" s="4"/>
+      <c r="D652" s="4"/>
+      <c r="E652" s="4"/>
+      <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
+    </row>
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B653" s="4"/>
+      <c r="C653" s="4"/>
+      <c r="D653" s="4"/>
+      <c r="E653" s="4"/>
+      <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
+    </row>
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B654" s="4"/>
+      <c r="C654" s="4"/>
+      <c r="D654" s="4"/>
+      <c r="E654" s="4"/>
+      <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
+    </row>
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B655" s="4"/>
+      <c r="C655" s="4"/>
+      <c r="D655" s="4"/>
+      <c r="E655" s="4"/>
+      <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
+    </row>
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B656" s="4"/>
+      <c r="C656" s="4"/>
+      <c r="D656" s="4"/>
+      <c r="E656" s="4"/>
+      <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
+    </row>
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B657" s="4"/>
+      <c r="C657" s="4"/>
+      <c r="D657" s="4"/>
+      <c r="E657" s="4"/>
+      <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
+    </row>
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B658" s="4"/>
+      <c r="C658" s="4"/>
+      <c r="D658" s="4"/>
+      <c r="E658" s="4"/>
+      <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
+    </row>
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B659" s="4"/>
+      <c r="C659" s="4"/>
+      <c r="D659" s="4"/>
+      <c r="E659" s="4"/>
+      <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
+    </row>
+    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B660" s="4"/>
+      <c r="C660" s="4"/>
+      <c r="D660" s="4"/>
+      <c r="E660" s="4"/>
+      <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
+    </row>
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B661" s="4"/>
+      <c r="C661" s="4"/>
+      <c r="D661" s="4"/>
+      <c r="E661" s="4"/>
+      <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
+    </row>
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B662" s="4"/>
+      <c r="C662" s="4"/>
+      <c r="D662" s="4"/>
+      <c r="E662" s="4"/>
+      <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
+    </row>
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B663" s="4"/>
+      <c r="C663" s="4"/>
+      <c r="D663" s="4"/>
+      <c r="E663" s="4"/>
+      <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
+    </row>
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B664" s="4"/>
+      <c r="C664" s="4"/>
+      <c r="D664" s="4"/>
+      <c r="E664" s="4"/>
+      <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
+    </row>
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B665" s="4"/>
+      <c r="C665" s="4"/>
+      <c r="D665" s="4"/>
+      <c r="E665" s="4"/>
+      <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
+    </row>
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B666" s="4"/>
+      <c r="C666" s="4"/>
+      <c r="D666" s="4"/>
+      <c r="E666" s="4"/>
+      <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
+    </row>
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B667" s="4"/>
+      <c r="C667" s="4"/>
+      <c r="D667" s="4"/>
+      <c r="E667" s="4"/>
+      <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
+    </row>
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B668" s="4"/>
+      <c r="C668" s="4"/>
+      <c r="D668" s="4"/>
+      <c r="E668" s="4"/>
+      <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
+    </row>
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B669" s="4"/>
+      <c r="C669" s="4"/>
+      <c r="D669" s="4"/>
+      <c r="E669" s="4"/>
+      <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
+    </row>
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B670" s="4"/>
+      <c r="C670" s="4"/>
+      <c r="D670" s="4"/>
+      <c r="E670" s="4"/>
+      <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
+    </row>
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B671" s="4"/>
+      <c r="C671" s="4"/>
+      <c r="D671" s="4"/>
+      <c r="E671" s="4"/>
+      <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
+    </row>
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B672" s="4"/>
+      <c r="C672" s="4"/>
+      <c r="D672" s="4"/>
+      <c r="E672" s="4"/>
+      <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B673" s="4"/>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+      <c r="E673" s="4"/>
+      <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B674" s="4"/>
+      <c r="C674" s="4"/>
+      <c r="D674" s="4"/>
+      <c r="E674" s="4"/>
+      <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B675" s="4"/>
+      <c r="C675" s="4"/>
+      <c r="D675" s="4"/>
+      <c r="E675" s="4"/>
+      <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B676" s="4"/>
+      <c r="C676" s="4"/>
+      <c r="D676" s="4"/>
+      <c r="E676" s="4"/>
+      <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B677" s="4"/>
+      <c r="C677" s="4"/>
+      <c r="D677" s="4"/>
+      <c r="E677" s="4"/>
+      <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B678" s="4"/>
+      <c r="C678" s="4"/>
+      <c r="D678" s="4"/>
+      <c r="E678" s="4"/>
+      <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B679" s="4"/>
+      <c r="C679" s="4"/>
+      <c r="D679" s="4"/>
+      <c r="E679" s="4"/>
+      <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B680" s="4"/>
+      <c r="C680" s="4"/>
+      <c r="D680" s="4"/>
+      <c r="E680" s="4"/>
+      <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B681" s="4"/>
+      <c r="C681" s="4"/>
+      <c r="D681" s="4"/>
+      <c r="E681" s="4"/>
+      <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
+    </row>
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B682" s="4"/>
+      <c r="C682" s="4"/>
+      <c r="D682" s="4"/>
+      <c r="E682" s="4"/>
+      <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
+    </row>
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B683" s="4"/>
+      <c r="C683" s="4"/>
+      <c r="D683" s="4"/>
+      <c r="E683" s="4"/>
+      <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B684" s="4"/>
+      <c r="C684" s="4"/>
+      <c r="D684" s="4"/>
+      <c r="E684" s="4"/>
+      <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B685" s="4"/>
+      <c r="C685" s="4"/>
+      <c r="D685" s="4"/>
+      <c r="E685" s="4"/>
+      <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
+    </row>
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B686" s="4"/>
+      <c r="C686" s="4"/>
+      <c r="D686" s="4"/>
+      <c r="E686" s="4"/>
+      <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
+    </row>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B687" s="4"/>
+      <c r="C687" s="4"/>
+      <c r="D687" s="4"/>
+      <c r="E687" s="4"/>
+      <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B688" s="4"/>
+      <c r="C688" s="4"/>
+      <c r="D688" s="4"/>
+      <c r="E688" s="4"/>
+      <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B689" s="4"/>
+      <c r="C689" s="4"/>
+      <c r="D689" s="4"/>
+      <c r="E689" s="4"/>
+      <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
+    </row>
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B690" s="4"/>
+      <c r="C690" s="4"/>
+      <c r="D690" s="4"/>
+      <c r="E690" s="4"/>
+      <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
+    </row>
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B691" s="4"/>
+      <c r="C691" s="4"/>
+      <c r="D691" s="4"/>
+      <c r="E691" s="4"/>
+      <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
+    </row>
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B692" s="4"/>
+      <c r="C692" s="4"/>
+      <c r="D692" s="4"/>
+      <c r="E692" s="4"/>
+      <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
+    </row>
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B693" s="4"/>
+      <c r="C693" s="4"/>
+      <c r="D693" s="4"/>
+      <c r="E693" s="4"/>
+      <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
+    </row>
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B694" s="4"/>
+      <c r="C694" s="4"/>
+      <c r="D694" s="4"/>
+      <c r="E694" s="4"/>
+      <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
+    </row>
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B695" s="4"/>
+      <c r="C695" s="4"/>
+      <c r="D695" s="4"/>
+      <c r="E695" s="4"/>
+      <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
+    </row>
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B696" s="4"/>
+      <c r="C696" s="4"/>
+      <c r="D696" s="4"/>
+      <c r="E696" s="4"/>
+      <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
+    </row>
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B697" s="4"/>
+      <c r="C697" s="4"/>
+      <c r="D697" s="4"/>
+      <c r="E697" s="4"/>
+      <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
+    </row>
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B698" s="4"/>
+      <c r="C698" s="4"/>
+      <c r="D698" s="4"/>
+      <c r="E698" s="4"/>
+      <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
+    </row>
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B699" s="4"/>
+      <c r="C699" s="4"/>
+      <c r="D699" s="4"/>
+      <c r="E699" s="4"/>
+      <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
+    </row>
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B700" s="4"/>
+      <c r="C700" s="4"/>
+      <c r="D700" s="4"/>
+      <c r="E700" s="4"/>
+      <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
+    </row>
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B701" s="4"/>
+      <c r="C701" s="4"/>
+      <c r="D701" s="4"/>
+      <c r="E701" s="4"/>
+      <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
+    </row>
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B702" s="4"/>
+      <c r="C702" s="4"/>
+      <c r="D702" s="4"/>
+      <c r="E702" s="4"/>
+      <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
+    </row>
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B703" s="4"/>
+      <c r="C703" s="4"/>
+      <c r="D703" s="4"/>
+      <c r="E703" s="4"/>
+      <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
+    </row>
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B704" s="4"/>
+      <c r="C704" s="4"/>
+      <c r="D704" s="4"/>
+      <c r="E704" s="4"/>
+      <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
+    </row>
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B705" s="4"/>
+      <c r="C705" s="4"/>
+      <c r="D705" s="4"/>
+      <c r="E705" s="4"/>
+      <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
+    </row>
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B706" s="4"/>
+      <c r="C706" s="4"/>
+      <c r="D706" s="4"/>
+      <c r="E706" s="4"/>
+      <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
+    </row>
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B707" s="4"/>
+      <c r="C707" s="4"/>
+      <c r="D707" s="4"/>
+      <c r="E707" s="4"/>
+      <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
+    </row>
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B708" s="4"/>
+      <c r="C708" s="4"/>
+      <c r="D708" s="4"/>
+      <c r="E708" s="4"/>
+      <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
+    </row>
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B709" s="4"/>
+      <c r="C709" s="4"/>
+      <c r="D709" s="4"/>
+      <c r="E709" s="4"/>
+      <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
+    </row>
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B710" s="4"/>
+      <c r="C710" s="4"/>
+      <c r="D710" s="4"/>
+      <c r="E710" s="4"/>
+      <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
+    </row>
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B711" s="4"/>
+      <c r="C711" s="4"/>
+      <c r="D711" s="4"/>
+      <c r="E711" s="4"/>
+      <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
+    </row>
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B712" s="4"/>
+      <c r="C712" s="4"/>
+      <c r="D712" s="4"/>
+      <c r="E712" s="4"/>
+      <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
+    </row>
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B713" s="4"/>
+      <c r="C713" s="4"/>
+      <c r="D713" s="4"/>
+      <c r="E713" s="4"/>
+      <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
+    </row>
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B714" s="4"/>
+      <c r="C714" s="4"/>
+      <c r="D714" s="4"/>
+      <c r="E714" s="4"/>
+      <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
+    </row>
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B715" s="4"/>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
+      <c r="E715" s="4"/>
+      <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
+    </row>
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B716" s="4"/>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="E716" s="4"/>
+      <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
+    </row>
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B717" s="4"/>
+      <c r="C717" s="4"/>
+      <c r="D717" s="4"/>
+      <c r="E717" s="4"/>
+      <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
+    </row>
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B718" s="4"/>
+      <c r="C718" s="4"/>
+      <c r="D718" s="4"/>
+      <c r="E718" s="4"/>
+      <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
+    </row>
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B719" s="4"/>
+      <c r="C719" s="4"/>
+      <c r="D719" s="4"/>
+      <c r="E719" s="4"/>
+      <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
+    </row>
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B720" s="4"/>
+      <c r="C720" s="4"/>
+      <c r="D720" s="4"/>
+      <c r="E720" s="4"/>
+      <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
+    </row>
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B721" s="4"/>
+      <c r="C721" s="4"/>
+      <c r="D721" s="4"/>
+      <c r="E721" s="4"/>
+      <c r="F721" s="4"/>
+      <c r="G721" s="4"/>
+    </row>
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B722" s="4"/>
+      <c r="C722" s="4"/>
+      <c r="D722" s="4"/>
+      <c r="E722" s="4"/>
+      <c r="F722" s="4"/>
+      <c r="G722" s="4"/>
+    </row>
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B723" s="4"/>
+      <c r="C723" s="4"/>
+      <c r="D723" s="4"/>
+      <c r="E723" s="4"/>
+      <c r="F723" s="4"/>
+      <c r="G723" s="4"/>
+    </row>
+    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B724" s="4"/>
+      <c r="C724" s="4"/>
+      <c r="D724" s="4"/>
+      <c r="E724" s="4"/>
+      <c r="F724" s="4"/>
+      <c r="G724" s="4"/>
+    </row>
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B725" s="4"/>
+      <c r="C725" s="4"/>
+      <c r="D725" s="4"/>
+      <c r="E725" s="4"/>
+      <c r="F725" s="4"/>
+      <c r="G725" s="4"/>
+    </row>
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B726" s="4"/>
+      <c r="C726" s="4"/>
+      <c r="D726" s="4"/>
+      <c r="E726" s="4"/>
+      <c r="F726" s="4"/>
+      <c r="G726" s="4"/>
+    </row>
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B727" s="4"/>
+      <c r="C727" s="4"/>
+      <c r="D727" s="4"/>
+      <c r="E727" s="4"/>
+      <c r="F727" s="4"/>
+      <c r="G727" s="4"/>
+    </row>
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B728" s="4"/>
+      <c r="C728" s="4"/>
+      <c r="D728" s="4"/>
+      <c r="E728" s="4"/>
+      <c r="F728" s="4"/>
+      <c r="G728" s="4"/>
+    </row>
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B729" s="4"/>
+      <c r="C729" s="4"/>
+      <c r="D729" s="4"/>
+      <c r="E729" s="4"/>
+      <c r="F729" s="4"/>
+      <c r="G729" s="4"/>
+    </row>
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B730" s="4"/>
+      <c r="C730" s="4"/>
+      <c r="D730" s="4"/>
+      <c r="E730" s="4"/>
+      <c r="F730" s="4"/>
+      <c r="G730" s="4"/>
+    </row>
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B731" s="4"/>
+      <c r="C731" s="4"/>
+      <c r="D731" s="4"/>
+      <c r="E731" s="4"/>
+      <c r="F731" s="4"/>
+      <c r="G731" s="4"/>
+    </row>
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B732" s="4"/>
+      <c r="C732" s="4"/>
+      <c r="D732" s="4"/>
+      <c r="E732" s="4"/>
+      <c r="F732" s="4"/>
+      <c r="G732" s="4"/>
+    </row>
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B733" s="4"/>
+      <c r="C733" s="4"/>
+      <c r="D733" s="4"/>
+      <c r="E733" s="4"/>
+      <c r="F733" s="4"/>
+      <c r="G733" s="4"/>
+    </row>
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B734" s="4"/>
+      <c r="C734" s="4"/>
+      <c r="D734" s="4"/>
+      <c r="E734" s="4"/>
+      <c r="F734" s="4"/>
+      <c r="G734" s="4"/>
+    </row>
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B735" s="4"/>
+      <c r="C735" s="4"/>
+      <c r="D735" s="4"/>
+      <c r="E735" s="4"/>
+      <c r="F735" s="4"/>
+      <c r="G735" s="4"/>
+    </row>
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B736" s="4"/>
+      <c r="C736" s="4"/>
+      <c r="D736" s="4"/>
+      <c r="E736" s="4"/>
+      <c r="F736" s="4"/>
+      <c r="G736" s="4"/>
+    </row>
+    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B737" s="4"/>
+      <c r="C737" s="4"/>
+      <c r="D737" s="4"/>
+      <c r="E737" s="4"/>
+      <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
+    </row>
+    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B738" s="4"/>
+      <c r="C738" s="4"/>
+      <c r="D738" s="4"/>
+      <c r="E738" s="4"/>
+      <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
+    </row>
+    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B739" s="4"/>
+      <c r="C739" s="4"/>
+      <c r="D739" s="4"/>
+      <c r="E739" s="4"/>
+      <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
+    </row>
+    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B740" s="4"/>
+      <c r="C740" s="4"/>
+      <c r="D740" s="4"/>
+      <c r="E740" s="4"/>
+      <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
+    </row>
+    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B741" s="4"/>
+      <c r="C741" s="4"/>
+      <c r="D741" s="4"/>
+      <c r="E741" s="4"/>
+      <c r="F741" s="4"/>
+      <c r="G741" s="4"/>
+    </row>
+    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B742" s="4"/>
+      <c r="C742" s="4"/>
+      <c r="D742" s="4"/>
+      <c r="E742" s="4"/>
+      <c r="F742" s="4"/>
+      <c r="G742" s="4"/>
+    </row>
+    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B743" s="4"/>
+      <c r="C743" s="4"/>
+      <c r="D743" s="4"/>
+      <c r="E743" s="4"/>
+      <c r="F743" s="4"/>
+      <c r="G743" s="4"/>
+    </row>
+    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B744" s="4"/>
+      <c r="C744" s="4"/>
+      <c r="D744" s="4"/>
+      <c r="E744" s="4"/>
+      <c r="F744" s="4"/>
+      <c r="G744" s="4"/>
+    </row>
+    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B745" s="4"/>
+      <c r="C745" s="4"/>
+      <c r="D745" s="4"/>
+      <c r="E745" s="4"/>
+      <c r="F745" s="4"/>
+      <c r="G745" s="4"/>
+    </row>
+    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B746" s="4"/>
+      <c r="C746" s="4"/>
+      <c r="D746" s="4"/>
+      <c r="E746" s="4"/>
+      <c r="F746" s="4"/>
+      <c r="G746" s="4"/>
+    </row>
+    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B747" s="4"/>
+      <c r="C747" s="4"/>
+      <c r="D747" s="4"/>
+      <c r="E747" s="4"/>
+      <c r="F747" s="4"/>
+      <c r="G747" s="4"/>
+    </row>
+    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B748" s="4"/>
+      <c r="C748" s="4"/>
+      <c r="D748" s="4"/>
+      <c r="E748" s="4"/>
+      <c r="F748" s="4"/>
+      <c r="G748" s="4"/>
+    </row>
+    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B749" s="4"/>
+      <c r="C749" s="4"/>
+      <c r="D749" s="4"/>
+      <c r="E749" s="4"/>
+      <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
+    </row>
+    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B750" s="4"/>
+      <c r="C750" s="4"/>
+      <c r="D750" s="4"/>
+      <c r="E750" s="4"/>
+      <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
+    </row>
+    <row r="751" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B751" s="4"/>
+      <c r="C751" s="4"/>
+      <c r="D751" s="4"/>
+      <c r="E751" s="4"/>
+      <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
+    </row>
+    <row r="752" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B752" s="4"/>
+      <c r="C752" s="4"/>
+      <c r="D752" s="4"/>
+      <c r="E752" s="4"/>
+      <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
+    </row>
+    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B753" s="4"/>
+      <c r="C753" s="4"/>
+      <c r="D753" s="4"/>
+      <c r="E753" s="4"/>
+      <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
+    </row>
+    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B754" s="4"/>
+      <c r="C754" s="4"/>
+      <c r="D754" s="4"/>
+      <c r="E754" s="4"/>
+      <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
+    </row>
+    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B755" s="4"/>
+      <c r="C755" s="4"/>
+      <c r="D755" s="4"/>
+      <c r="E755" s="4"/>
+      <c r="F755" s="4"/>
+      <c r="G755" s="4"/>
+    </row>
+    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B756" s="4"/>
+      <c r="C756" s="4"/>
+      <c r="D756" s="4"/>
+      <c r="E756" s="4"/>
+      <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
+    </row>
+    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B757" s="4"/>
+      <c r="C757" s="4"/>
+      <c r="D757" s="4"/>
+      <c r="E757" s="4"/>
+      <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
+    </row>
+    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B758" s="4"/>
+      <c r="C758" s="4"/>
+      <c r="D758" s="4"/>
+      <c r="E758" s="4"/>
+      <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
+    </row>
+    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B759" s="4"/>
+      <c r="C759" s="4"/>
+      <c r="D759" s="4"/>
+      <c r="E759" s="4"/>
+      <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
+    </row>
+    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B760" s="4"/>
+      <c r="C760" s="4"/>
+      <c r="D760" s="4"/>
+      <c r="E760" s="4"/>
+      <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
+    </row>
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B761" s="4"/>
+      <c r="C761" s="4"/>
+      <c r="D761" s="4"/>
+      <c r="E761" s="4"/>
+      <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
+    </row>
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B762" s="4"/>
+      <c r="C762" s="4"/>
+      <c r="D762" s="4"/>
+      <c r="E762" s="4"/>
+      <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
+    </row>
+    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B763" s="4"/>
+      <c r="C763" s="4"/>
+      <c r="D763" s="4"/>
+      <c r="E763" s="4"/>
+      <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
+    </row>
+    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B764" s="4"/>
+      <c r="C764" s="4"/>
+      <c r="D764" s="4"/>
+      <c r="E764" s="4"/>
+      <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
+    </row>
+    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+      <c r="D765" s="4"/>
+      <c r="E765" s="4"/>
+      <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
+    </row>
+    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B766" s="4"/>
+      <c r="C766" s="4"/>
+      <c r="D766" s="4"/>
+      <c r="E766" s="4"/>
+      <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
+    </row>
+    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B767" s="4"/>
+      <c r="C767" s="4"/>
+      <c r="D767" s="4"/>
+      <c r="E767" s="4"/>
+      <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
+    </row>
+    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B768" s="4"/>
+      <c r="C768" s="4"/>
+      <c r="D768" s="4"/>
+      <c r="E768" s="4"/>
+      <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
+    </row>
+    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B769" s="4"/>
+      <c r="C769" s="4"/>
+      <c r="D769" s="4"/>
+      <c r="E769" s="4"/>
+      <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
+    </row>
+    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B770" s="4"/>
+      <c r="C770" s="4"/>
+      <c r="D770" s="4"/>
+      <c r="E770" s="4"/>
+      <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
+    </row>
+    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B771" s="4"/>
+      <c r="C771" s="4"/>
+      <c r="D771" s="4"/>
+      <c r="E771" s="4"/>
+      <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
+    </row>
+    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B772" s="4"/>
+      <c r="C772" s="4"/>
+      <c r="D772" s="4"/>
+      <c r="E772" s="4"/>
+      <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
+    </row>
+    <row r="773" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B773" s="4"/>
+      <c r="C773" s="4"/>
+      <c r="D773" s="4"/>
+      <c r="E773" s="4"/>
+      <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
+    </row>
+    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B774" s="4"/>
+      <c r="C774" s="4"/>
+      <c r="D774" s="4"/>
+      <c r="E774" s="4"/>
+      <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
+    </row>
+    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B775" s="4"/>
+      <c r="C775" s="4"/>
+      <c r="D775" s="4"/>
+      <c r="E775" s="4"/>
+      <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
+    </row>
+    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B776" s="4"/>
+      <c r="C776" s="4"/>
+      <c r="D776" s="4"/>
+      <c r="E776" s="4"/>
+      <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
+    </row>
+    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B777" s="4"/>
+      <c r="C777" s="4"/>
+      <c r="D777" s="4"/>
+      <c r="E777" s="4"/>
+      <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
+    </row>
+    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B778" s="4"/>
+      <c r="C778" s="4"/>
+      <c r="D778" s="4"/>
+      <c r="E778" s="4"/>
+      <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
+    </row>
+    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B779" s="4"/>
+      <c r="C779" s="4"/>
+      <c r="D779" s="4"/>
+      <c r="E779" s="4"/>
+      <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
+    </row>
+    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B780" s="4"/>
+      <c r="C780" s="4"/>
+      <c r="D780" s="4"/>
+      <c r="E780" s="4"/>
+      <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
+    </row>
+    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B781" s="4"/>
+      <c r="C781" s="4"/>
+      <c r="D781" s="4"/>
+      <c r="E781" s="4"/>
+      <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
+    </row>
+    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B782" s="4"/>
+      <c r="C782" s="4"/>
+      <c r="D782" s="4"/>
+      <c r="E782" s="4"/>
+      <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
+    </row>
+    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B783" s="4"/>
+      <c r="C783" s="4"/>
+      <c r="D783" s="4"/>
+      <c r="E783" s="4"/>
+      <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
+    </row>
+    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B784" s="4"/>
+      <c r="C784" s="4"/>
+      <c r="D784" s="4"/>
+      <c r="E784" s="4"/>
+      <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
+    </row>
+    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B785" s="4"/>
+      <c r="C785" s="4"/>
+      <c r="D785" s="4"/>
+      <c r="E785" s="4"/>
+      <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
+    </row>
+    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B786" s="4"/>
+      <c r="C786" s="4"/>
+      <c r="D786" s="4"/>
+      <c r="E786" s="4"/>
+      <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
+    </row>
+    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B787" s="4"/>
+      <c r="C787" s="4"/>
+      <c r="D787" s="4"/>
+      <c r="E787" s="4"/>
+      <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
+    </row>
+    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B788" s="4"/>
+      <c r="C788" s="4"/>
+      <c r="D788" s="4"/>
+      <c r="E788" s="4"/>
+      <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
+    </row>
+    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B789" s="4"/>
+      <c r="C789" s="4"/>
+      <c r="D789" s="4"/>
+      <c r="E789" s="4"/>
+      <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
+    </row>
+    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B790" s="4"/>
+      <c r="C790" s="4"/>
+      <c r="D790" s="4"/>
+      <c r="E790" s="4"/>
+      <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
+    </row>
+    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B791" s="4"/>
+      <c r="C791" s="4"/>
+      <c r="D791" s="4"/>
+      <c r="E791" s="4"/>
+      <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
+    </row>
+    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B792" s="4"/>
+      <c r="C792" s="4"/>
+      <c r="D792" s="4"/>
+      <c r="E792" s="4"/>
+      <c r="F792" s="4"/>
+      <c r="G792" s="4"/>
+    </row>
+    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B793" s="4"/>
+      <c r="C793" s="4"/>
+      <c r="D793" s="4"/>
+      <c r="E793" s="4"/>
+      <c r="F793" s="4"/>
+      <c r="G793" s="4"/>
+    </row>
+    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B794" s="4"/>
+      <c r="C794" s="4"/>
+      <c r="D794" s="4"/>
+      <c r="E794" s="4"/>
+      <c r="F794" s="4"/>
+      <c r="G794" s="4"/>
+    </row>
+    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B795" s="4"/>
+      <c r="C795" s="4"/>
+      <c r="D795" s="4"/>
+      <c r="E795" s="4"/>
+      <c r="F795" s="4"/>
+      <c r="G795" s="4"/>
+    </row>
+    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B796" s="4"/>
+      <c r="C796" s="4"/>
+      <c r="D796" s="4"/>
+      <c r="E796" s="4"/>
+      <c r="F796" s="4"/>
+      <c r="G796" s="4"/>
+    </row>
+    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B797" s="4"/>
+      <c r="C797" s="4"/>
+      <c r="D797" s="4"/>
+      <c r="E797" s="4"/>
+      <c r="F797" s="4"/>
+      <c r="G797" s="4"/>
+    </row>
+    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B798" s="4"/>
+      <c r="C798" s="4"/>
+      <c r="D798" s="4"/>
+      <c r="E798" s="4"/>
+      <c r="F798" s="4"/>
+      <c r="G798" s="4"/>
+    </row>
+    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B799" s="4"/>
+      <c r="C799" s="4"/>
+      <c r="D799" s="4"/>
+      <c r="E799" s="4"/>
+      <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
+    </row>
+    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B800" s="4"/>
+      <c r="C800" s="4"/>
+      <c r="D800" s="4"/>
+      <c r="E800" s="4"/>
+      <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
+    </row>
+    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B801" s="4"/>
+      <c r="C801" s="4"/>
+      <c r="D801" s="4"/>
+      <c r="E801" s="4"/>
+      <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
+    </row>
+    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B802" s="4"/>
+      <c r="C802" s="4"/>
+      <c r="D802" s="4"/>
+      <c r="E802" s="4"/>
+      <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
+    </row>
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B803" s="4"/>
+      <c r="C803" s="4"/>
+      <c r="D803" s="4"/>
+      <c r="E803" s="4"/>
+      <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
+    </row>
+    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B804" s="4"/>
+      <c r="C804" s="4"/>
+      <c r="D804" s="4"/>
+      <c r="E804" s="4"/>
+      <c r="F804" s="4"/>
+      <c r="G804" s="4"/>
+    </row>
+    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B805" s="4"/>
+      <c r="C805" s="4"/>
+      <c r="D805" s="4"/>
+      <c r="E805" s="4"/>
+      <c r="F805" s="4"/>
+      <c r="G805" s="4"/>
+    </row>
+    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B806" s="4"/>
+      <c r="C806" s="4"/>
+      <c r="D806" s="4"/>
+      <c r="E806" s="4"/>
+      <c r="F806" s="4"/>
+      <c r="G806" s="4"/>
+    </row>
+    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B807" s="4"/>
+      <c r="C807" s="4"/>
+      <c r="D807" s="4"/>
+      <c r="E807" s="4"/>
+      <c r="F807" s="4"/>
+      <c r="G807" s="4"/>
+    </row>
+    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B808" s="4"/>
+      <c r="C808" s="4"/>
+      <c r="D808" s="4"/>
+      <c r="E808" s="4"/>
+      <c r="F808" s="4"/>
+      <c r="G808" s="4"/>
+    </row>
+    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B809" s="4"/>
+      <c r="C809" s="4"/>
+      <c r="D809" s="4"/>
+      <c r="E809" s="4"/>
+      <c r="F809" s="4"/>
+      <c r="G809" s="4"/>
+    </row>
+    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B810" s="4"/>
+      <c r="C810" s="4"/>
+      <c r="D810" s="4"/>
+      <c r="E810" s="4"/>
+      <c r="F810" s="4"/>
+      <c r="G810" s="4"/>
+    </row>
+    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B811" s="4"/>
+      <c r="C811" s="4"/>
+      <c r="D811" s="4"/>
+      <c r="E811" s="4"/>
+      <c r="F811" s="4"/>
+      <c r="G811" s="4"/>
+    </row>
+    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B812" s="4"/>
+      <c r="C812" s="4"/>
+      <c r="D812" s="4"/>
+      <c r="E812" s="4"/>
+      <c r="F812" s="4"/>
+      <c r="G812" s="4"/>
+    </row>
+    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B813" s="4"/>
+      <c r="C813" s="4"/>
+      <c r="D813" s="4"/>
+      <c r="E813" s="4"/>
+      <c r="F813" s="4"/>
+      <c r="G813" s="4"/>
+    </row>
+    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B814" s="4"/>
+      <c r="C814" s="4"/>
+      <c r="D814" s="4"/>
+      <c r="E814" s="4"/>
+      <c r="F814" s="4"/>
+      <c r="G814" s="4"/>
+    </row>
+    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B815" s="4"/>
+      <c r="C815" s="4"/>
+      <c r="D815" s="4"/>
+      <c r="E815" s="4"/>
+      <c r="F815" s="4"/>
+      <c r="G815" s="4"/>
+    </row>
+    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B816" s="4"/>
+      <c r="C816" s="4"/>
+      <c r="D816" s="4"/>
+      <c r="E816" s="4"/>
+      <c r="F816" s="4"/>
+      <c r="G816" s="4"/>
+    </row>
+    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B817" s="4"/>
+      <c r="C817" s="4"/>
+      <c r="D817" s="4"/>
+      <c r="E817" s="4"/>
+      <c r="F817" s="4"/>
+      <c r="G817" s="4"/>
+    </row>
+    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B818" s="4"/>
+      <c r="C818" s="4"/>
+      <c r="D818" s="4"/>
+      <c r="E818" s="4"/>
+      <c r="F818" s="4"/>
+      <c r="G818" s="4"/>
+    </row>
+    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B819" s="4"/>
+      <c r="C819" s="4"/>
+      <c r="D819" s="4"/>
+      <c r="E819" s="4"/>
+      <c r="F819" s="4"/>
+      <c r="G819" s="4"/>
+    </row>
+    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B820" s="4"/>
+      <c r="C820" s="4"/>
+      <c r="D820" s="4"/>
+      <c r="E820" s="4"/>
+      <c r="F820" s="4"/>
+      <c r="G820" s="4"/>
+    </row>
+    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B821" s="4"/>
+      <c r="C821" s="4"/>
+      <c r="D821" s="4"/>
+      <c r="E821" s="4"/>
+      <c r="F821" s="4"/>
+      <c r="G821" s="4"/>
+    </row>
+    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B822" s="4"/>
+      <c r="C822" s="4"/>
+      <c r="D822" s="4"/>
+      <c r="E822" s="4"/>
+      <c r="F822" s="4"/>
+      <c r="G822" s="4"/>
+    </row>
+    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B823" s="4"/>
+      <c r="C823" s="4"/>
+      <c r="D823" s="4"/>
+      <c r="E823" s="4"/>
+      <c r="F823" s="4"/>
+      <c r="G823" s="4"/>
+    </row>
+    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B824" s="4"/>
+      <c r="C824" s="4"/>
+      <c r="D824" s="4"/>
+      <c r="E824" s="4"/>
+      <c r="F824" s="4"/>
+      <c r="G824" s="4"/>
+    </row>
+    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B825" s="4"/>
+      <c r="C825" s="4"/>
+      <c r="D825" s="4"/>
+      <c r="E825" s="4"/>
+      <c r="F825" s="4"/>
+      <c r="G825" s="4"/>
+    </row>
+    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B826" s="4"/>
+      <c r="C826" s="4"/>
+      <c r="D826" s="4"/>
+      <c r="E826" s="4"/>
+      <c r="F826" s="4"/>
+      <c r="G826" s="4"/>
+    </row>
+    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B827" s="4"/>
+      <c r="C827" s="4"/>
+      <c r="D827" s="4"/>
+      <c r="E827" s="4"/>
+      <c r="F827" s="4"/>
+      <c r="G827" s="4"/>
+    </row>
+    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B828" s="4"/>
+      <c r="C828" s="4"/>
+      <c r="D828" s="4"/>
+      <c r="E828" s="4"/>
+      <c r="F828" s="4"/>
+      <c r="G828" s="4"/>
+    </row>
+    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B829" s="4"/>
+      <c r="C829" s="4"/>
+      <c r="D829" s="4"/>
+      <c r="E829" s="4"/>
+      <c r="F829" s="4"/>
+      <c r="G829" s="4"/>
+    </row>
+    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B830" s="4"/>
+      <c r="C830" s="4"/>
+      <c r="D830" s="4"/>
+      <c r="E830" s="4"/>
+      <c r="F830" s="4"/>
+      <c r="G830" s="4"/>
+    </row>
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B831" s="4"/>
+      <c r="C831" s="4"/>
+      <c r="D831" s="4"/>
+      <c r="E831" s="4"/>
+      <c r="F831" s="4"/>
+      <c r="G831" s="4"/>
+    </row>
+    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B832" s="4"/>
+      <c r="C832" s="4"/>
+      <c r="D832" s="4"/>
+      <c r="E832" s="4"/>
+      <c r="F832" s="4"/>
+      <c r="G832" s="4"/>
+    </row>
+    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B833" s="4"/>
+      <c r="C833" s="4"/>
+      <c r="D833" s="4"/>
+      <c r="E833" s="4"/>
+      <c r="F833" s="4"/>
+      <c r="G833" s="4"/>
+    </row>
+    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B834" s="4"/>
+      <c r="C834" s="4"/>
+      <c r="D834" s="4"/>
+      <c r="E834" s="4"/>
+      <c r="F834" s="4"/>
+      <c r="G834" s="4"/>
+    </row>
+    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B835" s="4"/>
+      <c r="C835" s="4"/>
+      <c r="D835" s="4"/>
+      <c r="E835" s="4"/>
+      <c r="F835" s="4"/>
+      <c r="G835" s="4"/>
+    </row>
+    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B836" s="4"/>
+      <c r="C836" s="4"/>
+      <c r="D836" s="4"/>
+      <c r="E836" s="4"/>
+      <c r="F836" s="4"/>
+      <c r="G836" s="4"/>
+    </row>
+    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B837" s="4"/>
+      <c r="C837" s="4"/>
+      <c r="D837" s="4"/>
+      <c r="E837" s="4"/>
+      <c r="F837" s="4"/>
+      <c r="G837" s="4"/>
+    </row>
+    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B838" s="4"/>
+      <c r="C838" s="4"/>
+      <c r="D838" s="4"/>
+      <c r="E838" s="4"/>
+      <c r="F838" s="4"/>
+      <c r="G838" s="4"/>
+    </row>
+    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B839" s="4"/>
+      <c r="C839" s="4"/>
+      <c r="D839" s="4"/>
+      <c r="E839" s="4"/>
+      <c r="F839" s="4"/>
+      <c r="G839" s="4"/>
+    </row>
+    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B840" s="4"/>
+      <c r="C840" s="4"/>
+      <c r="D840" s="4"/>
+      <c r="E840" s="4"/>
+      <c r="F840" s="4"/>
+      <c r="G840" s="4"/>
+    </row>
+    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B841" s="4"/>
+      <c r="C841" s="4"/>
+      <c r="D841" s="4"/>
+      <c r="E841" s="4"/>
+      <c r="F841" s="4"/>
+      <c r="G841" s="4"/>
+    </row>
+    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B842" s="4"/>
+      <c r="C842" s="4"/>
+      <c r="D842" s="4"/>
+      <c r="E842" s="4"/>
+      <c r="F842" s="4"/>
+      <c r="G842" s="4"/>
+    </row>
+    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B843" s="4"/>
+      <c r="C843" s="4"/>
+      <c r="D843" s="4"/>
+      <c r="E843" s="4"/>
+      <c r="F843" s="4"/>
+      <c r="G843" s="4"/>
+    </row>
+    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B844" s="4"/>
+      <c r="C844" s="4"/>
+      <c r="D844" s="4"/>
+      <c r="E844" s="4"/>
+      <c r="F844" s="4"/>
+      <c r="G844" s="4"/>
+    </row>
+    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B845" s="4"/>
+      <c r="C845" s="4"/>
+      <c r="D845" s="4"/>
+      <c r="E845" s="4"/>
+      <c r="F845" s="4"/>
+      <c r="G845" s="4"/>
+    </row>
+    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B846" s="4"/>
+      <c r="C846" s="4"/>
+      <c r="D846" s="4"/>
+      <c r="E846" s="4"/>
+      <c r="F846" s="4"/>
+      <c r="G846" s="4"/>
+    </row>
+    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B847" s="4"/>
+      <c r="C847" s="4"/>
+      <c r="D847" s="4"/>
+      <c r="E847" s="4"/>
+      <c r="F847" s="4"/>
+      <c r="G847" s="4"/>
+    </row>
+    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B848" s="4"/>
+      <c r="C848" s="4"/>
+      <c r="D848" s="4"/>
+      <c r="E848" s="4"/>
+      <c r="F848" s="4"/>
+      <c r="G848" s="4"/>
+    </row>
+    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B849" s="4"/>
+      <c r="C849" s="4"/>
+      <c r="D849" s="4"/>
+      <c r="E849" s="4"/>
+      <c r="F849" s="4"/>
+      <c r="G849" s="4"/>
+    </row>
+    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B850" s="4"/>
+      <c r="C850" s="4"/>
+      <c r="D850" s="4"/>
+      <c r="E850" s="4"/>
+      <c r="F850" s="4"/>
+      <c r="G850" s="4"/>
+    </row>
+    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B851" s="4"/>
+      <c r="C851" s="4"/>
+      <c r="D851" s="4"/>
+      <c r="E851" s="4"/>
+      <c r="F851" s="4"/>
+      <c r="G851" s="4"/>
+    </row>
+    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B852" s="4"/>
+      <c r="C852" s="4"/>
+      <c r="D852" s="4"/>
+      <c r="E852" s="4"/>
+      <c r="F852" s="4"/>
+      <c r="G852" s="4"/>
+    </row>
+    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B853" s="4"/>
+      <c r="C853" s="4"/>
+      <c r="D853" s="4"/>
+      <c r="E853" s="4"/>
+      <c r="F853" s="4"/>
+      <c r="G853" s="4"/>
+    </row>
+    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B854" s="4"/>
+      <c r="C854" s="4"/>
+      <c r="D854" s="4"/>
+      <c r="E854" s="4"/>
+      <c r="F854" s="4"/>
+      <c r="G854" s="4"/>
+    </row>
+    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B855" s="4"/>
+      <c r="C855" s="4"/>
+      <c r="D855" s="4"/>
+      <c r="E855" s="4"/>
+      <c r="F855" s="4"/>
+      <c r="G855" s="4"/>
+    </row>
+    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B856" s="4"/>
+      <c r="C856" s="4"/>
+      <c r="D856" s="4"/>
+      <c r="E856" s="4"/>
+      <c r="F856" s="4"/>
+      <c r="G856" s="4"/>
+    </row>
+    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B857" s="4"/>
+      <c r="C857" s="4"/>
+      <c r="D857" s="4"/>
+      <c r="E857" s="4"/>
+      <c r="F857" s="4"/>
+      <c r="G857" s="4"/>
+    </row>
+    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B858" s="4"/>
+      <c r="C858" s="4"/>
+      <c r="D858" s="4"/>
+      <c r="E858" s="4"/>
+      <c r="F858" s="4"/>
+      <c r="G858" s="4"/>
+    </row>
+    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B859" s="4"/>
+      <c r="C859" s="4"/>
+      <c r="D859" s="4"/>
+      <c r="E859" s="4"/>
+      <c r="F859" s="4"/>
+      <c r="G859" s="4"/>
+    </row>
+    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B860" s="4"/>
+      <c r="C860" s="4"/>
+      <c r="D860" s="4"/>
+      <c r="E860" s="4"/>
+      <c r="F860" s="4"/>
+      <c r="G860" s="4"/>
+    </row>
+    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B861" s="4"/>
+      <c r="C861" s="4"/>
+      <c r="D861" s="4"/>
+      <c r="E861" s="4"/>
+      <c r="F861" s="4"/>
+      <c r="G861" s="4"/>
+    </row>
+    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B862" s="4"/>
+      <c r="C862" s="4"/>
+      <c r="D862" s="4"/>
+      <c r="E862" s="4"/>
+      <c r="F862" s="4"/>
+      <c r="G862" s="4"/>
+    </row>
+    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B863" s="4"/>
+      <c r="C863" s="4"/>
+      <c r="D863" s="4"/>
+      <c r="E863" s="4"/>
+      <c r="F863" s="4"/>
+      <c r="G863" s="4"/>
+    </row>
+    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B864" s="4"/>
+      <c r="C864" s="4"/>
+      <c r="D864" s="4"/>
+      <c r="E864" s="4"/>
+      <c r="F864" s="4"/>
+      <c r="G864" s="4"/>
+    </row>
+    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B865" s="4"/>
+      <c r="C865" s="4"/>
+      <c r="D865" s="4"/>
+      <c r="E865" s="4"/>
+      <c r="F865" s="4"/>
+      <c r="G865" s="4"/>
+    </row>
+    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B866" s="4"/>
+      <c r="C866" s="4"/>
+      <c r="D866" s="4"/>
+      <c r="E866" s="4"/>
+      <c r="F866" s="4"/>
+      <c r="G866" s="4"/>
+    </row>
+    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B867" s="4"/>
+      <c r="C867" s="4"/>
+      <c r="D867" s="4"/>
+      <c r="E867" s="4"/>
+      <c r="F867" s="4"/>
+      <c r="G867" s="4"/>
+    </row>
+    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B868" s="4"/>
+      <c r="C868" s="4"/>
+      <c r="D868" s="4"/>
+      <c r="E868" s="4"/>
+      <c r="F868" s="4"/>
+      <c r="G868" s="4"/>
+    </row>
+    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B869" s="4"/>
+      <c r="C869" s="4"/>
+      <c r="D869" s="4"/>
+      <c r="E869" s="4"/>
+      <c r="F869" s="4"/>
+      <c r="G869" s="4"/>
+    </row>
+    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B870" s="4"/>
+      <c r="C870" s="4"/>
+      <c r="D870" s="4"/>
+      <c r="E870" s="4"/>
+      <c r="F870" s="4"/>
+      <c r="G870" s="4"/>
+    </row>
+    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B871" s="4"/>
+      <c r="C871" s="4"/>
+      <c r="D871" s="4"/>
+      <c r="E871" s="4"/>
+      <c r="F871" s="4"/>
+      <c r="G871" s="4"/>
+    </row>
+    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B872" s="4"/>
+      <c r="C872" s="4"/>
+      <c r="D872" s="4"/>
+      <c r="E872" s="4"/>
+      <c r="F872" s="4"/>
+      <c r="G872" s="4"/>
+    </row>
+    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B873" s="4"/>
+      <c r="C873" s="4"/>
+      <c r="D873" s="4"/>
+      <c r="E873" s="4"/>
+      <c r="F873" s="4"/>
+      <c r="G873" s="4"/>
+    </row>
+    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B874" s="4"/>
+      <c r="C874" s="4"/>
+      <c r="D874" s="4"/>
+      <c r="E874" s="4"/>
+      <c r="F874" s="4"/>
+      <c r="G874" s="4"/>
+    </row>
+    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B875" s="4"/>
+      <c r="C875" s="4"/>
+      <c r="D875" s="4"/>
+      <c r="E875" s="4"/>
+      <c r="F875" s="4"/>
+      <c r="G875" s="4"/>
+    </row>
+    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B876" s="4"/>
+      <c r="C876" s="4"/>
+      <c r="D876" s="4"/>
+      <c r="E876" s="4"/>
+      <c r="F876" s="4"/>
+      <c r="G876" s="4"/>
+    </row>
+    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B877" s="4"/>
+      <c r="C877" s="4"/>
+      <c r="D877" s="4"/>
+      <c r="E877" s="4"/>
+      <c r="F877" s="4"/>
+      <c r="G877" s="4"/>
+    </row>
+    <row r="878" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B878" s="4"/>
+      <c r="C878" s="4"/>
+      <c r="D878" s="4"/>
+      <c r="E878" s="4"/>
+      <c r="F878" s="4"/>
+      <c r="G878" s="4"/>
+    </row>
+    <row r="879" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B879" s="4"/>
+      <c r="C879" s="4"/>
+      <c r="D879" s="4"/>
+      <c r="E879" s="4"/>
+      <c r="F879" s="4"/>
+      <c r="G879" s="4"/>
+    </row>
+    <row r="880" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B880" s="4"/>
+      <c r="C880" s="4"/>
+      <c r="D880" s="4"/>
+      <c r="E880" s="4"/>
+      <c r="F880" s="4"/>
+      <c r="G880" s="4"/>
+    </row>
+    <row r="881" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B881" s="4"/>
+      <c r="C881" s="4"/>
+      <c r="D881" s="4"/>
+      <c r="E881" s="4"/>
+      <c r="F881" s="4"/>
+      <c r="G881" s="4"/>
+    </row>
+    <row r="882" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B882" s="4"/>
+      <c r="C882" s="4"/>
+      <c r="D882" s="4"/>
+      <c r="E882" s="4"/>
+      <c r="F882" s="4"/>
+      <c r="G882" s="4"/>
+    </row>
+    <row r="883" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B883" s="4"/>
+      <c r="C883" s="4"/>
+      <c r="D883" s="4"/>
+      <c r="E883" s="4"/>
+      <c r="F883" s="4"/>
+      <c r="G883" s="4"/>
+    </row>
+    <row r="884" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B884" s="4"/>
+      <c r="C884" s="4"/>
+      <c r="D884" s="4"/>
+      <c r="E884" s="4"/>
+      <c r="F884" s="4"/>
+      <c r="G884" s="4"/>
+    </row>
+    <row r="885" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B885" s="4"/>
+      <c r="C885" s="4"/>
+      <c r="D885" s="4"/>
+      <c r="E885" s="4"/>
+      <c r="F885" s="4"/>
+      <c r="G885" s="4"/>
+    </row>
+    <row r="886" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B886" s="4"/>
+      <c r="C886" s="4"/>
+      <c r="D886" s="4"/>
+      <c r="E886" s="4"/>
+      <c r="F886" s="4"/>
+      <c r="G886" s="4"/>
+    </row>
+    <row r="887" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B887" s="4"/>
+      <c r="C887" s="4"/>
+      <c r="D887" s="4"/>
+      <c r="E887" s="4"/>
+      <c r="F887" s="4"/>
+      <c r="G887" s="4"/>
+    </row>
+    <row r="888" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B888" s="4"/>
+      <c r="C888" s="4"/>
+      <c r="D888" s="4"/>
+      <c r="E888" s="4"/>
+      <c r="F888" s="4"/>
+      <c r="G888" s="4"/>
+    </row>
+    <row r="889" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B889" s="4"/>
+      <c r="C889" s="4"/>
+      <c r="D889" s="4"/>
+      <c r="E889" s="4"/>
+      <c r="F889" s="4"/>
+      <c r="G889" s="4"/>
+    </row>
+    <row r="890" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B890" s="4"/>
+      <c r="C890" s="4"/>
+      <c r="D890" s="4"/>
+      <c r="E890" s="4"/>
+      <c r="F890" s="4"/>
+      <c r="G890" s="4"/>
+    </row>
+    <row r="891" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B891" s="4"/>
+      <c r="C891" s="4"/>
+      <c r="D891" s="4"/>
+      <c r="E891" s="4"/>
+      <c r="F891" s="4"/>
+      <c r="G891" s="4"/>
+    </row>
+    <row r="892" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B892" s="4"/>
+      <c r="C892" s="4"/>
+      <c r="D892" s="4"/>
+      <c r="E892" s="4"/>
+      <c r="F892" s="4"/>
+      <c r="G892" s="4"/>
+    </row>
+    <row r="893" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B893" s="4"/>
+      <c r="C893" s="4"/>
+      <c r="D893" s="4"/>
+      <c r="E893" s="4"/>
+      <c r="F893" s="4"/>
+      <c r="G893" s="4"/>
+    </row>
+    <row r="894" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B894" s="4"/>
+      <c r="C894" s="4"/>
+      <c r="D894" s="4"/>
+      <c r="E894" s="4"/>
+      <c r="F894" s="4"/>
+      <c r="G894" s="4"/>
+    </row>
+    <row r="895" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B895" s="4"/>
+      <c r="C895" s="4"/>
+      <c r="D895" s="4"/>
+      <c r="E895" s="4"/>
+      <c r="F895" s="4"/>
+      <c r="G895" s="4"/>
+    </row>
+    <row r="896" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B896" s="4"/>
+      <c r="C896" s="4"/>
+      <c r="D896" s="4"/>
+      <c r="E896" s="4"/>
+      <c r="F896" s="4"/>
+      <c r="G896" s="4"/>
+    </row>
+    <row r="897" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B897" s="4"/>
+      <c r="C897" s="4"/>
+      <c r="D897" s="4"/>
+      <c r="E897" s="4"/>
+      <c r="F897" s="4"/>
+      <c r="G897" s="4"/>
+    </row>
+    <row r="898" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B898" s="4"/>
+      <c r="C898" s="4"/>
+      <c r="D898" s="4"/>
+      <c r="E898" s="4"/>
+      <c r="F898" s="4"/>
+      <c r="G898" s="4"/>
+    </row>
+    <row r="899" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B899" s="4"/>
+      <c r="C899" s="4"/>
+      <c r="D899" s="4"/>
+      <c r="E899" s="4"/>
+      <c r="F899" s="4"/>
+      <c r="G899" s="4"/>
+    </row>
+    <row r="900" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B900" s="4"/>
+      <c r="C900" s="4"/>
+      <c r="D900" s="4"/>
+      <c r="E900" s="4"/>
+      <c r="F900" s="4"/>
+      <c r="G900" s="4"/>
+    </row>
+    <row r="901" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B901" s="4"/>
+      <c r="C901" s="4"/>
+      <c r="D901" s="4"/>
+      <c r="E901" s="4"/>
+      <c r="F901" s="4"/>
+      <c r="G901" s="4"/>
+    </row>
+    <row r="902" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B902" s="4"/>
+      <c r="C902" s="4"/>
+      <c r="D902" s="4"/>
+      <c r="E902" s="4"/>
+      <c r="F902" s="4"/>
+      <c r="G902" s="4"/>
+    </row>
+    <row r="903" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B903" s="4"/>
+      <c r="C903" s="4"/>
+      <c r="D903" s="4"/>
+      <c r="E903" s="4"/>
+      <c r="F903" s="4"/>
+      <c r="G903" s="4"/>
+    </row>
+    <row r="904" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B904" s="4"/>
+      <c r="C904" s="4"/>
+      <c r="D904" s="4"/>
+      <c r="E904" s="4"/>
+      <c r="F904" s="4"/>
+      <c r="G904" s="4"/>
+    </row>
+    <row r="905" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B905" s="4"/>
+      <c r="C905" s="4"/>
+      <c r="D905" s="4"/>
+      <c r="E905" s="4"/>
+      <c r="F905" s="4"/>
+      <c r="G905" s="4"/>
+    </row>
+    <row r="906" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B906" s="4"/>
+      <c r="C906" s="4"/>
+      <c r="D906" s="4"/>
+      <c r="E906" s="4"/>
+      <c r="F906" s="4"/>
+      <c r="G906" s="4"/>
+    </row>
+    <row r="907" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B907" s="4"/>
+      <c r="C907" s="4"/>
+      <c r="D907" s="4"/>
+      <c r="E907" s="4"/>
+      <c r="F907" s="4"/>
+      <c r="G907" s="4"/>
+    </row>
+    <row r="908" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B908" s="4"/>
+      <c r="C908" s="4"/>
+      <c r="D908" s="4"/>
+      <c r="E908" s="4"/>
+      <c r="F908" s="4"/>
+      <c r="G908" s="4"/>
+    </row>
+    <row r="909" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B909" s="4"/>
+      <c r="C909" s="4"/>
+      <c r="D909" s="4"/>
+      <c r="E909" s="4"/>
+      <c r="F909" s="4"/>
+      <c r="G909" s="4"/>
+    </row>
+    <row r="910" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B910" s="4"/>
+      <c r="C910" s="4"/>
+      <c r="D910" s="4"/>
+      <c r="E910" s="4"/>
+      <c r="F910" s="4"/>
+      <c r="G910" s="4"/>
+    </row>
+    <row r="911" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B911" s="4"/>
+      <c r="C911" s="4"/>
+      <c r="D911" s="4"/>
+      <c r="E911" s="4"/>
+      <c r="F911" s="4"/>
+      <c r="G911" s="4"/>
+    </row>
+    <row r="912" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B912" s="4"/>
+      <c r="C912" s="4"/>
+      <c r="D912" s="4"/>
+      <c r="E912" s="4"/>
+      <c r="F912" s="4"/>
+      <c r="G912" s="4"/>
+    </row>
+    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B913" s="4"/>
+      <c r="C913" s="4"/>
+      <c r="D913" s="4"/>
+      <c r="E913" s="4"/>
+      <c r="F913" s="4"/>
+      <c r="G913" s="4"/>
+    </row>
+    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B914" s="4"/>
+      <c r="C914" s="4"/>
+      <c r="D914" s="4"/>
+      <c r="E914" s="4"/>
+      <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
+    </row>
+    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B915" s="4"/>
+      <c r="C915" s="4"/>
+      <c r="D915" s="4"/>
+      <c r="E915" s="4"/>
+      <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
+    </row>
+    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B916" s="4"/>
+      <c r="C916" s="4"/>
+      <c r="D916" s="4"/>
+      <c r="E916" s="4"/>
+      <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
+    </row>
+    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B917" s="4"/>
+      <c r="C917" s="4"/>
+      <c r="D917" s="4"/>
+      <c r="E917" s="4"/>
+      <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
+    </row>
+    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B918" s="4"/>
+      <c r="C918" s="4"/>
+      <c r="D918" s="4"/>
+      <c r="E918" s="4"/>
+      <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
+    </row>
+    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B919" s="4"/>
+      <c r="C919" s="4"/>
+      <c r="D919" s="4"/>
+      <c r="E919" s="4"/>
+      <c r="F919" s="4"/>
+      <c r="G919" s="4"/>
+    </row>
+    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B920" s="4"/>
+      <c r="C920" s="4"/>
+      <c r="D920" s="4"/>
+      <c r="E920" s="4"/>
+      <c r="F920" s="4"/>
+      <c r="G920" s="4"/>
+    </row>
+    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B921" s="4"/>
+      <c r="C921" s="4"/>
+      <c r="D921" s="4"/>
+      <c r="E921" s="4"/>
+      <c r="F921" s="4"/>
+      <c r="G921" s="4"/>
+    </row>
+    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B922" s="4"/>
+      <c r="C922" s="4"/>
+      <c r="D922" s="4"/>
+      <c r="E922" s="4"/>
+      <c r="F922" s="4"/>
+      <c r="G922" s="4"/>
+    </row>
+    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B923" s="4"/>
+      <c r="C923" s="4"/>
+      <c r="D923" s="4"/>
+      <c r="E923" s="4"/>
+      <c r="F923" s="4"/>
+      <c r="G923" s="4"/>
+    </row>
+    <row r="924" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B924" s="4"/>
+      <c r="C924" s="4"/>
+      <c r="D924" s="4"/>
+      <c r="E924" s="4"/>
+      <c r="F924" s="4"/>
+      <c r="G924" s="4"/>
+    </row>
+    <row r="925" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B925" s="4"/>
+      <c r="C925" s="4"/>
+      <c r="D925" s="4"/>
+      <c r="E925" s="4"/>
+      <c r="F925" s="4"/>
+      <c r="G925" s="4"/>
+    </row>
+    <row r="926" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B926" s="4"/>
+      <c r="C926" s="4"/>
+      <c r="D926" s="4"/>
+      <c r="E926" s="4"/>
+      <c r="F926" s="4"/>
+      <c r="G926" s="4"/>
+    </row>
+    <row r="927" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B927" s="4"/>
+      <c r="C927" s="4"/>
+      <c r="D927" s="4"/>
+      <c r="E927" s="4"/>
+      <c r="F927" s="4"/>
+      <c r="G927" s="4"/>
+    </row>
+    <row r="928" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B928" s="4"/>
+      <c r="C928" s="4"/>
+      <c r="D928" s="4"/>
+      <c r="E928" s="4"/>
+      <c r="F928" s="4"/>
+      <c r="G928" s="4"/>
+    </row>
+    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B929" s="4"/>
+      <c r="C929" s="4"/>
+      <c r="D929" s="4"/>
+      <c r="E929" s="4"/>
+      <c r="F929" s="4"/>
+      <c r="G929" s="4"/>
+    </row>
+    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B930" s="4"/>
+      <c r="C930" s="4"/>
+      <c r="D930" s="4"/>
+      <c r="E930" s="4"/>
+      <c r="F930" s="4"/>
+      <c r="G930" s="4"/>
+    </row>
+    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B931" s="4"/>
+      <c r="C931" s="4"/>
+      <c r="D931" s="4"/>
+      <c r="E931" s="4"/>
+      <c r="F931" s="4"/>
+      <c r="G931" s="4"/>
+    </row>
+    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B932" s="4"/>
+      <c r="C932" s="4"/>
+      <c r="D932" s="4"/>
+      <c r="E932" s="4"/>
+      <c r="F932" s="4"/>
+      <c r="G932" s="4"/>
+    </row>
+    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B933" s="4"/>
+      <c r="C933" s="4"/>
+      <c r="D933" s="4"/>
+      <c r="E933" s="4"/>
+      <c r="F933" s="4"/>
+      <c r="G933" s="4"/>
+    </row>
+    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B934" s="4"/>
+      <c r="C934" s="4"/>
+      <c r="D934" s="4"/>
+      <c r="E934" s="4"/>
+      <c r="F934" s="4"/>
+      <c r="G934" s="4"/>
+    </row>
+    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B935" s="4"/>
+      <c r="C935" s="4"/>
+      <c r="D935" s="4"/>
+      <c r="E935" s="4"/>
+      <c r="F935" s="4"/>
+      <c r="G935" s="4"/>
+    </row>
+    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B936" s="4"/>
+      <c r="C936" s="4"/>
+      <c r="D936" s="4"/>
+      <c r="E936" s="4"/>
+      <c r="F936" s="4"/>
+      <c r="G936" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G5">
-    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="6" priority="3" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G169">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="today">
       <formula>FLOOR(C1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -674,24 +8167,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -92,27 +92,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -436,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,15 +465,15 @@
         <v>43388</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F9" si="3">B2+15</f>
+        <f t="shared" ref="F2:F8" si="3">B2+15</f>
         <v>43396</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="4">B2+30</f>
+        <f t="shared" ref="G2:G8" si="4">B2+30</f>
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,7 +492,7 @@
         <f t="shared" si="2"/>
         <v>43389</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f t="shared" si="3"/>
         <v>43397</v>
       </c>
@@ -577,7 +557,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -588,7 +568,7 @@
         <f t="shared" si="0"/>
         <v>43393</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>43397</v>
       </c>
@@ -640,7 +620,7 @@
       <c r="B8" s="2">
         <v>43396</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>43397</v>
       </c>
@@ -665,7 +645,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>43397</v>
       </c>
       <c r="C9" s="3">
@@ -8147,17 +8127,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G5">
-    <cfRule type="timePeriod" dxfId="6" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G169">
-    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
       <formula>FLOOR(C1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
       <c r="B9" s="2">
         <v>43397</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>43398</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>43398</v>
       </c>
       <c r="C10" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
       <c r="B10" s="2">
         <v>43398</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>43399</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>43399</v>
       </c>
       <c r="C11" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/IdeaProjects/algorithms/leetcode/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C8309-D5BA-6A43-9B1F-03D57794D04E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1485" windowWidth="23865" windowHeight="10860"/>
+    <workbookView xWindow="3900" yWindow="1480" windowWidth="23860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +208,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +260,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,17 +452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -445,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +493,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C11" si="0">B2+1</f>
+        <f t="shared" ref="C2:C16" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -473,7 +513,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,7 +560,7 @@
         <f t="shared" si="2"/>
         <v>43392</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f t="shared" si="3"/>
         <v>43400</v>
       </c>
@@ -529,7 +569,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -557,7 +597,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -572,7 +612,7 @@
         <f t="shared" si="1"/>
         <v>43397</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
         <v>43399</v>
       </c>
@@ -585,7 +625,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,7 +636,7 @@
         <f t="shared" si="0"/>
         <v>43396</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>43400</v>
       </c>
@@ -613,7 +653,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -624,7 +664,7 @@
         <f t="shared" si="0"/>
         <v>43397</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>43401</v>
       </c>
@@ -641,7 +681,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -653,23 +693,23 @@
         <v>43398</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:D11" si="5">B9+5</f>
+        <f t="shared" ref="D9:D16" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9:E11" si="6">B9+7</f>
+        <f t="shared" ref="E9:E16" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F11" si="7">B9+15</f>
+        <f t="shared" ref="F9:F16" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G11" si="8">B9+30</f>
+        <f t="shared" ref="G9:G16" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -697,7 +737,7 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -725,47 +765,147 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43402</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>43403</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="5"/>
+        <v>43407</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="6"/>
+        <v>43409</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="7"/>
+        <v>43417</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="8"/>
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43403</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>43404</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>43408</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="6"/>
+        <v>43410</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="7"/>
+        <v>43418</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="8"/>
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43404</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>43405</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="5"/>
+        <v>43409</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="6"/>
+        <v>43411</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="7"/>
+        <v>43419</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="8"/>
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43405</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>43406</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>43410</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="6"/>
+        <v>43412</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>43420</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="8"/>
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43406</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>43407</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="5"/>
+        <v>43411</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="6"/>
+        <v>43413</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="7"/>
+        <v>43421</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="8"/>
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -773,7 +913,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -781,7 +921,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -789,7 +929,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -797,7 +937,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -805,7 +945,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -813,7 +953,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -821,7 +961,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -829,7 +969,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -837,7 +977,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -845,7 +985,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -853,7 +993,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -861,7 +1001,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -869,7 +1009,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -877,7 +1017,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -885,7 +1025,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -893,7 +1033,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -901,7 +1041,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -909,7 +1049,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -917,7 +1057,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -925,7 +1065,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -933,7 +1073,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -941,7 +1081,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -949,7 +1089,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -957,7 +1097,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -965,7 +1105,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -973,7 +1113,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -981,7 +1121,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -989,7 +1129,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -997,7 +1137,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1005,7 +1145,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1013,7 +1153,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1021,7 +1161,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1029,7 +1169,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1037,7 +1177,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1045,7 +1185,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1053,7 +1193,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1061,7 +1201,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1069,7 +1209,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1077,7 +1217,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1085,7 +1225,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1093,7 +1233,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1101,7 +1241,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1109,7 +1249,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1117,7 +1257,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1125,7 +1265,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1133,7 +1273,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1141,7 +1281,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1149,7 +1289,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1157,7 +1297,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1165,7 +1305,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1173,7 +1313,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1181,7 +1321,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1189,7 +1329,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1197,7 +1337,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1205,7 +1345,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1213,7 +1353,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1221,7 +1361,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1229,7 +1369,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1237,7 +1377,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1245,7 +1385,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1253,7 +1393,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1261,7 +1401,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1269,7 +1409,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1277,7 +1417,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1285,7 +1425,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1293,7 +1433,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1301,7 +1441,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1309,7 +1449,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1317,7 +1457,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1325,7 +1465,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1333,7 +1473,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1341,7 +1481,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -1349,7 +1489,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1357,7 +1497,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -1365,7 +1505,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -1373,7 +1513,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -1381,7 +1521,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -1389,7 +1529,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1397,7 +1537,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -1405,7 +1545,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -1413,7 +1553,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -1421,7 +1561,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -1429,7 +1569,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -1437,7 +1577,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -1445,7 +1585,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -1453,7 +1593,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -1461,7 +1601,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -1469,7 +1609,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -1477,7 +1617,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -1485,7 +1625,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -1493,7 +1633,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -1501,7 +1641,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -1509,7 +1649,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -1517,7 +1657,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -1525,7 +1665,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -1533,7 +1673,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -1541,7 +1681,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -1549,7 +1689,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -1557,7 +1697,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -1565,7 +1705,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -1573,7 +1713,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -1581,7 +1721,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -1589,7 +1729,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -1597,7 +1737,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -1605,7 +1745,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -1613,7 +1753,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -1621,7 +1761,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -1629,7 +1769,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -1637,7 +1777,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -1645,7 +1785,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -1653,7 +1793,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -1661,7 +1801,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -1669,7 +1809,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -1677,7 +1817,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -1685,7 +1825,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -1693,7 +1833,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -1701,7 +1841,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -1709,7 +1849,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -1717,7 +1857,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -1725,7 +1865,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -1733,7 +1873,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -1741,7 +1881,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -1749,7 +1889,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -1757,7 +1897,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -1765,7 +1905,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -1773,7 +1913,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -1781,7 +1921,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -1789,7 +1929,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -1797,7 +1937,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -1805,7 +1945,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -1813,7 +1953,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -1821,7 +1961,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -1829,7 +1969,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -1837,7 +1977,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -1845,7 +1985,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -1853,7 +1993,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -1861,7 +2001,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -1869,7 +2009,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -1877,7 +2017,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -1885,7 +2025,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -1893,7 +2033,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -1901,7 +2041,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -1909,7 +2049,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -1917,7 +2057,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -1925,7 +2065,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -1933,7 +2073,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -1941,7 +2081,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -1949,7 +2089,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -1957,7 +2097,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -1965,7 +2105,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -1973,7 +2113,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -1981,7 +2121,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -1989,7 +2129,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -1997,7 +2137,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -2005,7 +2145,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -2013,7 +2153,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -2021,7 +2161,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -2029,7 +2169,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -2037,7 +2177,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -2045,7 +2185,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -2053,7 +2193,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -2061,7 +2201,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -2069,7 +2209,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -2077,7 +2217,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -2085,7 +2225,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -2093,7 +2233,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -2101,7 +2241,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -2109,7 +2249,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -2117,7 +2257,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -2125,7 +2265,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -2133,7 +2273,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -2141,7 +2281,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -2149,7 +2289,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -2157,7 +2297,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -2165,7 +2305,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -2173,7 +2313,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -2181,7 +2321,7 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -2189,7 +2329,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -2197,7 +2337,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -2205,7 +2345,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -2213,7 +2353,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -2221,7 +2361,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -2229,7 +2369,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -2237,7 +2377,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -2245,7 +2385,7 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -2253,7 +2393,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -2261,7 +2401,7 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -2269,7 +2409,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -2277,7 +2417,7 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -2285,7 +2425,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -2293,7 +2433,7 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -2301,7 +2441,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -2309,7 +2449,7 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -2317,7 +2457,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -2325,7 +2465,7 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -2333,7 +2473,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -2341,7 +2481,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -2349,7 +2489,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -2357,7 +2497,7 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -2365,7 +2505,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -2373,7 +2513,7 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -2381,7 +2521,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -2389,7 +2529,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -2397,7 +2537,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -2405,7 +2545,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -2413,7 +2553,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -2421,7 +2561,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -2429,7 +2569,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -2437,7 +2577,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -2445,7 +2585,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -2453,7 +2593,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -2461,7 +2601,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -2469,7 +2609,7 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2477,7 +2617,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2485,7 +2625,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2493,7 +2633,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2501,7 +2641,7 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2509,7 +2649,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2517,7 +2657,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2525,7 +2665,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2533,7 +2673,7 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2541,7 +2681,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2549,7 +2689,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2557,7 +2697,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2565,7 +2705,7 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -2573,7 +2713,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -2581,7 +2721,7 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -2589,7 +2729,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -2597,7 +2737,7 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -2605,7 +2745,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -2613,7 +2753,7 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -2621,7 +2761,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -2629,7 +2769,7 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -2637,7 +2777,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -2645,7 +2785,7 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -2653,7 +2793,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -2661,7 +2801,7 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -2669,7 +2809,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -2677,7 +2817,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -2685,7 +2825,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -2693,7 +2833,7 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -2701,7 +2841,7 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -2709,7 +2849,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -2717,7 +2857,7 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -2725,7 +2865,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -2733,7 +2873,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -2741,7 +2881,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -2749,7 +2889,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -2757,7 +2897,7 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -2765,7 +2905,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -2773,7 +2913,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -2781,7 +2921,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -2789,7 +2929,7 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -2797,7 +2937,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -2805,7 +2945,7 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -2813,7 +2953,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -2821,7 +2961,7 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -2829,7 +2969,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -2837,7 +2977,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -2845,7 +2985,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -2853,7 +2993,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -2861,7 +3001,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -2869,7 +3009,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -2877,7 +3017,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -2885,7 +3025,7 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -2893,7 +3033,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -2901,7 +3041,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -2909,7 +3049,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -2917,7 +3057,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -2925,7 +3065,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -2933,7 +3073,7 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -2941,7 +3081,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -2949,7 +3089,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -2957,7 +3097,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -2965,7 +3105,7 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -2973,7 +3113,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -2981,7 +3121,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -2989,7 +3129,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -2997,7 +3137,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -3005,7 +3145,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -3013,7 +3153,7 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -3021,7 +3161,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -3029,7 +3169,7 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -3037,7 +3177,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -3045,7 +3185,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -3053,7 +3193,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -3061,7 +3201,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -3069,7 +3209,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -3077,7 +3217,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -3085,7 +3225,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -3093,7 +3233,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -3101,7 +3241,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -3109,7 +3249,7 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -3117,7 +3257,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -3125,7 +3265,7 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -3133,7 +3273,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -3141,7 +3281,7 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -3149,7 +3289,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -3157,7 +3297,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -3165,7 +3305,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -3173,7 +3313,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -3181,7 +3321,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -3189,7 +3329,7 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -3197,7 +3337,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -3205,7 +3345,7 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -3213,7 +3353,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -3221,7 +3361,7 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -3229,7 +3369,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -3237,7 +3377,7 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -3245,7 +3385,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -3253,7 +3393,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -3261,7 +3401,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -3269,7 +3409,7 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -3277,7 +3417,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -3285,7 +3425,7 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -3293,7 +3433,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -3301,7 +3441,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -3309,7 +3449,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -3317,7 +3457,7 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -3325,7 +3465,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -3333,7 +3473,7 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -3341,7 +3481,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -3349,7 +3489,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -3357,7 +3497,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -3365,7 +3505,7 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -3373,7 +3513,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -3381,7 +3521,7 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -3389,7 +3529,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -3397,7 +3537,7 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -3405,7 +3545,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -3413,7 +3553,7 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -3421,7 +3561,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -3429,7 +3569,7 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -3437,7 +3577,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -3445,7 +3585,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -3453,7 +3593,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -3461,7 +3601,7 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -3469,7 +3609,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -3477,7 +3617,7 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -3485,7 +3625,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -3493,7 +3633,7 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -3501,7 +3641,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -3509,7 +3649,7 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -3517,7 +3657,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -3525,7 +3665,7 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -3533,7 +3673,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -3541,7 +3681,7 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -3549,7 +3689,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -3557,7 +3697,7 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -3565,7 +3705,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -3573,7 +3713,7 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -3581,7 +3721,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -3589,7 +3729,7 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -3597,7 +3737,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -3605,7 +3745,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -3613,7 +3753,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -3621,7 +3761,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -3629,7 +3769,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -3637,7 +3777,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -3645,7 +3785,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -3653,7 +3793,7 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -3661,7 +3801,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -3669,7 +3809,7 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -3677,7 +3817,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -3685,7 +3825,7 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -3693,7 +3833,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -3701,7 +3841,7 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -3709,7 +3849,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -3717,7 +3857,7 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -3725,7 +3865,7 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -3733,7 +3873,7 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -3741,7 +3881,7 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -3749,7 +3889,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -3757,7 +3897,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -3765,7 +3905,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -3773,7 +3913,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -3781,7 +3921,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -3789,7 +3929,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -3797,7 +3937,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -3805,7 +3945,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -3813,7 +3953,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -3821,7 +3961,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -3829,7 +3969,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -3837,7 +3977,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -3845,7 +3985,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -3853,7 +3993,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -3861,7 +4001,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -3869,7 +4009,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -3877,7 +4017,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -3885,7 +4025,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -3893,7 +4033,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -3901,7 +4041,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -3909,7 +4049,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -3917,7 +4057,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -3925,7 +4065,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -3933,7 +4073,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -3941,7 +4081,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -3949,7 +4089,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -3957,7 +4097,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -3965,7 +4105,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -3973,7 +4113,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -3981,7 +4121,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -3989,7 +4129,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -3997,7 +4137,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -4005,7 +4145,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -4013,7 +4153,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -4021,7 +4161,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -4029,7 +4169,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -4037,7 +4177,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -4045,7 +4185,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -4053,7 +4193,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -4061,7 +4201,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -4069,7 +4209,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -4077,7 +4217,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -4085,7 +4225,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -4093,7 +4233,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -4101,7 +4241,7 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -4109,7 +4249,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -4117,7 +4257,7 @@
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -4125,7 +4265,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -4133,7 +4273,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -4141,7 +4281,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -4149,7 +4289,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -4157,7 +4297,7 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -4165,7 +4305,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4173,7 +4313,7 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4181,7 +4321,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -4189,7 +4329,7 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4197,7 +4337,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4205,7 +4345,7 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -4213,7 +4353,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -4221,7 +4361,7 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -4229,7 +4369,7 @@
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -4237,7 +4377,7 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -4245,7 +4385,7 @@
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -4253,7 +4393,7 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -4261,7 +4401,7 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -4269,7 +4409,7 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -4277,7 +4417,7 @@
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -4285,7 +4425,7 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -4293,7 +4433,7 @@
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -4301,7 +4441,7 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -4309,7 +4449,7 @@
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -4317,7 +4457,7 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -4325,7 +4465,7 @@
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -4333,7 +4473,7 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -4341,7 +4481,7 @@
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -4349,7 +4489,7 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -4357,7 +4497,7 @@
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4365,7 +4505,7 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -4373,7 +4513,7 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -4381,7 +4521,7 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -4389,7 +4529,7 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -4397,7 +4537,7 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -4405,7 +4545,7 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -4413,7 +4553,7 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -4421,7 +4561,7 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -4429,7 +4569,7 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -4437,7 +4577,7 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -4445,7 +4585,7 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -4453,7 +4593,7 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -4461,7 +4601,7 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -4469,7 +4609,7 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -4477,7 +4617,7 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -4485,7 +4625,7 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -4493,7 +4633,7 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -4501,7 +4641,7 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -4509,7 +4649,7 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -4517,7 +4657,7 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -4525,7 +4665,7 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -4533,7 +4673,7 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -4541,7 +4681,7 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -4549,7 +4689,7 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -4557,7 +4697,7 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -4565,7 +4705,7 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -4573,7 +4713,7 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -4581,7 +4721,7 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -4589,7 +4729,7 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -4597,7 +4737,7 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -4605,7 +4745,7 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -4613,7 +4753,7 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -4621,7 +4761,7 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -4629,7 +4769,7 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -4637,7 +4777,7 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -4645,7 +4785,7 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -4653,7 +4793,7 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -4661,7 +4801,7 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
     </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -4669,7 +4809,7 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
     </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -4677,7 +4817,7 @@
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
     </row>
-    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -4685,7 +4825,7 @@
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -4693,7 +4833,7 @@
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -4701,7 +4841,7 @@
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
     </row>
-    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -4709,7 +4849,7 @@
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -4717,7 +4857,7 @@
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
     </row>
-    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -4725,7 +4865,7 @@
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
     </row>
-    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -4733,7 +4873,7 @@
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -4741,7 +4881,7 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -4749,7 +4889,7 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
     </row>
-    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -4757,7 +4897,7 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
     </row>
-    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -4765,7 +4905,7 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
     </row>
-    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -4773,7 +4913,7 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
     </row>
-    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -4781,7 +4921,7 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
     </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -4789,7 +4929,7 @@
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
     </row>
-    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -4797,7 +4937,7 @@
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
     </row>
-    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -4805,7 +4945,7 @@
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
     </row>
-    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -4813,7 +4953,7 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
     </row>
-    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -4821,7 +4961,7 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
     </row>
-    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -4829,7 +4969,7 @@
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
     </row>
-    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -4837,7 +4977,7 @@
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
     </row>
-    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -4845,7 +4985,7 @@
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
     </row>
-    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -4853,7 +4993,7 @@
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -4861,7 +5001,7 @@
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
     </row>
-    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -4869,7 +5009,7 @@
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -4877,7 +5017,7 @@
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
     </row>
-    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -4885,7 +5025,7 @@
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -4893,7 +5033,7 @@
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
     </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -4901,7 +5041,7 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
     </row>
-    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -4909,7 +5049,7 @@
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
     </row>
-    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -4917,7 +5057,7 @@
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -4925,7 +5065,7 @@
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
     </row>
-    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -4933,7 +5073,7 @@
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
     </row>
-    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -4941,7 +5081,7 @@
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -4949,7 +5089,7 @@
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -4957,7 +5097,7 @@
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
-    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -4965,7 +5105,7 @@
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -4973,7 +5113,7 @@
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -4981,7 +5121,7 @@
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
     </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -4989,7 +5129,7 @@
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
     </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -4997,7 +5137,7 @@
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -5005,7 +5145,7 @@
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -5013,7 +5153,7 @@
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -5021,7 +5161,7 @@
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -5029,7 +5169,7 @@
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
     </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -5037,7 +5177,7 @@
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -5045,7 +5185,7 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -5053,7 +5193,7 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -5061,7 +5201,7 @@
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -5069,7 +5209,7 @@
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -5077,7 +5217,7 @@
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -5085,7 +5225,7 @@
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
     </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -5093,7 +5233,7 @@
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
     </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -5101,7 +5241,7 @@
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -5109,7 +5249,7 @@
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -5117,7 +5257,7 @@
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
     </row>
-    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -5125,7 +5265,7 @@
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
     </row>
-    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -5133,7 +5273,7 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
     </row>
-    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -5141,7 +5281,7 @@
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -5149,7 +5289,7 @@
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
     </row>
-    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -5157,7 +5297,7 @@
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
     </row>
-    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -5165,7 +5305,7 @@
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
     </row>
-    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -5173,7 +5313,7 @@
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
     </row>
-    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -5181,7 +5321,7 @@
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
     </row>
-    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -5189,7 +5329,7 @@
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
     </row>
-    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -5197,7 +5337,7 @@
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
     </row>
-    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -5205,7 +5345,7 @@
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
     </row>
-    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -5213,7 +5353,7 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -5221,7 +5361,7 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
     </row>
-    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -5229,7 +5369,7 @@
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -5237,7 +5377,7 @@
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
     </row>
-    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -5245,7 +5385,7 @@
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
     </row>
-    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5253,7 +5393,7 @@
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
     </row>
-    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -5261,7 +5401,7 @@
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
     </row>
-    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5269,7 +5409,7 @@
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
     </row>
-    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -5277,7 +5417,7 @@
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
     </row>
-    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -5285,7 +5425,7 @@
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -5293,7 +5433,7 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
     </row>
-    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -5301,7 +5441,7 @@
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
     </row>
-    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -5309,7 +5449,7 @@
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
     </row>
-    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -5317,7 +5457,7 @@
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
     </row>
-    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -5325,7 +5465,7 @@
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
     </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -5333,7 +5473,7 @@
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
     </row>
-    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -5341,7 +5481,7 @@
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
     </row>
-    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -5349,7 +5489,7 @@
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
     </row>
-    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -5357,7 +5497,7 @@
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -5365,7 +5505,7 @@
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -5373,7 +5513,7 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
     </row>
-    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -5381,7 +5521,7 @@
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -5389,7 +5529,7 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
     </row>
-    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -5397,7 +5537,7 @@
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
     </row>
-    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -5405,7 +5545,7 @@
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
     </row>
-    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -5413,7 +5553,7 @@
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -5421,7 +5561,7 @@
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -5429,7 +5569,7 @@
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
     </row>
-    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -5437,7 +5577,7 @@
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
     </row>
-    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -5445,7 +5585,7 @@
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
     </row>
-    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -5453,7 +5593,7 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
     </row>
-    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -5461,7 +5601,7 @@
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
     </row>
-    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -5469,7 +5609,7 @@
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
     </row>
-    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -5477,7 +5617,7 @@
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
     </row>
-    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -5485,7 +5625,7 @@
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
     </row>
-    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -5493,7 +5633,7 @@
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
     </row>
-    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -5501,7 +5641,7 @@
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
     </row>
-    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -5509,7 +5649,7 @@
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
     </row>
-    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -5517,7 +5657,7 @@
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
     </row>
-    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -5525,7 +5665,7 @@
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
     </row>
-    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -5533,7 +5673,7 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
     </row>
-    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -5541,7 +5681,7 @@
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
     </row>
-    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -5549,7 +5689,7 @@
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
     </row>
-    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -5557,7 +5697,7 @@
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
     </row>
-    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -5565,7 +5705,7 @@
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
     </row>
-    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -5573,7 +5713,7 @@
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
     </row>
-    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -5581,7 +5721,7 @@
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -5589,7 +5729,7 @@
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
     </row>
-    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -5597,7 +5737,7 @@
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -5605,7 +5745,7 @@
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
     </row>
-    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -5613,7 +5753,7 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
     </row>
-    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -5621,7 +5761,7 @@
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
     </row>
-    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -5629,7 +5769,7 @@
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
     </row>
-    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -5637,7 +5777,7 @@
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
     </row>
-    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -5645,7 +5785,7 @@
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
     </row>
-    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -5653,7 +5793,7 @@
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
     </row>
-    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -5661,7 +5801,7 @@
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
     </row>
-    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -5669,7 +5809,7 @@
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
     </row>
-    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -5677,7 +5817,7 @@
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
     </row>
-    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -5685,7 +5825,7 @@
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
     </row>
-    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -5693,7 +5833,7 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
     </row>
-    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -5701,7 +5841,7 @@
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -5709,7 +5849,7 @@
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
     </row>
-    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -5717,7 +5857,7 @@
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
     </row>
-    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -5725,7 +5865,7 @@
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -5733,7 +5873,7 @@
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -5741,7 +5881,7 @@
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
     </row>
-    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -5749,7 +5889,7 @@
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
     </row>
-    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -5757,7 +5897,7 @@
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
     </row>
-    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -5765,7 +5905,7 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
     </row>
-    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -5773,7 +5913,7 @@
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
     </row>
-    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -5781,7 +5921,7 @@
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
     </row>
-    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -5789,7 +5929,7 @@
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
     </row>
-    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -5797,7 +5937,7 @@
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
     </row>
-    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -5805,7 +5945,7 @@
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
     </row>
-    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -5813,7 +5953,7 @@
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
     </row>
-    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -5821,7 +5961,7 @@
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
     </row>
-    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -5829,7 +5969,7 @@
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
     </row>
-    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -5837,7 +5977,7 @@
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
     </row>
-    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -5845,7 +5985,7 @@
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
     </row>
-    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -5853,7 +5993,7 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
     </row>
-    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -5861,7 +6001,7 @@
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
     </row>
-    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -5869,7 +6009,7 @@
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
     </row>
-    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -5877,7 +6017,7 @@
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
     </row>
-    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -5885,7 +6025,7 @@
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
     </row>
-    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -5893,7 +6033,7 @@
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
     </row>
-    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -5901,7 +6041,7 @@
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
     </row>
-    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -5909,7 +6049,7 @@
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
     </row>
-    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -5917,7 +6057,7 @@
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
     </row>
-    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -5925,7 +6065,7 @@
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
     </row>
-    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -5933,7 +6073,7 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
     </row>
-    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -5941,7 +6081,7 @@
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
     </row>
-    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -5949,7 +6089,7 @@
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
     </row>
-    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -5957,7 +6097,7 @@
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
     </row>
-    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -5965,7 +6105,7 @@
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
     </row>
-    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -5973,7 +6113,7 @@
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
     </row>
-    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -5981,7 +6121,7 @@
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
     </row>
-    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -5989,7 +6129,7 @@
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
     </row>
-    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -5997,7 +6137,7 @@
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
     </row>
-    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -6005,7 +6145,7 @@
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
     </row>
-    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -6013,7 +6153,7 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
     </row>
-    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -6021,7 +6161,7 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
     </row>
-    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -6029,7 +6169,7 @@
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
     </row>
-    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -6037,7 +6177,7 @@
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
     </row>
-    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -6045,7 +6185,7 @@
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
     </row>
-    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -6053,7 +6193,7 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
     </row>
-    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -6061,7 +6201,7 @@
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
     </row>
-    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -6069,7 +6209,7 @@
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
     </row>
-    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -6077,7 +6217,7 @@
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
     </row>
-    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -6085,7 +6225,7 @@
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
     </row>
-    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -6093,7 +6233,7 @@
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
     </row>
-    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -6101,7 +6241,7 @@
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
     </row>
-    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -6109,7 +6249,7 @@
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
     </row>
-    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -6117,7 +6257,7 @@
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
     </row>
-    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -6125,7 +6265,7 @@
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
     </row>
-    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -6133,7 +6273,7 @@
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
     </row>
-    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -6141,7 +6281,7 @@
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
     </row>
-    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -6149,7 +6289,7 @@
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
     </row>
-    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -6157,7 +6297,7 @@
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
     </row>
-    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -6165,7 +6305,7 @@
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
     </row>
-    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -6173,7 +6313,7 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
     </row>
-    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -6181,7 +6321,7 @@
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
     </row>
-    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -6189,7 +6329,7 @@
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
     </row>
-    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -6197,7 +6337,7 @@
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
     </row>
-    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -6205,7 +6345,7 @@
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
     </row>
-    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -6213,7 +6353,7 @@
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
     </row>
-    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -6221,7 +6361,7 @@
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
     </row>
-    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -6229,7 +6369,7 @@
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
     </row>
-    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -6237,7 +6377,7 @@
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
     </row>
-    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -6245,7 +6385,7 @@
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
     </row>
-    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -6253,7 +6393,7 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
     </row>
-    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -6261,7 +6401,7 @@
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -6269,7 +6409,7 @@
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
     </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -6277,7 +6417,7 @@
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
     </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -6285,7 +6425,7 @@
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
     </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -6293,7 +6433,7 @@
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
     </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -6301,7 +6441,7 @@
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
     </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -6309,7 +6449,7 @@
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
     </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -6317,7 +6457,7 @@
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
     </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -6325,7 +6465,7 @@
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
     </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -6333,7 +6473,7 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -6341,7 +6481,7 @@
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -6349,7 +6489,7 @@
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -6357,7 +6497,7 @@
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -6365,7 +6505,7 @@
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
     </row>
-    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -6373,7 +6513,7 @@
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -6381,7 +6521,7 @@
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -6389,7 +6529,7 @@
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -6397,7 +6537,7 @@
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
     </row>
-    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -6405,7 +6545,7 @@
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
     </row>
-    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -6413,7 +6553,7 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
     </row>
-    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -6421,7 +6561,7 @@
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
     </row>
-    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -6429,7 +6569,7 @@
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
     </row>
-    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -6437,7 +6577,7 @@
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
     </row>
-    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -6445,7 +6585,7 @@
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
     </row>
-    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -6453,7 +6593,7 @@
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
     </row>
-    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -6461,7 +6601,7 @@
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
     </row>
-    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -6469,7 +6609,7 @@
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
     </row>
-    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -6477,7 +6617,7 @@
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
     </row>
-    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -6485,7 +6625,7 @@
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
     </row>
-    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -6493,7 +6633,7 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
     </row>
-    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -6501,7 +6641,7 @@
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
     </row>
-    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -6509,7 +6649,7 @@
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
     </row>
-    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -6517,7 +6657,7 @@
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
     </row>
-    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -6525,7 +6665,7 @@
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
     </row>
-    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -6533,7 +6673,7 @@
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
     </row>
-    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -6541,7 +6681,7 @@
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
     </row>
-    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -6549,7 +6689,7 @@
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
     </row>
-    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -6557,7 +6697,7 @@
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
     </row>
-    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -6565,7 +6705,7 @@
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
     </row>
-    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -6573,7 +6713,7 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
     </row>
-    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -6581,7 +6721,7 @@
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
     </row>
-    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -6589,7 +6729,7 @@
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
     </row>
-    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -6597,7 +6737,7 @@
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
     </row>
-    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -6605,7 +6745,7 @@
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
     </row>
-    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -6613,7 +6753,7 @@
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
     </row>
-    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -6621,7 +6761,7 @@
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
     </row>
-    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -6629,7 +6769,7 @@
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
     </row>
-    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -6637,7 +6777,7 @@
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
     </row>
-    <row r="751" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -6645,7 +6785,7 @@
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
     </row>
-    <row r="752" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -6653,7 +6793,7 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
     </row>
-    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -6661,7 +6801,7 @@
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
     </row>
-    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -6669,7 +6809,7 @@
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
     </row>
-    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -6677,7 +6817,7 @@
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
     </row>
-    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -6685,7 +6825,7 @@
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
     </row>
-    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -6693,7 +6833,7 @@
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
     </row>
-    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -6701,7 +6841,7 @@
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
     </row>
-    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -6709,7 +6849,7 @@
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
     </row>
-    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -6717,7 +6857,7 @@
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
     </row>
-    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -6725,7 +6865,7 @@
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
     </row>
-    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -6733,7 +6873,7 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
     </row>
-    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -6741,7 +6881,7 @@
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
     </row>
-    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -6749,7 +6889,7 @@
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
     </row>
-    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -6757,7 +6897,7 @@
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
     </row>
-    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -6765,7 +6905,7 @@
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
     </row>
-    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -6773,7 +6913,7 @@
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
     </row>
-    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -6781,7 +6921,7 @@
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
     </row>
-    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -6789,7 +6929,7 @@
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
     </row>
-    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -6797,7 +6937,7 @@
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
     </row>
-    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -6805,7 +6945,7 @@
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
     </row>
-    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -6813,7 +6953,7 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
     </row>
-    <row r="773" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -6821,7 +6961,7 @@
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
     </row>
-    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -6829,7 +6969,7 @@
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
     </row>
-    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -6837,7 +6977,7 @@
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
     </row>
-    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -6845,7 +6985,7 @@
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
     </row>
-    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -6853,7 +6993,7 @@
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
     </row>
-    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -6861,7 +7001,7 @@
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
     </row>
-    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -6869,7 +7009,7 @@
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
     </row>
-    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -6877,7 +7017,7 @@
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
     </row>
-    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -6885,7 +7025,7 @@
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
     </row>
-    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -6893,7 +7033,7 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
     </row>
-    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -6901,7 +7041,7 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
     </row>
-    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -6909,7 +7049,7 @@
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
     </row>
-    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -6917,7 +7057,7 @@
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
     </row>
-    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -6925,7 +7065,7 @@
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
     </row>
-    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -6933,7 +7073,7 @@
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
     </row>
-    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -6941,7 +7081,7 @@
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
     </row>
-    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -6949,7 +7089,7 @@
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
     </row>
-    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -6957,7 +7097,7 @@
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
     </row>
-    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -6965,7 +7105,7 @@
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
     </row>
-    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -6973,7 +7113,7 @@
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
     </row>
-    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -6981,7 +7121,7 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
     </row>
-    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -6989,7 +7129,7 @@
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
     </row>
-    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -6997,7 +7137,7 @@
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
     </row>
-    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -7005,7 +7145,7 @@
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
     </row>
-    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -7013,7 +7153,7 @@
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
     </row>
-    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -7021,7 +7161,7 @@
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
     </row>
-    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -7029,7 +7169,7 @@
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
     </row>
-    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -7037,7 +7177,7 @@
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
     </row>
-    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -7045,7 +7185,7 @@
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
     </row>
-    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -7053,7 +7193,7 @@
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
     </row>
-    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -7061,7 +7201,7 @@
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
     </row>
-    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -7069,7 +7209,7 @@
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
     </row>
-    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -7077,7 +7217,7 @@
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
     </row>
-    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -7085,7 +7225,7 @@
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
     </row>
-    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -7093,7 +7233,7 @@
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
     </row>
-    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -7101,7 +7241,7 @@
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
     </row>
-    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -7109,7 +7249,7 @@
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
     </row>
-    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -7117,7 +7257,7 @@
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
     </row>
-    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -7125,7 +7265,7 @@
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
     </row>
-    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -7133,7 +7273,7 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
     </row>
-    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -7141,7 +7281,7 @@
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
     </row>
-    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -7149,7 +7289,7 @@
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
     </row>
-    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -7157,7 +7297,7 @@
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
     </row>
-    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -7165,7 +7305,7 @@
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
     </row>
-    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -7173,7 +7313,7 @@
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
     </row>
-    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -7181,7 +7321,7 @@
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
     </row>
-    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -7189,7 +7329,7 @@
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
     </row>
-    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -7197,7 +7337,7 @@
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
     </row>
-    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -7205,7 +7345,7 @@
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
     </row>
-    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -7213,7 +7353,7 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
     </row>
-    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -7221,7 +7361,7 @@
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
     </row>
-    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -7229,7 +7369,7 @@
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
     </row>
-    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -7237,7 +7377,7 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -7245,7 +7385,7 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -7253,7 +7393,7 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -7261,7 +7401,7 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -7269,7 +7409,7 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -7277,7 +7417,7 @@
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
     </row>
-    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -7285,7 +7425,7 @@
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
     </row>
-    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -7293,7 +7433,7 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
     </row>
-    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -7301,7 +7441,7 @@
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
     </row>
-    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -7309,7 +7449,7 @@
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
     </row>
-    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -7317,7 +7457,7 @@
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
     </row>
-    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -7325,7 +7465,7 @@
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
     </row>
-    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -7333,7 +7473,7 @@
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
     </row>
-    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -7341,7 +7481,7 @@
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
     </row>
-    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -7349,7 +7489,7 @@
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
     </row>
-    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -7357,7 +7497,7 @@
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
     </row>
-    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -7365,7 +7505,7 @@
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
     </row>
-    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -7373,7 +7513,7 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
     </row>
-    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -7381,7 +7521,7 @@
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
     </row>
-    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -7389,7 +7529,7 @@
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
     </row>
-    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -7397,7 +7537,7 @@
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
     </row>
-    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -7405,7 +7545,7 @@
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
     </row>
-    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -7413,7 +7553,7 @@
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
     </row>
-    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -7421,7 +7561,7 @@
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
     </row>
-    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -7429,7 +7569,7 @@
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
     </row>
-    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -7437,7 +7577,7 @@
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
     </row>
-    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -7445,7 +7585,7 @@
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
     </row>
-    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -7453,7 +7593,7 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
     </row>
-    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -7461,7 +7601,7 @@
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
     </row>
-    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -7469,7 +7609,7 @@
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
     </row>
-    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -7477,7 +7617,7 @@
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
     </row>
-    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -7485,7 +7625,7 @@
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
     </row>
-    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -7493,7 +7633,7 @@
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
     </row>
-    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -7501,7 +7641,7 @@
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
     </row>
-    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -7509,7 +7649,7 @@
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
     </row>
-    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -7517,7 +7657,7 @@
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
     </row>
-    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -7525,7 +7665,7 @@
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
     </row>
-    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -7533,7 +7673,7 @@
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
     </row>
-    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -7541,7 +7681,7 @@
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
     </row>
-    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -7549,7 +7689,7 @@
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
     </row>
-    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -7557,7 +7697,7 @@
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
     </row>
-    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -7565,7 +7705,7 @@
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
     </row>
-    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -7573,7 +7713,7 @@
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
     </row>
-    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -7581,7 +7721,7 @@
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
     </row>
-    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -7589,7 +7729,7 @@
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
     </row>
-    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -7597,7 +7737,7 @@
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
     </row>
-    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -7605,7 +7745,7 @@
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
     </row>
-    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -7613,7 +7753,7 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
     </row>
-    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -7621,7 +7761,7 @@
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
     </row>
-    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -7629,7 +7769,7 @@
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
     </row>
-    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -7637,7 +7777,7 @@
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
     </row>
-    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -7645,7 +7785,7 @@
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
     </row>
-    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -7653,7 +7793,7 @@
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
     </row>
-    <row r="878" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -7661,7 +7801,7 @@
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
     </row>
-    <row r="879" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -7669,7 +7809,7 @@
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
     </row>
-    <row r="880" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -7677,7 +7817,7 @@
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
     </row>
-    <row r="881" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -7685,7 +7825,7 @@
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
     </row>
-    <row r="882" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -7693,7 +7833,7 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
     </row>
-    <row r="883" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -7701,7 +7841,7 @@
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
     </row>
-    <row r="884" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -7709,7 +7849,7 @@
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
     </row>
-    <row r="885" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -7717,7 +7857,7 @@
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
     </row>
-    <row r="886" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -7725,7 +7865,7 @@
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
     </row>
-    <row r="887" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -7733,7 +7873,7 @@
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
     </row>
-    <row r="888" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -7741,7 +7881,7 @@
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
     </row>
-    <row r="889" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -7749,7 +7889,7 @@
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
     </row>
-    <row r="890" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -7757,7 +7897,7 @@
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
     </row>
-    <row r="891" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -7765,7 +7905,7 @@
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
     </row>
-    <row r="892" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -7773,7 +7913,7 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
     </row>
-    <row r="893" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -7781,7 +7921,7 @@
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
     </row>
-    <row r="894" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -7789,7 +7929,7 @@
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
     </row>
-    <row r="895" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -7797,7 +7937,7 @@
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
     </row>
-    <row r="896" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -7805,7 +7945,7 @@
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
     </row>
-    <row r="897" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -7813,7 +7953,7 @@
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
     </row>
-    <row r="898" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -7821,7 +7961,7 @@
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
     </row>
-    <row r="899" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -7829,7 +7969,7 @@
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
     </row>
-    <row r="900" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -7837,7 +7977,7 @@
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
     </row>
-    <row r="901" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -7845,7 +7985,7 @@
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
     </row>
-    <row r="902" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -7853,7 +7993,7 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
     </row>
-    <row r="903" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -7861,7 +8001,7 @@
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
     </row>
-    <row r="904" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -7869,7 +8009,7 @@
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
     </row>
-    <row r="905" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -7877,7 +8017,7 @@
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
     </row>
-    <row r="906" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -7885,7 +8025,7 @@
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
     </row>
-    <row r="907" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -7893,7 +8033,7 @@
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
     </row>
-    <row r="908" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -7901,7 +8041,7 @@
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
     </row>
-    <row r="909" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -7909,7 +8049,7 @@
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
     </row>
-    <row r="910" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -7917,7 +8057,7 @@
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
     </row>
-    <row r="911" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -7925,7 +8065,7 @@
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
     </row>
-    <row r="912" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -7933,7 +8073,7 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
     </row>
-    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -7941,7 +8081,7 @@
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
     </row>
-    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -7949,7 +8089,7 @@
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
     </row>
-    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -7957,7 +8097,7 @@
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
     </row>
-    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -7965,7 +8105,7 @@
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
     </row>
-    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -7973,7 +8113,7 @@
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
     </row>
-    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -7981,7 +8121,7 @@
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
     </row>
-    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -7989,7 +8129,7 @@
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
     </row>
-    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -7997,7 +8137,7 @@
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
     </row>
-    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -8005,7 +8145,7 @@
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
     </row>
-    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -8013,7 +8153,7 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
     </row>
-    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -8021,7 +8161,7 @@
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
     </row>
-    <row r="924" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -8029,7 +8169,7 @@
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
     </row>
-    <row r="925" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -8037,7 +8177,7 @@
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
     </row>
-    <row r="926" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -8045,7 +8185,7 @@
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
     </row>
-    <row r="927" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -8053,7 +8193,7 @@
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
     </row>
-    <row r="928" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -8061,7 +8201,7 @@
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
     </row>
-    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -8069,7 +8209,7 @@
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
     </row>
-    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -8077,7 +8217,7 @@
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
     </row>
-    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -8085,7 +8225,7 @@
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
     </row>
-    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -8093,7 +8233,7 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
     </row>
-    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -8101,7 +8241,7 @@
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
     </row>
-    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -8109,7 +8249,7 @@
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
     </row>
-    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -8117,7 +8257,7 @@
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
     </row>
-    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -8147,24 +8287,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/IdeaProjects/algorithms/leetcode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C8309-D5BA-6A43-9B1F-03D57794D04E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1480" windowWidth="23860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1485" windowWidth="23865" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,26 +202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,17 +412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -625,7 +585,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,7 +600,7 @@
         <f t="shared" si="1"/>
         <v>43400</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>43402</v>
       </c>
@@ -681,7 +641,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -692,7 +652,7 @@
         <f t="shared" si="0"/>
         <v>43398</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:D16" si="5">B9+5</f>
         <v>43402</v>
       </c>
@@ -765,11 +725,11 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>43402</v>
       </c>
       <c r="C12" s="3">
@@ -1001,7 +961,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1009,7 +969,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1017,7 +977,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1025,7 +985,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1033,7 +993,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1041,7 +1001,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1049,7 +1009,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1057,7 +1017,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1065,7 +1025,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1073,7 +1033,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1081,7 +1041,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1089,7 +1049,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1097,7 +1057,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1105,7 +1065,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1113,7 +1073,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1121,7 +1081,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1129,7 +1089,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1137,7 +1097,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1145,7 +1105,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1153,7 +1113,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1161,7 +1121,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1169,7 +1129,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1177,7 +1137,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1185,7 +1145,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1193,7 +1153,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1201,7 +1161,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1209,7 +1169,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1217,7 +1177,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1225,7 +1185,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1233,7 +1193,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1241,7 +1201,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1249,7 +1209,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1257,7 +1217,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1265,7 +1225,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1273,7 +1233,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1281,7 +1241,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1289,7 +1249,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1297,7 +1257,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1305,7 +1265,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1313,7 +1273,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1321,7 +1281,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1329,7 +1289,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1337,7 +1297,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1345,7 +1305,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1353,7 +1313,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1361,7 +1321,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1369,7 +1329,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1377,7 +1337,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1385,7 +1345,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1393,7 +1353,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1401,7 +1361,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1409,7 +1369,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1417,7 +1377,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1425,7 +1385,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1433,7 +1393,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1441,7 +1401,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1449,7 +1409,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1457,7 +1417,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1465,7 +1425,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1473,7 +1433,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1481,7 +1441,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -1489,7 +1449,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1497,7 +1457,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -1505,7 +1465,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -1513,7 +1473,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -1521,7 +1481,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -1529,7 +1489,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1537,7 +1497,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -1545,7 +1505,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -1553,7 +1513,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -1561,7 +1521,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -1569,7 +1529,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -1577,7 +1537,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -1585,7 +1545,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -1593,7 +1553,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -1601,7 +1561,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -1609,7 +1569,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -1617,7 +1577,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -1625,7 +1585,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -1633,7 +1593,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -1641,7 +1601,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -1649,7 +1609,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -1657,7 +1617,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -1665,7 +1625,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -1673,7 +1633,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -1681,7 +1641,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -1689,7 +1649,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -1697,7 +1657,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -1705,7 +1665,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -1713,7 +1673,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -1721,7 +1681,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -1729,7 +1689,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -1737,7 +1697,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -1745,7 +1705,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -1753,7 +1713,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -1761,7 +1721,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -1769,7 +1729,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -1777,7 +1737,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -1785,7 +1745,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -1793,7 +1753,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -1801,7 +1761,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -1809,7 +1769,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -1817,7 +1777,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -1825,7 +1785,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -1833,7 +1793,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -1841,7 +1801,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -1849,7 +1809,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -1857,7 +1817,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -1865,7 +1825,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -1873,7 +1833,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -1881,7 +1841,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -1889,7 +1849,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -1897,7 +1857,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -1905,7 +1865,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -1913,7 +1873,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -1921,7 +1881,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -1929,7 +1889,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -1937,7 +1897,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -1945,7 +1905,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -1953,7 +1913,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -1961,7 +1921,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -1969,7 +1929,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -1977,7 +1937,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -1985,7 +1945,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -1993,7 +1953,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -2001,7 +1961,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -2009,7 +1969,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -2017,7 +1977,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -2025,7 +1985,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -2033,7 +1993,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -2041,7 +2001,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -2049,7 +2009,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -2057,7 +2017,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -2065,7 +2025,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -2073,7 +2033,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -2081,7 +2041,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -2089,7 +2049,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -2097,7 +2057,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -2105,7 +2065,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -2113,7 +2073,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -2121,7 +2081,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -2129,7 +2089,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -2137,7 +2097,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -2145,7 +2105,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -2153,7 +2113,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -2161,7 +2121,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -2169,7 +2129,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -2177,7 +2137,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -2185,7 +2145,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -2193,7 +2153,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -2201,7 +2161,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -2209,7 +2169,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -2217,7 +2177,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -2225,7 +2185,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -2233,7 +2193,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -2241,7 +2201,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -2249,7 +2209,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -2257,7 +2217,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -2265,7 +2225,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -2273,7 +2233,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -2281,7 +2241,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -2289,7 +2249,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -2297,7 +2257,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -2305,7 +2265,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -2313,7 +2273,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -2321,7 +2281,7 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -2329,7 +2289,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -2337,7 +2297,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -2345,7 +2305,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -2353,7 +2313,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -2361,7 +2321,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -2369,7 +2329,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -2377,7 +2337,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -2385,7 +2345,7 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -2393,7 +2353,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -2401,7 +2361,7 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -2409,7 +2369,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -2417,7 +2377,7 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -2425,7 +2385,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -2433,7 +2393,7 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -2441,7 +2401,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -2449,7 +2409,7 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -2457,7 +2417,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -2465,7 +2425,7 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -2473,7 +2433,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -2481,7 +2441,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -2489,7 +2449,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -2497,7 +2457,7 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -2505,7 +2465,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -2513,7 +2473,7 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -2521,7 +2481,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -2529,7 +2489,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -2537,7 +2497,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -2545,7 +2505,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -2553,7 +2513,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -2561,7 +2521,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -2569,7 +2529,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -2577,7 +2537,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -2585,7 +2545,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -2593,7 +2553,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -2601,7 +2561,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -2609,7 +2569,7 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2617,7 +2577,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2625,7 +2585,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2633,7 +2593,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2641,7 +2601,7 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2649,7 +2609,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2657,7 +2617,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2665,7 +2625,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2673,7 +2633,7 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2681,7 +2641,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2689,7 +2649,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2697,7 +2657,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2705,7 +2665,7 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -2713,7 +2673,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -2721,7 +2681,7 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -2729,7 +2689,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -2737,7 +2697,7 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -2745,7 +2705,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -2753,7 +2713,7 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -2761,7 +2721,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -2769,7 +2729,7 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -2777,7 +2737,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -2785,7 +2745,7 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -2793,7 +2753,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -2801,7 +2761,7 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -2809,7 +2769,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -2817,7 +2777,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -2825,7 +2785,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -2833,7 +2793,7 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -2841,7 +2801,7 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -2849,7 +2809,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -2857,7 +2817,7 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -2865,7 +2825,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -2873,7 +2833,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -2881,7 +2841,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -2889,7 +2849,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -2897,7 +2857,7 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -2905,7 +2865,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -2913,7 +2873,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -2921,7 +2881,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -2929,7 +2889,7 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -2937,7 +2897,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -2945,7 +2905,7 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -2953,7 +2913,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -2961,7 +2921,7 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -2969,7 +2929,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -2977,7 +2937,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -2985,7 +2945,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -2993,7 +2953,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -3001,7 +2961,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -3009,7 +2969,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -3017,7 +2977,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -3025,7 +2985,7 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -3033,7 +2993,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -3041,7 +3001,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -3049,7 +3009,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -3057,7 +3017,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -3065,7 +3025,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -3073,7 +3033,7 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -3081,7 +3041,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -3089,7 +3049,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -3097,7 +3057,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -3105,7 +3065,7 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -3113,7 +3073,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -3121,7 +3081,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -3129,7 +3089,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -3137,7 +3097,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -3145,7 +3105,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -3153,7 +3113,7 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -3161,7 +3121,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -3169,7 +3129,7 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -3177,7 +3137,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -3185,7 +3145,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -3193,7 +3153,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -3201,7 +3161,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -3209,7 +3169,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -3217,7 +3177,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -3225,7 +3185,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -3233,7 +3193,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -3241,7 +3201,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -3249,7 +3209,7 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -3257,7 +3217,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -3265,7 +3225,7 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -3273,7 +3233,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -3281,7 +3241,7 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -3289,7 +3249,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -3297,7 +3257,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -3305,7 +3265,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -3313,7 +3273,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -3321,7 +3281,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -3329,7 +3289,7 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -3337,7 +3297,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -3345,7 +3305,7 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -3353,7 +3313,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -3361,7 +3321,7 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -3369,7 +3329,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -3377,7 +3337,7 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -3385,7 +3345,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -3393,7 +3353,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -3401,7 +3361,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -3409,7 +3369,7 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -3417,7 +3377,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -3425,7 +3385,7 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -3433,7 +3393,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -3441,7 +3401,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -3449,7 +3409,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -3457,7 +3417,7 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -3465,7 +3425,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -3473,7 +3433,7 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -3481,7 +3441,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -3489,7 +3449,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -3497,7 +3457,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -3505,7 +3465,7 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -3513,7 +3473,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -3521,7 +3481,7 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -3529,7 +3489,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -3537,7 +3497,7 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -3545,7 +3505,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -3553,7 +3513,7 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -3561,7 +3521,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -3569,7 +3529,7 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -3577,7 +3537,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -3585,7 +3545,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -3593,7 +3553,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -3601,7 +3561,7 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -3609,7 +3569,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -3617,7 +3577,7 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -3625,7 +3585,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -3633,7 +3593,7 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -3641,7 +3601,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -3649,7 +3609,7 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -3657,7 +3617,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -3665,7 +3625,7 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -3673,7 +3633,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -3681,7 +3641,7 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -3689,7 +3649,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -3697,7 +3657,7 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -3705,7 +3665,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -3713,7 +3673,7 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -3721,7 +3681,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -3729,7 +3689,7 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -3737,7 +3697,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -3745,7 +3705,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -3753,7 +3713,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -3761,7 +3721,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -3769,7 +3729,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -3777,7 +3737,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -3785,7 +3745,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -3793,7 +3753,7 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -3801,7 +3761,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -3809,7 +3769,7 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -3817,7 +3777,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -3825,7 +3785,7 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -3833,7 +3793,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -3841,7 +3801,7 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -3849,7 +3809,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -3857,7 +3817,7 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -3865,7 +3825,7 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -3873,7 +3833,7 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -3881,7 +3841,7 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -3889,7 +3849,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -3897,7 +3857,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -3905,7 +3865,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -3913,7 +3873,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -3921,7 +3881,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -3929,7 +3889,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -3937,7 +3897,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -3945,7 +3905,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -3953,7 +3913,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -3961,7 +3921,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -3969,7 +3929,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -3977,7 +3937,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -3985,7 +3945,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -3993,7 +3953,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -4001,7 +3961,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -4009,7 +3969,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -4017,7 +3977,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -4025,7 +3985,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -4033,7 +3993,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -4041,7 +4001,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -4049,7 +4009,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -4057,7 +4017,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -4065,7 +4025,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -4073,7 +4033,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -4081,7 +4041,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -4089,7 +4049,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -4097,7 +4057,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -4105,7 +4065,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -4113,7 +4073,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -4121,7 +4081,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -4129,7 +4089,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -4137,7 +4097,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -4145,7 +4105,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -4153,7 +4113,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -4161,7 +4121,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -4169,7 +4129,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -4177,7 +4137,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -4185,7 +4145,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -4193,7 +4153,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -4201,7 +4161,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -4209,7 +4169,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -4217,7 +4177,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -4225,7 +4185,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -4233,7 +4193,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -4241,7 +4201,7 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -4249,7 +4209,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -4257,7 +4217,7 @@
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -4265,7 +4225,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -4273,7 +4233,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -4281,7 +4241,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -4289,7 +4249,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -4297,7 +4257,7 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -4305,7 +4265,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4313,7 +4273,7 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4321,7 +4281,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -4329,7 +4289,7 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4337,7 +4297,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4345,7 +4305,7 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -4353,7 +4313,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -4361,7 +4321,7 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -4369,7 +4329,7 @@
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -4377,7 +4337,7 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -4385,7 +4345,7 @@
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -4393,7 +4353,7 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -4401,7 +4361,7 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -4409,7 +4369,7 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -4417,7 +4377,7 @@
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -4425,7 +4385,7 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -4433,7 +4393,7 @@
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -4441,7 +4401,7 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -4449,7 +4409,7 @@
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -4457,7 +4417,7 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -4465,7 +4425,7 @@
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -4473,7 +4433,7 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -4481,7 +4441,7 @@
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -4489,7 +4449,7 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -4497,7 +4457,7 @@
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4505,7 +4465,7 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -4513,7 +4473,7 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -4521,7 +4481,7 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -4529,7 +4489,7 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -4537,7 +4497,7 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -4545,7 +4505,7 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -4553,7 +4513,7 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -4561,7 +4521,7 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -4569,7 +4529,7 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -4577,7 +4537,7 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -4585,7 +4545,7 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -4593,7 +4553,7 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -4601,7 +4561,7 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -4609,7 +4569,7 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -4617,7 +4577,7 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -4625,7 +4585,7 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -4633,7 +4593,7 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -4641,7 +4601,7 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -4649,7 +4609,7 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -4657,7 +4617,7 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -4665,7 +4625,7 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -4673,7 +4633,7 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -4681,7 +4641,7 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -4689,7 +4649,7 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -4697,7 +4657,7 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -4705,7 +4665,7 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -4713,7 +4673,7 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -4721,7 +4681,7 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -4729,7 +4689,7 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -4737,7 +4697,7 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -4745,7 +4705,7 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -4753,7 +4713,7 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -4761,7 +4721,7 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -4769,7 +4729,7 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -4777,7 +4737,7 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -4785,7 +4745,7 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -4793,7 +4753,7 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -4801,7 +4761,7 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
     </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -4809,7 +4769,7 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
     </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -4817,7 +4777,7 @@
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
     </row>
-    <row r="506" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -4825,7 +4785,7 @@
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -4833,7 +4793,7 @@
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="508" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -4841,7 +4801,7 @@
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
     </row>
-    <row r="509" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -4849,7 +4809,7 @@
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -4857,7 +4817,7 @@
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
     </row>
-    <row r="511" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -4865,7 +4825,7 @@
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
     </row>
-    <row r="512" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -4873,7 +4833,7 @@
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -4881,7 +4841,7 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -4889,7 +4849,7 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
     </row>
-    <row r="515" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -4897,7 +4857,7 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
     </row>
-    <row r="516" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -4905,7 +4865,7 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
     </row>
-    <row r="517" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -4913,7 +4873,7 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
     </row>
-    <row r="518" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -4921,7 +4881,7 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
     </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -4929,7 +4889,7 @@
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
     </row>
-    <row r="520" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -4937,7 +4897,7 @@
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
     </row>
-    <row r="521" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -4945,7 +4905,7 @@
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
     </row>
-    <row r="522" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -4953,7 +4913,7 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
     </row>
-    <row r="523" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -4961,7 +4921,7 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
     </row>
-    <row r="524" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -4969,7 +4929,7 @@
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
     </row>
-    <row r="525" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -4977,7 +4937,7 @@
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
     </row>
-    <row r="526" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -4985,7 +4945,7 @@
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
     </row>
-    <row r="527" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -4993,7 +4953,7 @@
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -5001,7 +4961,7 @@
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
     </row>
-    <row r="529" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -5009,7 +4969,7 @@
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -5017,7 +4977,7 @@
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
     </row>
-    <row r="531" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -5025,7 +4985,7 @@
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -5033,7 +4993,7 @@
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
     </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -5041,7 +5001,7 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
     </row>
-    <row r="534" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -5049,7 +5009,7 @@
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
     </row>
-    <row r="535" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -5057,7 +5017,7 @@
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -5065,7 +5025,7 @@
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
     </row>
-    <row r="537" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -5073,7 +5033,7 @@
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
     </row>
-    <row r="538" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -5081,7 +5041,7 @@
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -5089,7 +5049,7 @@
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -5097,7 +5057,7 @@
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
-    <row r="541" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -5105,7 +5065,7 @@
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -5113,7 +5073,7 @@
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -5121,7 +5081,7 @@
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
     </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -5129,7 +5089,7 @@
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
     </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -5137,7 +5097,7 @@
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -5145,7 +5105,7 @@
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -5153,7 +5113,7 @@
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -5161,7 +5121,7 @@
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -5169,7 +5129,7 @@
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
     </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -5177,7 +5137,7 @@
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -5185,7 +5145,7 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -5193,7 +5153,7 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -5201,7 +5161,7 @@
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -5209,7 +5169,7 @@
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -5217,7 +5177,7 @@
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -5225,7 +5185,7 @@
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
     </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -5233,7 +5193,7 @@
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
     </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -5241,7 +5201,7 @@
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -5249,7 +5209,7 @@
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -5257,7 +5217,7 @@
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
     </row>
-    <row r="561" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -5265,7 +5225,7 @@
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
     </row>
-    <row r="562" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -5273,7 +5233,7 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
     </row>
-    <row r="563" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -5281,7 +5241,7 @@
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -5289,7 +5249,7 @@
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
     </row>
-    <row r="565" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -5297,7 +5257,7 @@
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
     </row>
-    <row r="566" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -5305,7 +5265,7 @@
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
     </row>
-    <row r="567" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -5313,7 +5273,7 @@
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
     </row>
-    <row r="568" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -5321,7 +5281,7 @@
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
     </row>
-    <row r="569" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -5329,7 +5289,7 @@
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
     </row>
-    <row r="570" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -5337,7 +5297,7 @@
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
     </row>
-    <row r="571" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -5345,7 +5305,7 @@
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
     </row>
-    <row r="572" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -5353,7 +5313,7 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -5361,7 +5321,7 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
     </row>
-    <row r="574" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -5369,7 +5329,7 @@
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -5377,7 +5337,7 @@
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
     </row>
-    <row r="576" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -5385,7 +5345,7 @@
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
     </row>
-    <row r="577" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5393,7 +5353,7 @@
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
     </row>
-    <row r="578" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -5401,7 +5361,7 @@
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
     </row>
-    <row r="579" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5409,7 +5369,7 @@
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
     </row>
-    <row r="580" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -5417,7 +5377,7 @@
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
     </row>
-    <row r="581" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -5425,7 +5385,7 @@
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="582" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -5433,7 +5393,7 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
     </row>
-    <row r="583" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -5441,7 +5401,7 @@
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
     </row>
-    <row r="584" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -5449,7 +5409,7 @@
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
     </row>
-    <row r="585" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -5457,7 +5417,7 @@
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
     </row>
-    <row r="586" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -5465,7 +5425,7 @@
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
     </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -5473,7 +5433,7 @@
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
     </row>
-    <row r="588" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -5481,7 +5441,7 @@
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
     </row>
-    <row r="589" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -5489,7 +5449,7 @@
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
     </row>
-    <row r="590" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -5497,7 +5457,7 @@
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -5505,7 +5465,7 @@
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -5513,7 +5473,7 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
     </row>
-    <row r="593" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -5521,7 +5481,7 @@
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -5529,7 +5489,7 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
     </row>
-    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -5537,7 +5497,7 @@
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
     </row>
-    <row r="596" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -5545,7 +5505,7 @@
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
     </row>
-    <row r="597" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -5553,7 +5513,7 @@
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -5561,7 +5521,7 @@
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="599" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -5569,7 +5529,7 @@
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
     </row>
-    <row r="600" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -5577,7 +5537,7 @@
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
     </row>
-    <row r="601" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -5585,7 +5545,7 @@
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
     </row>
-    <row r="602" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -5593,7 +5553,7 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
     </row>
-    <row r="603" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -5601,7 +5561,7 @@
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
     </row>
-    <row r="604" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -5609,7 +5569,7 @@
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
     </row>
-    <row r="605" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -5617,7 +5577,7 @@
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
     </row>
-    <row r="606" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -5625,7 +5585,7 @@
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
     </row>
-    <row r="607" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -5633,7 +5593,7 @@
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
     </row>
-    <row r="608" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -5641,7 +5601,7 @@
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
     </row>
-    <row r="609" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -5649,7 +5609,7 @@
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
     </row>
-    <row r="610" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -5657,7 +5617,7 @@
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
     </row>
-    <row r="611" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -5665,7 +5625,7 @@
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
     </row>
-    <row r="612" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -5673,7 +5633,7 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
     </row>
-    <row r="613" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -5681,7 +5641,7 @@
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
     </row>
-    <row r="614" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -5689,7 +5649,7 @@
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
     </row>
-    <row r="615" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -5697,7 +5657,7 @@
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
     </row>
-    <row r="616" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -5705,7 +5665,7 @@
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
     </row>
-    <row r="617" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -5713,7 +5673,7 @@
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
     </row>
-    <row r="618" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -5721,7 +5681,7 @@
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -5729,7 +5689,7 @@
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
     </row>
-    <row r="620" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -5737,7 +5697,7 @@
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -5745,7 +5705,7 @@
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
     </row>
-    <row r="622" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -5753,7 +5713,7 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
     </row>
-    <row r="623" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -5761,7 +5721,7 @@
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
     </row>
-    <row r="624" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -5769,7 +5729,7 @@
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
     </row>
-    <row r="625" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -5777,7 +5737,7 @@
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
     </row>
-    <row r="626" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -5785,7 +5745,7 @@
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
     </row>
-    <row r="627" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -5793,7 +5753,7 @@
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
     </row>
-    <row r="628" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -5801,7 +5761,7 @@
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
     </row>
-    <row r="629" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -5809,7 +5769,7 @@
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
     </row>
-    <row r="630" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -5817,7 +5777,7 @@
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
     </row>
-    <row r="631" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -5825,7 +5785,7 @@
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
     </row>
-    <row r="632" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -5833,7 +5793,7 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
     </row>
-    <row r="633" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -5841,7 +5801,7 @@
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -5849,7 +5809,7 @@
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
     </row>
-    <row r="635" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -5857,7 +5817,7 @@
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
     </row>
-    <row r="636" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -5865,7 +5825,7 @@
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -5873,7 +5833,7 @@
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -5881,7 +5841,7 @@
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
     </row>
-    <row r="639" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -5889,7 +5849,7 @@
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
     </row>
-    <row r="640" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -5897,7 +5857,7 @@
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
     </row>
-    <row r="641" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -5905,7 +5865,7 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
     </row>
-    <row r="642" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -5913,7 +5873,7 @@
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
     </row>
-    <row r="643" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -5921,7 +5881,7 @@
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
     </row>
-    <row r="644" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -5929,7 +5889,7 @@
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
     </row>
-    <row r="645" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -5937,7 +5897,7 @@
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
     </row>
-    <row r="646" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -5945,7 +5905,7 @@
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
     </row>
-    <row r="647" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -5953,7 +5913,7 @@
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
     </row>
-    <row r="648" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -5961,7 +5921,7 @@
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
     </row>
-    <row r="649" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -5969,7 +5929,7 @@
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
     </row>
-    <row r="650" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -5977,7 +5937,7 @@
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
     </row>
-    <row r="651" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -5985,7 +5945,7 @@
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
     </row>
-    <row r="652" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -5993,7 +5953,7 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
     </row>
-    <row r="653" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -6001,7 +5961,7 @@
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
     </row>
-    <row r="654" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -6009,7 +5969,7 @@
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
     </row>
-    <row r="655" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -6017,7 +5977,7 @@
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
     </row>
-    <row r="656" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -6025,7 +5985,7 @@
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
     </row>
-    <row r="657" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -6033,7 +5993,7 @@
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
     </row>
-    <row r="658" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -6041,7 +6001,7 @@
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
     </row>
-    <row r="659" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -6049,7 +6009,7 @@
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
     </row>
-    <row r="660" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -6057,7 +6017,7 @@
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
     </row>
-    <row r="661" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -6065,7 +6025,7 @@
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
     </row>
-    <row r="662" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -6073,7 +6033,7 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
     </row>
-    <row r="663" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -6081,7 +6041,7 @@
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
     </row>
-    <row r="664" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -6089,7 +6049,7 @@
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
     </row>
-    <row r="665" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -6097,7 +6057,7 @@
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
     </row>
-    <row r="666" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -6105,7 +6065,7 @@
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
     </row>
-    <row r="667" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -6113,7 +6073,7 @@
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
     </row>
-    <row r="668" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -6121,7 +6081,7 @@
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
     </row>
-    <row r="669" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -6129,7 +6089,7 @@
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
     </row>
-    <row r="670" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -6137,7 +6097,7 @@
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
     </row>
-    <row r="671" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -6145,7 +6105,7 @@
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
     </row>
-    <row r="672" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -6153,7 +6113,7 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
     </row>
-    <row r="673" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -6161,7 +6121,7 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
     </row>
-    <row r="674" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -6169,7 +6129,7 @@
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
     </row>
-    <row r="675" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -6177,7 +6137,7 @@
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
     </row>
-    <row r="676" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -6185,7 +6145,7 @@
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
     </row>
-    <row r="677" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -6193,7 +6153,7 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
     </row>
-    <row r="678" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -6201,7 +6161,7 @@
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
     </row>
-    <row r="679" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -6209,7 +6169,7 @@
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
     </row>
-    <row r="680" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -6217,7 +6177,7 @@
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
     </row>
-    <row r="681" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -6225,7 +6185,7 @@
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
     </row>
-    <row r="682" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -6233,7 +6193,7 @@
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
     </row>
-    <row r="683" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -6241,7 +6201,7 @@
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
     </row>
-    <row r="684" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -6249,7 +6209,7 @@
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
     </row>
-    <row r="685" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -6257,7 +6217,7 @@
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
     </row>
-    <row r="686" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -6265,7 +6225,7 @@
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
     </row>
-    <row r="687" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -6273,7 +6233,7 @@
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
     </row>
-    <row r="688" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -6281,7 +6241,7 @@
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
     </row>
-    <row r="689" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -6289,7 +6249,7 @@
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
     </row>
-    <row r="690" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -6297,7 +6257,7 @@
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
     </row>
-    <row r="691" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -6305,7 +6265,7 @@
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
     </row>
-    <row r="692" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -6313,7 +6273,7 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
     </row>
-    <row r="693" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -6321,7 +6281,7 @@
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
     </row>
-    <row r="694" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -6329,7 +6289,7 @@
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
     </row>
-    <row r="695" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -6337,7 +6297,7 @@
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
     </row>
-    <row r="696" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -6345,7 +6305,7 @@
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
     </row>
-    <row r="697" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -6353,7 +6313,7 @@
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
     </row>
-    <row r="698" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -6361,7 +6321,7 @@
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
     </row>
-    <row r="699" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -6369,7 +6329,7 @@
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
     </row>
-    <row r="700" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -6377,7 +6337,7 @@
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
     </row>
-    <row r="701" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -6385,7 +6345,7 @@
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
     </row>
-    <row r="702" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -6393,7 +6353,7 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
     </row>
-    <row r="703" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -6401,7 +6361,7 @@
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -6409,7 +6369,7 @@
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
     </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -6417,7 +6377,7 @@
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
     </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -6425,7 +6385,7 @@
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
     </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -6433,7 +6393,7 @@
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
     </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -6441,7 +6401,7 @@
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
     </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -6449,7 +6409,7 @@
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
     </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -6457,7 +6417,7 @@
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
     </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -6465,7 +6425,7 @@
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
     </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -6473,7 +6433,7 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -6481,7 +6441,7 @@
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -6489,7 +6449,7 @@
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -6497,7 +6457,7 @@
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -6505,7 +6465,7 @@
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
     </row>
-    <row r="717" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -6513,7 +6473,7 @@
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -6521,7 +6481,7 @@
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -6529,7 +6489,7 @@
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -6537,7 +6497,7 @@
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
     </row>
-    <row r="721" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -6545,7 +6505,7 @@
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
     </row>
-    <row r="722" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -6553,7 +6513,7 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
     </row>
-    <row r="723" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -6561,7 +6521,7 @@
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
     </row>
-    <row r="724" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -6569,7 +6529,7 @@
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
     </row>
-    <row r="725" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -6577,7 +6537,7 @@
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
     </row>
-    <row r="726" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -6585,7 +6545,7 @@
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
     </row>
-    <row r="727" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -6593,7 +6553,7 @@
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
     </row>
-    <row r="728" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -6601,7 +6561,7 @@
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
     </row>
-    <row r="729" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -6609,7 +6569,7 @@
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
     </row>
-    <row r="730" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -6617,7 +6577,7 @@
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
     </row>
-    <row r="731" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -6625,7 +6585,7 @@
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
     </row>
-    <row r="732" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -6633,7 +6593,7 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
     </row>
-    <row r="733" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -6641,7 +6601,7 @@
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
     </row>
-    <row r="734" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -6649,7 +6609,7 @@
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
     </row>
-    <row r="735" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -6657,7 +6617,7 @@
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
     </row>
-    <row r="736" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -6665,7 +6625,7 @@
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
     </row>
-    <row r="737" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -6673,7 +6633,7 @@
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
     </row>
-    <row r="738" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -6681,7 +6641,7 @@
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
     </row>
-    <row r="739" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -6689,7 +6649,7 @@
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
     </row>
-    <row r="740" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -6697,7 +6657,7 @@
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
     </row>
-    <row r="741" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -6705,7 +6665,7 @@
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
     </row>
-    <row r="742" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -6713,7 +6673,7 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
     </row>
-    <row r="743" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -6721,7 +6681,7 @@
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
     </row>
-    <row r="744" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -6729,7 +6689,7 @@
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
     </row>
-    <row r="745" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -6737,7 +6697,7 @@
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
     </row>
-    <row r="746" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -6745,7 +6705,7 @@
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
     </row>
-    <row r="747" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -6753,7 +6713,7 @@
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
     </row>
-    <row r="748" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -6761,7 +6721,7 @@
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
     </row>
-    <row r="749" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -6769,7 +6729,7 @@
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
     </row>
-    <row r="750" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -6777,7 +6737,7 @@
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
     </row>
-    <row r="751" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -6785,7 +6745,7 @@
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
     </row>
-    <row r="752" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -6793,7 +6753,7 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
     </row>
-    <row r="753" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -6801,7 +6761,7 @@
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
     </row>
-    <row r="754" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -6809,7 +6769,7 @@
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
     </row>
-    <row r="755" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -6817,7 +6777,7 @@
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
     </row>
-    <row r="756" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -6825,7 +6785,7 @@
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
     </row>
-    <row r="757" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -6833,7 +6793,7 @@
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
     </row>
-    <row r="758" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -6841,7 +6801,7 @@
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
     </row>
-    <row r="759" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -6849,7 +6809,7 @@
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
     </row>
-    <row r="760" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -6857,7 +6817,7 @@
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
     </row>
-    <row r="761" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -6865,7 +6825,7 @@
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
     </row>
-    <row r="762" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -6873,7 +6833,7 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
     </row>
-    <row r="763" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -6881,7 +6841,7 @@
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
     </row>
-    <row r="764" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -6889,7 +6849,7 @@
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
     </row>
-    <row r="765" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -6897,7 +6857,7 @@
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
     </row>
-    <row r="766" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -6905,7 +6865,7 @@
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
     </row>
-    <row r="767" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -6913,7 +6873,7 @@
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
     </row>
-    <row r="768" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -6921,7 +6881,7 @@
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
     </row>
-    <row r="769" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -6929,7 +6889,7 @@
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
     </row>
-    <row r="770" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -6937,7 +6897,7 @@
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
     </row>
-    <row r="771" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -6945,7 +6905,7 @@
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
     </row>
-    <row r="772" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -6953,7 +6913,7 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
     </row>
-    <row r="773" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -6961,7 +6921,7 @@
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
     </row>
-    <row r="774" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -6969,7 +6929,7 @@
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
     </row>
-    <row r="775" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -6977,7 +6937,7 @@
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
     </row>
-    <row r="776" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -6985,7 +6945,7 @@
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
     </row>
-    <row r="777" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -6993,7 +6953,7 @@
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
     </row>
-    <row r="778" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -7001,7 +6961,7 @@
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
     </row>
-    <row r="779" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -7009,7 +6969,7 @@
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
     </row>
-    <row r="780" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -7017,7 +6977,7 @@
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
     </row>
-    <row r="781" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -7025,7 +6985,7 @@
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
     </row>
-    <row r="782" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -7033,7 +6993,7 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
     </row>
-    <row r="783" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -7041,7 +7001,7 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
     </row>
-    <row r="784" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -7049,7 +7009,7 @@
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
     </row>
-    <row r="785" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -7057,7 +7017,7 @@
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
     </row>
-    <row r="786" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -7065,7 +7025,7 @@
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
     </row>
-    <row r="787" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -7073,7 +7033,7 @@
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
     </row>
-    <row r="788" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -7081,7 +7041,7 @@
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
     </row>
-    <row r="789" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -7089,7 +7049,7 @@
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
     </row>
-    <row r="790" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -7097,7 +7057,7 @@
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
     </row>
-    <row r="791" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -7105,7 +7065,7 @@
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
     </row>
-    <row r="792" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -7113,7 +7073,7 @@
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
     </row>
-    <row r="793" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -7121,7 +7081,7 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
     </row>
-    <row r="794" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -7129,7 +7089,7 @@
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
     </row>
-    <row r="795" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -7137,7 +7097,7 @@
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
     </row>
-    <row r="796" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -7145,7 +7105,7 @@
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
     </row>
-    <row r="797" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -7153,7 +7113,7 @@
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
     </row>
-    <row r="798" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -7161,7 +7121,7 @@
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
     </row>
-    <row r="799" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -7169,7 +7129,7 @@
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
     </row>
-    <row r="800" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -7177,7 +7137,7 @@
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
     </row>
-    <row r="801" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -7185,7 +7145,7 @@
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
     </row>
-    <row r="802" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -7193,7 +7153,7 @@
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
     </row>
-    <row r="803" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -7201,7 +7161,7 @@
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
     </row>
-    <row r="804" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -7209,7 +7169,7 @@
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
     </row>
-    <row r="805" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -7217,7 +7177,7 @@
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
     </row>
-    <row r="806" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -7225,7 +7185,7 @@
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
     </row>
-    <row r="807" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -7233,7 +7193,7 @@
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
     </row>
-    <row r="808" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -7241,7 +7201,7 @@
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
     </row>
-    <row r="809" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -7249,7 +7209,7 @@
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
     </row>
-    <row r="810" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -7257,7 +7217,7 @@
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
     </row>
-    <row r="811" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -7265,7 +7225,7 @@
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
     </row>
-    <row r="812" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -7273,7 +7233,7 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
     </row>
-    <row r="813" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -7281,7 +7241,7 @@
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
     </row>
-    <row r="814" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -7289,7 +7249,7 @@
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
     </row>
-    <row r="815" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -7297,7 +7257,7 @@
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
     </row>
-    <row r="816" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -7305,7 +7265,7 @@
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
     </row>
-    <row r="817" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -7313,7 +7273,7 @@
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
     </row>
-    <row r="818" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -7321,7 +7281,7 @@
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
     </row>
-    <row r="819" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -7329,7 +7289,7 @@
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
     </row>
-    <row r="820" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -7337,7 +7297,7 @@
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
     </row>
-    <row r="821" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -7345,7 +7305,7 @@
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
     </row>
-    <row r="822" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -7353,7 +7313,7 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
     </row>
-    <row r="823" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -7361,7 +7321,7 @@
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
     </row>
-    <row r="824" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -7369,7 +7329,7 @@
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
     </row>
-    <row r="825" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -7377,7 +7337,7 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -7385,7 +7345,7 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -7393,7 +7353,7 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -7401,7 +7361,7 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -7409,7 +7369,7 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -7417,7 +7377,7 @@
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
     </row>
-    <row r="831" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -7425,7 +7385,7 @@
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
     </row>
-    <row r="832" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -7433,7 +7393,7 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
     </row>
-    <row r="833" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -7441,7 +7401,7 @@
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
     </row>
-    <row r="834" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -7449,7 +7409,7 @@
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
     </row>
-    <row r="835" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -7457,7 +7417,7 @@
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
     </row>
-    <row r="836" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -7465,7 +7425,7 @@
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
     </row>
-    <row r="837" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -7473,7 +7433,7 @@
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
     </row>
-    <row r="838" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -7481,7 +7441,7 @@
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
     </row>
-    <row r="839" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -7489,7 +7449,7 @@
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
     </row>
-    <row r="840" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -7497,7 +7457,7 @@
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
     </row>
-    <row r="841" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -7505,7 +7465,7 @@
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
     </row>
-    <row r="842" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -7513,7 +7473,7 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
     </row>
-    <row r="843" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -7521,7 +7481,7 @@
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
     </row>
-    <row r="844" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -7529,7 +7489,7 @@
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
     </row>
-    <row r="845" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -7537,7 +7497,7 @@
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
     </row>
-    <row r="846" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -7545,7 +7505,7 @@
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
     </row>
-    <row r="847" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -7553,7 +7513,7 @@
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
     </row>
-    <row r="848" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -7561,7 +7521,7 @@
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
     </row>
-    <row r="849" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -7569,7 +7529,7 @@
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
     </row>
-    <row r="850" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -7577,7 +7537,7 @@
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
     </row>
-    <row r="851" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -7585,7 +7545,7 @@
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
     </row>
-    <row r="852" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -7593,7 +7553,7 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
     </row>
-    <row r="853" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -7601,7 +7561,7 @@
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
     </row>
-    <row r="854" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -7609,7 +7569,7 @@
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
     </row>
-    <row r="855" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -7617,7 +7577,7 @@
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
     </row>
-    <row r="856" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -7625,7 +7585,7 @@
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
     </row>
-    <row r="857" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -7633,7 +7593,7 @@
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
     </row>
-    <row r="858" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -7641,7 +7601,7 @@
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
     </row>
-    <row r="859" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -7649,7 +7609,7 @@
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
     </row>
-    <row r="860" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -7657,7 +7617,7 @@
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
     </row>
-    <row r="861" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -7665,7 +7625,7 @@
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
     </row>
-    <row r="862" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -7673,7 +7633,7 @@
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
     </row>
-    <row r="863" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -7681,7 +7641,7 @@
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
     </row>
-    <row r="864" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -7689,7 +7649,7 @@
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
     </row>
-    <row r="865" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -7697,7 +7657,7 @@
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
     </row>
-    <row r="866" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -7705,7 +7665,7 @@
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
     </row>
-    <row r="867" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -7713,7 +7673,7 @@
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
     </row>
-    <row r="868" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -7721,7 +7681,7 @@
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
     </row>
-    <row r="869" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -7729,7 +7689,7 @@
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
     </row>
-    <row r="870" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -7737,7 +7697,7 @@
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
     </row>
-    <row r="871" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -7745,7 +7705,7 @@
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
     </row>
-    <row r="872" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -7753,7 +7713,7 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
     </row>
-    <row r="873" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -7761,7 +7721,7 @@
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
     </row>
-    <row r="874" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -7769,7 +7729,7 @@
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
     </row>
-    <row r="875" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -7777,7 +7737,7 @@
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
     </row>
-    <row r="876" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -7785,7 +7745,7 @@
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
     </row>
-    <row r="877" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -7793,7 +7753,7 @@
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
     </row>
-    <row r="878" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -7801,7 +7761,7 @@
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
     </row>
-    <row r="879" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -7809,7 +7769,7 @@
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
     </row>
-    <row r="880" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -7817,7 +7777,7 @@
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
     </row>
-    <row r="881" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -7825,7 +7785,7 @@
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
     </row>
-    <row r="882" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -7833,7 +7793,7 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
     </row>
-    <row r="883" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -7841,7 +7801,7 @@
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
     </row>
-    <row r="884" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -7849,7 +7809,7 @@
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
     </row>
-    <row r="885" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -7857,7 +7817,7 @@
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
     </row>
-    <row r="886" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -7865,7 +7825,7 @@
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
     </row>
-    <row r="887" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -7873,7 +7833,7 @@
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
     </row>
-    <row r="888" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -7881,7 +7841,7 @@
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
     </row>
-    <row r="889" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -7889,7 +7849,7 @@
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
     </row>
-    <row r="890" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -7897,7 +7857,7 @@
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
     </row>
-    <row r="891" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -7905,7 +7865,7 @@
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
     </row>
-    <row r="892" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -7913,7 +7873,7 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
     </row>
-    <row r="893" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -7921,7 +7881,7 @@
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
     </row>
-    <row r="894" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -7929,7 +7889,7 @@
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
     </row>
-    <row r="895" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -7937,7 +7897,7 @@
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
     </row>
-    <row r="896" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -7945,7 +7905,7 @@
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
     </row>
-    <row r="897" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -7953,7 +7913,7 @@
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
     </row>
-    <row r="898" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -7961,7 +7921,7 @@
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
     </row>
-    <row r="899" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -7969,7 +7929,7 @@
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
     </row>
-    <row r="900" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -7977,7 +7937,7 @@
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
     </row>
-    <row r="901" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -7985,7 +7945,7 @@
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
     </row>
-    <row r="902" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -7993,7 +7953,7 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
     </row>
-    <row r="903" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -8001,7 +7961,7 @@
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
     </row>
-    <row r="904" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -8009,7 +7969,7 @@
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
     </row>
-    <row r="905" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -8017,7 +7977,7 @@
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
     </row>
-    <row r="906" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -8025,7 +7985,7 @@
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
     </row>
-    <row r="907" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -8033,7 +7993,7 @@
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
     </row>
-    <row r="908" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -8041,7 +8001,7 @@
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
     </row>
-    <row r="909" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -8049,7 +8009,7 @@
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
     </row>
-    <row r="910" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -8057,7 +8017,7 @@
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
     </row>
-    <row r="911" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -8065,7 +8025,7 @@
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
     </row>
-    <row r="912" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -8073,7 +8033,7 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
     </row>
-    <row r="913" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -8081,7 +8041,7 @@
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
     </row>
-    <row r="914" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -8089,7 +8049,7 @@
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
     </row>
-    <row r="915" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -8097,7 +8057,7 @@
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
     </row>
-    <row r="916" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -8105,7 +8065,7 @@
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
     </row>
-    <row r="917" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -8113,7 +8073,7 @@
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
     </row>
-    <row r="918" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -8121,7 +8081,7 @@
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
     </row>
-    <row r="919" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -8129,7 +8089,7 @@
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
     </row>
-    <row r="920" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -8137,7 +8097,7 @@
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
     </row>
-    <row r="921" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -8145,7 +8105,7 @@
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
     </row>
-    <row r="922" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -8153,7 +8113,7 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
     </row>
-    <row r="923" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -8161,7 +8121,7 @@
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
     </row>
-    <row r="924" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -8169,7 +8129,7 @@
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
     </row>
-    <row r="925" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -8177,7 +8137,7 @@
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
     </row>
-    <row r="926" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -8185,7 +8145,7 @@
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
     </row>
-    <row r="927" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -8193,7 +8153,7 @@
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
     </row>
-    <row r="928" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -8201,7 +8161,7 @@
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
     </row>
-    <row r="929" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -8209,7 +8169,7 @@
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
     </row>
-    <row r="930" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -8217,7 +8177,7 @@
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
     </row>
-    <row r="931" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -8225,7 +8185,7 @@
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
     </row>
-    <row r="932" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -8233,7 +8193,7 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
     </row>
-    <row r="933" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -8241,7 +8201,7 @@
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
     </row>
-    <row r="934" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -8249,7 +8209,7 @@
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
     </row>
-    <row r="935" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -8257,7 +8217,7 @@
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
     </row>
-    <row r="936" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -8287,24 +8247,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -628,7 +628,7 @@
         <f t="shared" si="1"/>
         <v>43401</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
         <v>43403</v>
       </c>
@@ -669,7 +669,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -680,7 +680,7 @@
         <f t="shared" si="0"/>
         <v>43399</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="5"/>
         <v>43403</v>
       </c>
@@ -697,14 +697,14 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>43399</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>43400</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="B12" s="2">
         <v>43402</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>43403</v>
       </c>
@@ -753,11 +753,11 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>43403</v>
       </c>
       <c r="C13" s="3">
@@ -783,7 +783,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>43404</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>43405</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>43406</v>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <f t="shared" si="2"/>
         <v>43396</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f t="shared" si="3"/>
         <v>43404</v>
       </c>
@@ -656,7 +656,7 @@
         <f t="shared" ref="D9:D16" si="5">B9+5</f>
         <v>43402</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" ref="E9:E16" si="6">B9+7</f>
         <v>43404</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="B13" s="2">
         <v>43403</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>43404</v>
       </c>
@@ -781,11 +781,11 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>43404</v>
       </c>
       <c r="C14" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <f t="shared" si="5"/>
         <v>43403</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="6"/>
         <v>43405</v>
       </c>
@@ -708,7 +708,7 @@
         <f t="shared" si="0"/>
         <v>43400</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="5"/>
         <v>43404</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="B14" s="2">
         <v>43404</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>43405</v>
       </c>
@@ -809,11 +809,11 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>43405</v>
       </c>
       <c r="C15" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
         <f t="shared" si="5"/>
         <v>43404</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="6"/>
         <v>43406</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="B15" s="2">
         <v>43405</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>43406</v>
       </c>
@@ -837,11 +837,11 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>43406</v>
       </c>
       <c r="C16" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C16" si="0">B2+1</f>
+        <f t="shared" ref="C2:C21" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -557,7 +557,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
         <f t="shared" si="2"/>
         <v>43399</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
         <v>43407</v>
       </c>
@@ -653,19 +653,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D16" si="5">B9+5</f>
+        <f t="shared" ref="D9:D21" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E16" si="6">B9+7</f>
+        <f t="shared" ref="E9:E21" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F16" si="7">B9+15</f>
+        <f t="shared" ref="F9:F21" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G16" si="8">B9+30</f>
+        <f t="shared" ref="G9:G21" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -736,11 +736,11 @@
         <f t="shared" si="0"/>
         <v>43403</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="5"/>
         <v>43407</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="6"/>
         <v>43409</v>
       </c>
@@ -764,7 +764,7 @@
         <f t="shared" si="0"/>
         <v>43404</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="5"/>
         <v>43408</v>
       </c>
@@ -792,7 +792,7 @@
         <f t="shared" si="0"/>
         <v>43405</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="5"/>
         <v>43409</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="B16" s="2">
         <v>43406</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>43407</v>
       </c>
@@ -865,47 +865,147 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43409</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>43410</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="5"/>
+        <v>43414</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="6"/>
+        <v>43416</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="7"/>
+        <v>43424</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="8"/>
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43410</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>43411</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="5"/>
+        <v>43415</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="6"/>
+        <v>43417</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="7"/>
+        <v>43425</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="8"/>
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43411</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>43412</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>43416</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>43418</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="7"/>
+        <v>43426</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="8"/>
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43412</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>43413</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="5"/>
+        <v>43417</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="6"/>
+        <v>43419</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="7"/>
+        <v>43427</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="8"/>
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43413</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>43414</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
+        <v>43418</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="6"/>
+        <v>43420</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="7"/>
+        <v>43428</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="8"/>
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -913,7 +1013,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -921,7 +1021,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -929,7 +1029,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -937,7 +1037,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -945,7 +1045,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -953,7 +1053,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -961,7 +1061,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -969,7 +1069,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -977,7 +1077,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -985,7 +1085,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <f t="shared" si="2"/>
         <v>43402</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f t="shared" si="3"/>
         <v>43410</v>
       </c>
@@ -768,7 +768,7 @@
         <f t="shared" si="5"/>
         <v>43408</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="6"/>
         <v>43410</v>
       </c>
@@ -820,7 +820,7 @@
         <f t="shared" si="0"/>
         <v>43406</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
         <v>43410</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="B17" s="2">
         <v>43409</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>43410</v>
       </c>
@@ -893,11 +893,11 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
         <v>43410</v>
       </c>
       <c r="C18" s="3">
@@ -923,7 +923,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>43411</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>43412</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>43413</v>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -468,7 +468,7 @@
         <f t="shared" ref="F2:F8" si="3">B2+15</f>
         <v>43396</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f t="shared" ref="G2:G8" si="4">B2+30</f>
         <v>43411</v>
       </c>
@@ -632,7 +632,7 @@
         <f t="shared" si="2"/>
         <v>43403</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
         <v>43411</v>
       </c>
@@ -796,7 +796,7 @@
         <f t="shared" si="5"/>
         <v>43409</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="6"/>
         <v>43411</v>
       </c>
@@ -848,7 +848,7 @@
         <f t="shared" si="0"/>
         <v>43407</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="5"/>
         <v>43411</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="B18" s="2">
         <v>43410</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>43411</v>
       </c>
@@ -921,11 +921,11 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>43411</v>
       </c>
       <c r="C19" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -496,7 +496,7 @@
         <f t="shared" si="3"/>
         <v>43397</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f t="shared" si="4"/>
         <v>43412</v>
       </c>
@@ -660,7 +660,7 @@
         <f t="shared" ref="E9:E21" si="6">B9+7</f>
         <v>43404</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <f t="shared" ref="F9:F21" si="7">B9+15</f>
         <v>43412</v>
       </c>
@@ -824,7 +824,7 @@
         <f t="shared" si="5"/>
         <v>43410</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="6"/>
         <v>43412</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="B19" s="2">
         <v>43411</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>43412</v>
       </c>
@@ -949,11 +949,11 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>43412</v>
       </c>
       <c r="C20" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <f t="shared" si="6"/>
         <v>43405</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f t="shared" si="7"/>
         <v>43413</v>
       </c>
@@ -852,7 +852,7 @@
         <f t="shared" si="5"/>
         <v>43411</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="6"/>
         <v>43413</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="B20" s="2">
         <v>43412</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>43413</v>
       </c>
@@ -977,11 +977,11 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>43413</v>
       </c>
       <c r="C21" s="3">

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C21" si="0">B2+1</f>
+        <f t="shared" ref="C2:C22" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -501,7 +502,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,7 +525,7 @@
         <f t="shared" si="3"/>
         <v>43400</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="4"/>
         <v>43415</v>
       </c>
@@ -653,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D21" si="5">B9+5</f>
+        <f t="shared" ref="D9:D22" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E21" si="6">B9+7</f>
+        <f t="shared" ref="E9:E22" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F21" si="7">B9+15</f>
+        <f t="shared" ref="F9:F22" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G21" si="8">B9+30</f>
+        <f t="shared" ref="G9:G22" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -876,11 +877,11 @@
         <f t="shared" si="0"/>
         <v>43410</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="5"/>
         <v>43414</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="6"/>
         <v>43416</v>
       </c>
@@ -904,7 +905,7 @@
         <f t="shared" si="0"/>
         <v>43411</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="5"/>
         <v>43415</v>
       </c>
@@ -932,7 +933,7 @@
         <f t="shared" si="0"/>
         <v>43412</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="5"/>
         <v>43416</v>
       </c>
@@ -984,7 +985,7 @@
       <c r="B21" s="2">
         <v>43413</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>43414</v>
       </c>
@@ -1005,13 +1006,33 @@
         <v>43443</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43416</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>43417</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
+        <v>43421</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="6"/>
+        <v>43423</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="7"/>
+        <v>43431</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="8"/>
+        <v>43446</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C22" si="0">B2+1</f>
+        <f t="shared" ref="C2:C23" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D22" si="5">B9+5</f>
+        <f t="shared" ref="D9:D23" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E22" si="6">B9+7</f>
+        <f t="shared" ref="E9:E23" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F22" si="7">B9+15</f>
+        <f t="shared" ref="F9:F23" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G22" si="8">B9+30</f>
+        <f t="shared" ref="G9:G23" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
         <f t="shared" si="6"/>
         <v>43406</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="7"/>
         <v>43414</v>
       </c>
@@ -745,7 +745,7 @@
         <f t="shared" si="6"/>
         <v>43409</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="7"/>
         <v>43417</v>
       </c>
@@ -909,7 +909,7 @@
         <f t="shared" si="5"/>
         <v>43415</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="6"/>
         <v>43417</v>
       </c>
@@ -961,7 +961,7 @@
         <f t="shared" si="0"/>
         <v>43413</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="5"/>
         <v>43417</v>
       </c>
@@ -1010,10 +1010,10 @@
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>43416</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
@@ -1034,13 +1034,33 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>43418</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="5"/>
+        <v>43422</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>43424</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="7"/>
+        <v>43432</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="8"/>
+        <v>43447</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C23" si="0">B2+1</f>
+        <f t="shared" ref="C2:C24" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D23" si="5">B9+5</f>
+        <f t="shared" ref="D9:D24" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E23" si="6">B9+7</f>
+        <f t="shared" ref="E9:E24" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F23" si="7">B9+15</f>
+        <f t="shared" ref="F9:F24" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G23" si="8">B9+30</f>
+        <f t="shared" ref="G9:G24" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <f t="shared" si="6"/>
         <v>43410</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="7"/>
         <v>43418</v>
       </c>
@@ -937,7 +937,7 @@
         <f t="shared" si="5"/>
         <v>43416</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="6"/>
         <v>43418</v>
       </c>
@@ -989,7 +989,7 @@
         <f t="shared" si="0"/>
         <v>43414</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="5"/>
         <v>43418</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="B23" s="2">
         <v>43417</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>43418</v>
       </c>
@@ -1062,13 +1062,33 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43418</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>43419</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="5"/>
+        <v>43423</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
+        <v>43425</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="7"/>
+        <v>43433</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="8"/>
+        <v>43448</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C24" si="0">B2+1</f>
+        <f t="shared" ref="C2:C25" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -553,7 +553,7 @@
         <f t="shared" si="3"/>
         <v>43404</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="4"/>
         <v>43419</v>
       </c>
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D24" si="5">B9+5</f>
+        <f t="shared" ref="D9:D25" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E24" si="6">B9+7</f>
+        <f t="shared" ref="E9:E25" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F24" si="7">B9+15</f>
+        <f t="shared" ref="F9:F25" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G24" si="8">B9+30</f>
+        <f t="shared" ref="G9:G25" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
         <f t="shared" si="6"/>
         <v>43411</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="7"/>
         <v>43419</v>
       </c>
@@ -965,7 +965,7 @@
         <f t="shared" si="5"/>
         <v>43417</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="6"/>
         <v>43419</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="B24" s="2">
         <v>43418</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>43419</v>
       </c>
@@ -1090,13 +1090,33 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43419</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>43420</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="5"/>
+        <v>43424</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="6"/>
+        <v>43426</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="7"/>
+        <v>43434</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="8"/>
+        <v>43449</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C25" si="0">B2+1</f>
+        <f t="shared" ref="C2:C26" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D25" si="5">B9+5</f>
+        <f t="shared" ref="D9:D26" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E25" si="6">B9+7</f>
+        <f t="shared" ref="E9:E26" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F25" si="7">B9+15</f>
+        <f t="shared" ref="F9:F26" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G25" si="8">B9+30</f>
+        <f t="shared" ref="G9:G26" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <f t="shared" si="6"/>
         <v>43412</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="7"/>
         <v>43420</v>
       </c>
@@ -993,7 +993,7 @@
         <f t="shared" si="5"/>
         <v>43418</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="6"/>
         <v>43420</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="B25" s="2">
         <v>43419</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>43420</v>
       </c>
@@ -1118,13 +1118,33 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43420</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>43421</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="5"/>
+        <v>43425</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="6"/>
+        <v>43427</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="7"/>
+        <v>43435</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
+        <v>43450</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C26" si="0">B2+1</f>
+        <f t="shared" ref="C2:C27" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -581,7 +581,7 @@
         <f t="shared" si="3"/>
         <v>43407</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="4"/>
         <v>43422</v>
       </c>
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D26" si="5">B9+5</f>
+        <f t="shared" ref="D9:D27" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E26" si="6">B9+7</f>
+        <f t="shared" ref="E9:E27" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F26" si="7">B9+15</f>
+        <f t="shared" ref="F9:F27" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G26" si="8">B9+30</f>
+        <f t="shared" ref="G9:G27" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <f t="shared" si="6"/>
         <v>43413</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="7"/>
         <v>43421</v>
       </c>
@@ -1017,11 +1017,11 @@
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="5"/>
         <v>43421</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="6"/>
         <v>43423</v>
       </c>
@@ -1045,7 +1045,7 @@
         <f t="shared" si="0"/>
         <v>43418</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="5"/>
         <v>43422</v>
       </c>
@@ -1073,7 +1073,7 @@
         <f t="shared" si="0"/>
         <v>43419</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="5"/>
         <v>43423</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="B26" s="2">
         <v>43420</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>43421</v>
       </c>
@@ -1146,13 +1146,33 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43423</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>43424</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="5"/>
+        <v>43428</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="6"/>
+        <v>43430</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="7"/>
+        <v>43438</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="8"/>
+        <v>43453</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C27" si="0">B2+1</f>
+        <f t="shared" ref="C2:C28" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D27" si="5">B9+5</f>
+        <f t="shared" ref="D9:D28" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E27" si="6">B9+7</f>
+        <f t="shared" ref="E9:E28" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F27" si="7">B9+15</f>
+        <f t="shared" ref="F9:F28" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G27" si="8">B9+30</f>
+        <f t="shared" ref="G9:G28" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
         <f t="shared" si="6"/>
         <v>43416</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="7"/>
         <v>43424</v>
       </c>
@@ -1049,7 +1049,7 @@
         <f t="shared" si="5"/>
         <v>43422</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="6"/>
         <v>43424</v>
       </c>
@@ -1101,7 +1101,7 @@
         <f t="shared" si="0"/>
         <v>43420</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="5"/>
         <v>43424</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="B27" s="2">
         <v>43423</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>43424</v>
       </c>
@@ -1174,13 +1174,33 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43424</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>43425</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="5"/>
+        <v>43429</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="6"/>
+        <v>43431</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>43439</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
+        <v>43454</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -417,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C28" si="0">B2+1</f>
+        <f t="shared" ref="C2:C29" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="2">
@@ -609,7 +609,7 @@
         <f t="shared" si="3"/>
         <v>43410</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="4"/>
         <v>43425</v>
       </c>
@@ -654,19 +654,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D28" si="5">B9+5</f>
+        <f t="shared" ref="D9:D29" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E28" si="6">B9+7</f>
+        <f t="shared" ref="E9:E29" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F28" si="7">B9+15</f>
+        <f t="shared" ref="F9:F29" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G28" si="8">B9+30</f>
+        <f t="shared" ref="G9:G29" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <f t="shared" si="6"/>
         <v>43417</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="7"/>
         <v>43425</v>
       </c>
@@ -1129,7 +1129,7 @@
         <f t="shared" si="0"/>
         <v>43421</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="5"/>
         <v>43425</v>
       </c>
@@ -1203,12 +1203,32 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43425</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>43426</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="5"/>
+        <v>43430</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="6"/>
+        <v>43432</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="7"/>
+        <v>43440</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="8"/>
+        <v>43455</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <f t="shared" si="3"/>
         <v>43411</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="4"/>
         <v>43426</v>
       </c>
@@ -941,7 +941,7 @@
         <f t="shared" si="6"/>
         <v>43418</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="7"/>
         <v>43426</v>
       </c>
@@ -1077,7 +1077,7 @@
         <f t="shared" si="5"/>
         <v>43423</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="6"/>
         <v>43425</v>
       </c>
@@ -1105,7 +1105,7 @@
         <f t="shared" si="5"/>
         <v>43424</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="6"/>
         <v>43426</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="B28" s="2">
         <v>43424</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>43425</v>
       </c>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,8 +416,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <f t="shared" ref="F9:F29" si="7">B9+15</f>
         <v>43412</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" ref="G9:G29" si="8">B9+30</f>
         <v>43427</v>
       </c>
@@ -969,7 +969,7 @@
         <f t="shared" si="6"/>
         <v>43419</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="7"/>
         <v>43427</v>
       </c>
@@ -1133,7 +1133,7 @@
         <f t="shared" si="5"/>
         <v>43425</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="6"/>
         <v>43427</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="B29" s="2">
         <v>43425</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>43426</v>
       </c>

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/IdeaProjects/algorithms/leetcode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6FF6A-678B-1F4D-9C25-F088FBAFD870}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1460" windowWidth="25500" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1455" windowWidth="25500" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,26 +201,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,18 +411,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1185,7 +1145,7 @@
         <v>43450</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1196,11 +1156,11 @@
         <f t="shared" si="0"/>
         <v>43424</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" si="5"/>
         <v>43428</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f t="shared" si="6"/>
         <v>43430</v>
       </c>
@@ -1241,7 +1201,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1252,7 +1212,7 @@
         <f t="shared" si="0"/>
         <v>43426</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f t="shared" si="5"/>
         <v>43430</v>
       </c>
@@ -1317,7 +1277,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1325,7 +1285,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1333,7 +1293,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1341,7 +1301,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1349,7 +1309,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1357,7 +1317,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1365,7 +1325,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1373,7 +1333,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1381,7 +1341,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1389,7 +1349,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1397,7 +1357,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1405,7 +1365,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1413,7 +1373,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1421,7 +1381,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1429,7 +1389,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1437,7 +1397,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1445,7 +1405,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1453,7 +1413,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1461,7 +1421,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1469,7 +1429,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1477,7 +1437,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1485,7 +1445,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1493,7 +1453,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1501,7 +1461,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1509,7 +1469,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1517,7 +1477,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1525,7 +1485,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1533,7 +1493,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1541,7 +1501,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1549,7 +1509,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1557,7 +1517,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1565,7 +1525,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1573,7 +1533,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1581,7 +1541,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1589,7 +1549,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1597,7 +1557,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1605,7 +1565,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1613,7 +1573,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1621,7 +1581,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1629,7 +1589,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1637,7 +1597,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1645,7 +1605,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1653,7 +1613,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1661,7 +1621,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1669,7 +1629,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1677,7 +1637,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1685,7 +1645,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1693,7 +1653,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1701,7 +1661,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1709,7 +1669,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1717,7 +1677,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1725,7 +1685,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1733,7 +1693,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1741,7 +1701,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1749,7 +1709,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1757,7 +1717,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1765,7 +1725,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1773,7 +1733,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1781,7 +1741,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1789,7 +1749,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1797,7 +1757,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1805,7 +1765,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1813,7 +1773,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1821,7 +1781,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1829,7 +1789,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1837,7 +1797,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1845,7 +1805,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1853,7 +1813,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1861,7 +1821,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1869,7 +1829,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1877,7 +1837,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1885,7 +1845,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1893,7 +1853,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1901,7 +1861,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -1909,7 +1869,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -1917,7 +1877,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -1925,7 +1885,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -1933,7 +1893,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -1941,7 +1901,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -1949,7 +1909,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -1957,7 +1917,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -1965,7 +1925,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -1973,7 +1933,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -1981,7 +1941,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -1989,7 +1949,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -1997,7 +1957,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2005,7 +1965,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2013,7 +1973,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2021,7 +1981,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2029,7 +1989,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2037,7 +1997,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -2045,7 +2005,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -2053,7 +2013,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -2061,7 +2021,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -2069,7 +2029,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -2077,7 +2037,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -2085,7 +2045,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -2093,7 +2053,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -2101,7 +2061,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -2109,7 +2069,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -2117,7 +2077,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -2125,7 +2085,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -2133,7 +2093,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -2141,7 +2101,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -2149,7 +2109,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -2157,7 +2117,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -2165,7 +2125,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -2173,7 +2133,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -2181,7 +2141,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -2189,7 +2149,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -2197,7 +2157,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -2205,7 +2165,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -2213,7 +2173,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -2221,7 +2181,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -2229,7 +2189,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -2237,7 +2197,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -2245,7 +2205,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -2253,7 +2213,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -2261,7 +2221,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -2269,7 +2229,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -2277,7 +2237,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -2285,7 +2245,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -2293,7 +2253,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -2301,7 +2261,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -2309,7 +2269,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -2317,7 +2277,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -2325,7 +2285,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -2333,7 +2293,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -2341,7 +2301,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -2349,7 +2309,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -2357,7 +2317,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -2365,7 +2325,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -2373,7 +2333,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -2381,7 +2341,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -2389,7 +2349,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -2397,7 +2357,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -2405,7 +2365,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -2413,7 +2373,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -2421,7 +2381,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -2429,7 +2389,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -2437,7 +2397,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -2445,7 +2405,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -2453,7 +2413,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -2461,7 +2421,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -2469,7 +2429,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -2477,7 +2437,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -2485,7 +2445,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -2493,7 +2453,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -2501,7 +2461,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -2509,7 +2469,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -2517,7 +2477,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -2525,7 +2485,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -2533,7 +2493,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -2541,7 +2501,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -2549,7 +2509,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -2557,7 +2517,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -2565,7 +2525,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -2573,7 +2533,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -2581,7 +2541,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -2589,7 +2549,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -2597,7 +2557,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -2605,7 +2565,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -2613,7 +2573,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -2621,7 +2581,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -2629,7 +2589,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -2637,7 +2597,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -2645,7 +2605,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -2653,7 +2613,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -2661,7 +2621,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -2669,7 +2629,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -2677,7 +2637,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -2685,7 +2645,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -2693,7 +2653,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -2701,7 +2661,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -2709,7 +2669,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -2717,7 +2677,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -2725,7 +2685,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -2733,7 +2693,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -2741,7 +2701,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -2749,7 +2709,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -2757,7 +2717,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -2765,7 +2725,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -2773,7 +2733,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -2781,7 +2741,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -2789,7 +2749,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -2797,7 +2757,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -2805,7 +2765,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -2813,7 +2773,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -2821,7 +2781,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -2829,7 +2789,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -2837,7 +2797,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -2845,7 +2805,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -2853,7 +2813,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -2861,7 +2821,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -2869,7 +2829,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -2877,7 +2837,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -2885,7 +2845,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -2893,7 +2853,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -2901,7 +2861,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -2909,7 +2869,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -2917,7 +2877,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -2925,7 +2885,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -2933,7 +2893,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -2941,7 +2901,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -2949,7 +2909,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -2957,7 +2917,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -2965,7 +2925,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -2973,7 +2933,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -2981,7 +2941,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -2989,7 +2949,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -2997,7 +2957,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -3005,7 +2965,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -3013,7 +2973,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -3021,7 +2981,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -3029,7 +2989,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -3037,7 +2997,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -3045,7 +3005,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -3053,7 +3013,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -3061,7 +3021,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -3069,7 +3029,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -3077,7 +3037,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -3085,7 +3045,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -3093,7 +3053,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -3101,7 +3061,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -3109,7 +3069,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -3117,7 +3077,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -3125,7 +3085,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -3133,7 +3093,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -3141,7 +3101,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -3149,7 +3109,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -3157,7 +3117,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -3165,7 +3125,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -3173,7 +3133,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -3181,7 +3141,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -3189,7 +3149,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -3197,7 +3157,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -3205,7 +3165,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -3213,7 +3173,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -3221,7 +3181,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -3229,7 +3189,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -3237,7 +3197,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -3245,7 +3205,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -3253,7 +3213,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -3261,7 +3221,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -3269,7 +3229,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -3277,7 +3237,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -3285,7 +3245,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -3293,7 +3253,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -3301,7 +3261,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -3309,7 +3269,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -3317,7 +3277,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -3325,7 +3285,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -3333,7 +3293,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -3341,7 +3301,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -3349,7 +3309,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -3357,7 +3317,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -3365,7 +3325,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -3373,7 +3333,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -3381,7 +3341,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -3389,7 +3349,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -3397,7 +3357,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -3405,7 +3365,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -3413,7 +3373,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -3421,7 +3381,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -3429,7 +3389,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -3437,7 +3397,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -3445,7 +3405,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -3453,7 +3413,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -3461,7 +3421,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -3469,7 +3429,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -3477,7 +3437,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -3485,7 +3445,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -3493,7 +3453,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -3501,7 +3461,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -3509,7 +3469,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -3517,7 +3477,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -3525,7 +3485,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -3533,7 +3493,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -3541,7 +3501,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -3549,7 +3509,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -3557,7 +3517,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -3565,7 +3525,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -3573,7 +3533,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -3581,7 +3541,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -3589,7 +3549,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -3597,7 +3557,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -3605,7 +3565,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -3613,7 +3573,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -3621,7 +3581,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -3629,7 +3589,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -3637,7 +3597,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -3645,7 +3605,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -3653,7 +3613,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -3661,7 +3621,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -3669,7 +3629,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -3677,7 +3637,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -3685,7 +3645,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -3693,7 +3653,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -3701,7 +3661,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -3709,7 +3669,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -3717,7 +3677,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -3725,7 +3685,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -3733,7 +3693,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -3741,7 +3701,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -3749,7 +3709,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -3757,7 +3717,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -3765,7 +3725,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -3773,7 +3733,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -3781,7 +3741,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -3789,7 +3749,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -3797,7 +3757,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -3805,7 +3765,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -3813,7 +3773,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -3821,7 +3781,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -3829,7 +3789,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -3837,7 +3797,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -3845,7 +3805,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -3853,7 +3813,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -3861,7 +3821,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -3869,7 +3829,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -3877,7 +3837,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -3885,7 +3845,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -3893,7 +3853,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -3901,7 +3861,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -3909,7 +3869,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -3917,7 +3877,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -3925,7 +3885,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -3933,7 +3893,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -3941,7 +3901,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -3949,7 +3909,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -3957,7 +3917,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -3965,7 +3925,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -3973,7 +3933,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -3981,7 +3941,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -3989,7 +3949,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -3997,7 +3957,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -4005,7 +3965,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -4013,7 +3973,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -4021,7 +3981,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -4029,7 +3989,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -4037,7 +3997,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -4045,7 +4005,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -4053,7 +4013,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -4061,7 +4021,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -4069,7 +4029,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -4077,7 +4037,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -4085,7 +4045,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -4093,7 +4053,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -4101,7 +4061,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -4109,7 +4069,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -4117,7 +4077,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -4125,7 +4085,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -4133,7 +4093,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -4141,7 +4101,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -4149,7 +4109,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -4157,7 +4117,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -4165,7 +4125,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -4173,7 +4133,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -4181,7 +4141,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -4189,7 +4149,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -4197,7 +4157,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -4205,7 +4165,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -4213,7 +4173,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -4221,7 +4181,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -4229,7 +4189,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -4237,7 +4197,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -4245,7 +4205,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -4253,7 +4213,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -4261,7 +4221,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -4269,7 +4229,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -4277,7 +4237,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -4285,7 +4245,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -4293,7 +4253,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -4301,7 +4261,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -4309,7 +4269,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -4317,7 +4277,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -4325,7 +4285,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -4333,7 +4293,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -4341,7 +4301,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -4349,7 +4309,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -4357,7 +4317,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -4365,7 +4325,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -4373,7 +4333,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -4381,7 +4341,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -4389,7 +4349,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -4397,7 +4357,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -4405,7 +4365,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -4413,7 +4373,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -4421,7 +4381,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -4429,7 +4389,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -4437,7 +4397,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -4445,7 +4405,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -4453,7 +4413,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -4461,7 +4421,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -4469,7 +4429,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -4477,7 +4437,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -4485,7 +4445,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -4493,7 +4453,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -4501,7 +4461,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -4509,7 +4469,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -4517,7 +4477,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -4525,7 +4485,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -4533,7 +4493,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -4541,7 +4501,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -4549,7 +4509,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -4557,7 +4517,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -4565,7 +4525,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -4573,7 +4533,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -4581,7 +4541,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -4589,7 +4549,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -4597,7 +4557,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -4605,7 +4565,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -4613,7 +4573,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -4621,7 +4581,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -4629,7 +4589,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -4637,7 +4597,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -4645,7 +4605,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -4653,7 +4613,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -4661,7 +4621,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -4669,7 +4629,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -4677,7 +4637,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -4685,7 +4645,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -4693,7 +4653,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -4701,7 +4661,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -4709,7 +4669,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -4717,7 +4677,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -4725,7 +4685,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -4733,7 +4693,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -4741,7 +4701,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -4749,7 +4709,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -4757,7 +4717,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -4765,7 +4725,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -4773,7 +4733,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -4781,7 +4741,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -4789,7 +4749,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -4797,7 +4757,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -4805,7 +4765,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -4813,7 +4773,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -4821,7 +4781,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -4829,7 +4789,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -4837,7 +4797,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -4845,7 +4805,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -4853,7 +4813,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -4861,7 +4821,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -4869,7 +4829,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -4877,7 +4837,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -4885,7 +4845,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -4893,7 +4853,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -4901,7 +4861,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -4909,7 +4869,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -4917,7 +4877,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -4925,7 +4885,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -4933,7 +4893,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -4941,7 +4901,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -4949,7 +4909,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -4957,7 +4917,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -4965,7 +4925,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -4973,7 +4933,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -4981,7 +4941,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -4989,7 +4949,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -4997,7 +4957,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -5005,7 +4965,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -5013,7 +4973,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -5021,7 +4981,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -5029,7 +4989,7 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -5037,7 +4997,7 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -5045,7 +5005,7 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -5053,7 +5013,7 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -5061,7 +5021,7 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -5069,7 +5029,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -5077,7 +5037,7 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -5085,7 +5045,7 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -5093,7 +5053,7 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -5101,7 +5061,7 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -5109,7 +5069,7 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -5117,7 +5077,7 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -5125,7 +5085,7 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -5133,7 +5093,7 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -5141,7 +5101,7 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -5149,7 +5109,7 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -5157,7 +5117,7 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -5165,7 +5125,7 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -5173,7 +5133,7 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -5181,7 +5141,7 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -5189,7 +5149,7 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -5197,7 +5157,7 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -5205,7 +5165,7 @@
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -5213,7 +5173,7 @@
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -5221,7 +5181,7 @@
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -5229,7 +5189,7 @@
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -5237,7 +5197,7 @@
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -5245,7 +5205,7 @@
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -5253,7 +5213,7 @@
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -5261,7 +5221,7 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -5269,7 +5229,7 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -5277,7 +5237,7 @@
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -5285,7 +5245,7 @@
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -5293,7 +5253,7 @@
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -5301,7 +5261,7 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -5309,7 +5269,7 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -5317,7 +5277,7 @@
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -5325,7 +5285,7 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -5333,7 +5293,7 @@
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -5341,7 +5301,7 @@
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -5349,7 +5309,7 @@
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -5357,7 +5317,7 @@
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -5365,7 +5325,7 @@
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -5373,7 +5333,7 @@
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -5381,7 +5341,7 @@
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -5389,7 +5349,7 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -5397,7 +5357,7 @@
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -5405,7 +5365,7 @@
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -5413,7 +5373,7 @@
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -5421,7 +5381,7 @@
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -5429,7 +5389,7 @@
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -5437,7 +5397,7 @@
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -5445,7 +5405,7 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -5453,7 +5413,7 @@
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -5461,7 +5421,7 @@
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -5469,7 +5429,7 @@
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -5477,7 +5437,7 @@
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -5485,7 +5445,7 @@
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -5493,7 +5453,7 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -5501,7 +5461,7 @@
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -5509,7 +5469,7 @@
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -5517,7 +5477,7 @@
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -5525,7 +5485,7 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -5533,7 +5493,7 @@
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -5541,7 +5501,7 @@
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -5549,7 +5509,7 @@
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -5557,7 +5517,7 @@
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -5565,7 +5525,7 @@
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -5573,7 +5533,7 @@
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -5581,7 +5541,7 @@
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -5589,7 +5549,7 @@
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -5597,7 +5557,7 @@
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -5605,7 +5565,7 @@
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -5613,7 +5573,7 @@
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -5621,7 +5581,7 @@
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -5629,7 +5589,7 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -5637,7 +5597,7 @@
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -5645,7 +5605,7 @@
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -5653,7 +5613,7 @@
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -5661,7 +5621,7 @@
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -5669,7 +5629,7 @@
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -5677,7 +5637,7 @@
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -5685,7 +5645,7 @@
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -5693,7 +5653,7 @@
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -5701,7 +5661,7 @@
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -5709,7 +5669,7 @@
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -5717,7 +5677,7 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -5725,7 +5685,7 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -5733,7 +5693,7 @@
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -5741,7 +5701,7 @@
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -5749,7 +5709,7 @@
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -5757,7 +5717,7 @@
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -5765,7 +5725,7 @@
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -5773,7 +5733,7 @@
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -5781,7 +5741,7 @@
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -5789,7 +5749,7 @@
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -5797,7 +5757,7 @@
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -5805,7 +5765,7 @@
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -5813,7 +5773,7 @@
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -5821,7 +5781,7 @@
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -5829,7 +5789,7 @@
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -5837,7 +5797,7 @@
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -5845,7 +5805,7 @@
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -5853,7 +5813,7 @@
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -5861,7 +5821,7 @@
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -5869,7 +5829,7 @@
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -5877,7 +5837,7 @@
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -5885,7 +5845,7 @@
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -5893,7 +5853,7 @@
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -5901,7 +5861,7 @@
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -5909,7 +5869,7 @@
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -5917,7 +5877,7 @@
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -5925,7 +5885,7 @@
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -5933,7 +5893,7 @@
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -5941,7 +5901,7 @@
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -5949,7 +5909,7 @@
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -5957,7 +5917,7 @@
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -5965,7 +5925,7 @@
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -5973,7 +5933,7 @@
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -5981,7 +5941,7 @@
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -5989,7 +5949,7 @@
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -5997,7 +5957,7 @@
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -6005,7 +5965,7 @@
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -6013,7 +5973,7 @@
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -6021,7 +5981,7 @@
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -6029,7 +5989,7 @@
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -6037,7 +5997,7 @@
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -6045,7 +6005,7 @@
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -6053,7 +6013,7 @@
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -6061,7 +6021,7 @@
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -6069,7 +6029,7 @@
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -6077,7 +6037,7 @@
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -6085,7 +6045,7 @@
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -6093,7 +6053,7 @@
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -6101,7 +6061,7 @@
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -6109,7 +6069,7 @@
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -6117,7 +6077,7 @@
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -6125,7 +6085,7 @@
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -6133,7 +6093,7 @@
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -6141,7 +6101,7 @@
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -6149,7 +6109,7 @@
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -6157,7 +6117,7 @@
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -6165,7 +6125,7 @@
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -6173,7 +6133,7 @@
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -6181,7 +6141,7 @@
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -6189,7 +6149,7 @@
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -6197,7 +6157,7 @@
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -6205,7 +6165,7 @@
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -6213,7 +6173,7 @@
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -6221,7 +6181,7 @@
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -6229,7 +6189,7 @@
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -6237,7 +6197,7 @@
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -6245,7 +6205,7 @@
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -6253,7 +6213,7 @@
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -6261,7 +6221,7 @@
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -6269,7 +6229,7 @@
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -6277,7 +6237,7 @@
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -6285,7 +6245,7 @@
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -6293,7 +6253,7 @@
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -6301,7 +6261,7 @@
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -6309,7 +6269,7 @@
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -6317,7 +6277,7 @@
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -6325,7 +6285,7 @@
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -6333,7 +6293,7 @@
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -6341,7 +6301,7 @@
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -6349,7 +6309,7 @@
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -6357,7 +6317,7 @@
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -6365,7 +6325,7 @@
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -6373,7 +6333,7 @@
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -6381,7 +6341,7 @@
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -6389,7 +6349,7 @@
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -6397,7 +6357,7 @@
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -6405,7 +6365,7 @@
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -6413,7 +6373,7 @@
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -6421,7 +6381,7 @@
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -6429,7 +6389,7 @@
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -6437,7 +6397,7 @@
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -6445,7 +6405,7 @@
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -6453,7 +6413,7 @@
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -6461,7 +6421,7 @@
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -6469,7 +6429,7 @@
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -6477,7 +6437,7 @@
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -6485,7 +6445,7 @@
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -6493,7 +6453,7 @@
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -6501,7 +6461,7 @@
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -6509,7 +6469,7 @@
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -6517,7 +6477,7 @@
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -6525,7 +6485,7 @@
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -6533,7 +6493,7 @@
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -6541,7 +6501,7 @@
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -6549,7 +6509,7 @@
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -6557,7 +6517,7 @@
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -6565,7 +6525,7 @@
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -6573,7 +6533,7 @@
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -6581,7 +6541,7 @@
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -6589,7 +6549,7 @@
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -6597,7 +6557,7 @@
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -6605,7 +6565,7 @@
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -6613,7 +6573,7 @@
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -6621,7 +6581,7 @@
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -6629,7 +6589,7 @@
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -6637,7 +6597,7 @@
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -6645,7 +6605,7 @@
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -6653,7 +6613,7 @@
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -6661,7 +6621,7 @@
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -6669,7 +6629,7 @@
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -6677,7 +6637,7 @@
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -6685,7 +6645,7 @@
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -6693,7 +6653,7 @@
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -6701,7 +6661,7 @@
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -6709,7 +6669,7 @@
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -6717,7 +6677,7 @@
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -6725,7 +6685,7 @@
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -6733,7 +6693,7 @@
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -6741,7 +6701,7 @@
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -6749,7 +6709,7 @@
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -6757,7 +6717,7 @@
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -6765,7 +6725,7 @@
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -6773,7 +6733,7 @@
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -6781,7 +6741,7 @@
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -6789,7 +6749,7 @@
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -6797,7 +6757,7 @@
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -6805,7 +6765,7 @@
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -6813,7 +6773,7 @@
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -6821,7 +6781,7 @@
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -6829,7 +6789,7 @@
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -6837,7 +6797,7 @@
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -6845,7 +6805,7 @@
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -6853,7 +6813,7 @@
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -6861,7 +6821,7 @@
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -6869,7 +6829,7 @@
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -6877,7 +6837,7 @@
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -6885,7 +6845,7 @@
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -6893,7 +6853,7 @@
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -6901,7 +6861,7 @@
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -6909,7 +6869,7 @@
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -6917,7 +6877,7 @@
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -6925,7 +6885,7 @@
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -6933,7 +6893,7 @@
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -6941,7 +6901,7 @@
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -6949,7 +6909,7 @@
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -6957,7 +6917,7 @@
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -6965,7 +6925,7 @@
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -6973,7 +6933,7 @@
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -6981,7 +6941,7 @@
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -6989,7 +6949,7 @@
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -6997,7 +6957,7 @@
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -7005,7 +6965,7 @@
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -7013,7 +6973,7 @@
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -7021,7 +6981,7 @@
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -7029,7 +6989,7 @@
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -7037,7 +6997,7 @@
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -7045,7 +7005,7 @@
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -7053,7 +7013,7 @@
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -7061,7 +7021,7 @@
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -7069,7 +7029,7 @@
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -7077,7 +7037,7 @@
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -7085,7 +7045,7 @@
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -7093,7 +7053,7 @@
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -7101,7 +7061,7 @@
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -7109,7 +7069,7 @@
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -7117,7 +7077,7 @@
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -7125,7 +7085,7 @@
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -7133,7 +7093,7 @@
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -7141,7 +7101,7 @@
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -7149,7 +7109,7 @@
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -7157,7 +7117,7 @@
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -7165,7 +7125,7 @@
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -7173,7 +7133,7 @@
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -7181,7 +7141,7 @@
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -7189,7 +7149,7 @@
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -7197,7 +7157,7 @@
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -7205,7 +7165,7 @@
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -7213,7 +7173,7 @@
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -7221,7 +7181,7 @@
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -7229,7 +7189,7 @@
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -7237,7 +7197,7 @@
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -7245,7 +7205,7 @@
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -7253,7 +7213,7 @@
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -7261,7 +7221,7 @@
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -7269,7 +7229,7 @@
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -7277,7 +7237,7 @@
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -7285,7 +7245,7 @@
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -7293,7 +7253,7 @@
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -7301,7 +7261,7 @@
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -7309,7 +7269,7 @@
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -7317,7 +7277,7 @@
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -7325,7 +7285,7 @@
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -7333,7 +7293,7 @@
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -7341,7 +7301,7 @@
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -7349,7 +7309,7 @@
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -7357,7 +7317,7 @@
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -7365,7 +7325,7 @@
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -7373,7 +7333,7 @@
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -7381,7 +7341,7 @@
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -7389,7 +7349,7 @@
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -7397,7 +7357,7 @@
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -7405,7 +7365,7 @@
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -7413,7 +7373,7 @@
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -7421,7 +7381,7 @@
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -7429,7 +7389,7 @@
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -7437,7 +7397,7 @@
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -7445,7 +7405,7 @@
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -7453,7 +7413,7 @@
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -7461,7 +7421,7 @@
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -7469,7 +7429,7 @@
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -7477,7 +7437,7 @@
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -7485,7 +7445,7 @@
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -7493,7 +7453,7 @@
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -7501,7 +7461,7 @@
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -7509,7 +7469,7 @@
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -7517,7 +7477,7 @@
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -7525,7 +7485,7 @@
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -7533,7 +7493,7 @@
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -7541,7 +7501,7 @@
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -7549,7 +7509,7 @@
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -7557,7 +7517,7 @@
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -7565,7 +7525,7 @@
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -7573,7 +7533,7 @@
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -7581,7 +7541,7 @@
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -7589,7 +7549,7 @@
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -7597,7 +7557,7 @@
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -7605,7 +7565,7 @@
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -7613,7 +7573,7 @@
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -7621,7 +7581,7 @@
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -7629,7 +7589,7 @@
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -7637,7 +7597,7 @@
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -7645,7 +7605,7 @@
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -7653,7 +7613,7 @@
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -7661,7 +7621,7 @@
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -7669,7 +7629,7 @@
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -7677,7 +7637,7 @@
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -7685,7 +7645,7 @@
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -7693,7 +7653,7 @@
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -7701,7 +7661,7 @@
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -7709,7 +7669,7 @@
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -7717,7 +7677,7 @@
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -7725,7 +7685,7 @@
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -7733,7 +7693,7 @@
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -7741,7 +7701,7 @@
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -7749,7 +7709,7 @@
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -7757,7 +7717,7 @@
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -7765,7 +7725,7 @@
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -7773,7 +7733,7 @@
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -7781,7 +7741,7 @@
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -7789,7 +7749,7 @@
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -7797,7 +7757,7 @@
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -7805,7 +7765,7 @@
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -7813,7 +7773,7 @@
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -7821,7 +7781,7 @@
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -7829,7 +7789,7 @@
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -7837,7 +7797,7 @@
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -7845,7 +7805,7 @@
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -7853,7 +7813,7 @@
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -7861,7 +7821,7 @@
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -7869,7 +7829,7 @@
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -7877,7 +7837,7 @@
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -7885,7 +7845,7 @@
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -7893,7 +7853,7 @@
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -7901,7 +7861,7 @@
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -7909,7 +7869,7 @@
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -7917,7 +7877,7 @@
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -7925,7 +7885,7 @@
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -7933,7 +7893,7 @@
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -7941,7 +7901,7 @@
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -7949,7 +7909,7 @@
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -7957,7 +7917,7 @@
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -7965,7 +7925,7 @@
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -7973,7 +7933,7 @@
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -7981,7 +7941,7 @@
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -7989,7 +7949,7 @@
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -7997,7 +7957,7 @@
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -8005,7 +7965,7 @@
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -8013,7 +7973,7 @@
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -8021,7 +7981,7 @@
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -8029,7 +7989,7 @@
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
     </row>
-    <row r="875" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -8037,7 +7997,7 @@
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
     </row>
-    <row r="876" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -8045,7 +8005,7 @@
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
     </row>
-    <row r="877" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -8053,7 +8013,7 @@
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
     </row>
-    <row r="878" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -8061,7 +8021,7 @@
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -8069,7 +8029,7 @@
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
     </row>
-    <row r="880" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -8077,7 +8037,7 @@
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -8085,7 +8045,7 @@
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
     </row>
-    <row r="882" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -8093,7 +8053,7 @@
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
     </row>
-    <row r="883" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -8101,7 +8061,7 @@
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
     </row>
-    <row r="884" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -8109,7 +8069,7 @@
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
     </row>
-    <row r="885" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -8117,7 +8077,7 @@
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
     </row>
-    <row r="886" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -8125,7 +8085,7 @@
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
     </row>
-    <row r="887" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -8133,7 +8093,7 @@
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
     </row>
-    <row r="888" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -8141,7 +8101,7 @@
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
     </row>
-    <row r="889" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -8149,7 +8109,7 @@
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
     </row>
-    <row r="890" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -8157,7 +8117,7 @@
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
     </row>
-    <row r="891" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -8165,7 +8125,7 @@
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
     </row>
-    <row r="892" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -8173,7 +8133,7 @@
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
     </row>
-    <row r="893" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -8181,7 +8141,7 @@
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
     </row>
-    <row r="894" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -8189,7 +8149,7 @@
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
     </row>
-    <row r="895" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -8197,7 +8157,7 @@
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
     </row>
-    <row r="896" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -8205,7 +8165,7 @@
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
     </row>
-    <row r="897" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -8213,7 +8173,7 @@
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
     </row>
-    <row r="898" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -8221,7 +8181,7 @@
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
     </row>
-    <row r="899" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -8229,7 +8189,7 @@
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
     </row>
-    <row r="900" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -8237,7 +8197,7 @@
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
     </row>
-    <row r="901" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -8245,7 +8205,7 @@
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
     </row>
-    <row r="902" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -8253,7 +8213,7 @@
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
     </row>
-    <row r="903" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -8261,7 +8221,7 @@
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
     </row>
-    <row r="904" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -8269,7 +8229,7 @@
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
     </row>
-    <row r="905" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -8277,7 +8237,7 @@
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
     </row>
-    <row r="906" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -8285,7 +8245,7 @@
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
     </row>
-    <row r="907" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -8293,7 +8253,7 @@
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
     </row>
-    <row r="908" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -8301,7 +8261,7 @@
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
     </row>
-    <row r="909" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -8309,7 +8269,7 @@
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
     </row>
-    <row r="910" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -8317,7 +8277,7 @@
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
     </row>
-    <row r="911" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -8325,7 +8285,7 @@
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
     </row>
-    <row r="912" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -8333,7 +8293,7 @@
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
     </row>
-    <row r="913" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -8341,7 +8301,7 @@
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
     </row>
-    <row r="914" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -8349,7 +8309,7 @@
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
     </row>
-    <row r="915" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -8357,7 +8317,7 @@
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
     </row>
-    <row r="916" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -8365,7 +8325,7 @@
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
     </row>
-    <row r="917" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -8373,7 +8333,7 @@
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
     </row>
-    <row r="918" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -8381,7 +8341,7 @@
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
     </row>
-    <row r="919" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -8389,7 +8349,7 @@
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
     </row>
-    <row r="920" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -8397,7 +8357,7 @@
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
     </row>
-    <row r="921" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -8405,7 +8365,7 @@
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
     </row>
-    <row r="922" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -8413,7 +8373,7 @@
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
     </row>
-    <row r="923" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -8421,7 +8381,7 @@
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -8429,7 +8389,7 @@
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
     </row>
-    <row r="925" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -8437,7 +8397,7 @@
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
     </row>
-    <row r="926" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -8445,7 +8405,7 @@
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -8453,7 +8413,7 @@
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -8461,7 +8421,7 @@
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -8469,7 +8429,7 @@
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -8477,7 +8437,7 @@
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
     </row>
-    <row r="931" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -8485,7 +8445,7 @@
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
     </row>
-    <row r="932" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -8493,7 +8453,7 @@
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -8501,7 +8461,7 @@
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
     </row>
-    <row r="934" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -8509,7 +8469,7 @@
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
     </row>
-    <row r="935" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -8517,7 +8477,7 @@
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
     </row>
-    <row r="936" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -8547,24 +8507,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -415,8 +415,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C29" si="0">B2+1</f>
+        <f t="shared" ref="C2:C30" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="1">
@@ -653,19 +653,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D29" si="5">B9+5</f>
+        <f t="shared" ref="D9:D30" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E29" si="6">B9+7</f>
+        <f t="shared" ref="E9:E30" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F29" si="7">B9+15</f>
+        <f t="shared" ref="F9:F30" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G29" si="8">B9+30</f>
+        <f t="shared" ref="G9:G30" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -1229,13 +1229,33 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43438</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>43439</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>43443</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="6"/>
+        <v>43445</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>43453</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="8"/>
+        <v>43468</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C30" si="0">B2+1</f>
+        <f t="shared" ref="C2:C31" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="1">
@@ -653,19 +653,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D30" si="5">B9+5</f>
+        <f t="shared" ref="D9:D31" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E30" si="6">B9+7</f>
+        <f t="shared" ref="E9:E31" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F30" si="7">B9+15</f>
+        <f t="shared" ref="F9:F31" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G30" si="8">B9+30</f>
+        <f t="shared" ref="G9:G31" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <f t="shared" si="7"/>
         <v>43424</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f t="shared" si="8"/>
         <v>43439</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="B30" s="1">
         <v>43438</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>43439</v>
       </c>
@@ -1257,13 +1257,33 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43439</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>43440</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>43444</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="6"/>
+        <v>43446</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>43454</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="8"/>
+        <v>43469</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -416,7 +416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>43381</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C31" si="0">B2+1</f>
+        <f t="shared" ref="C2:C32" si="0">B2+1</f>
         <v>43382</v>
       </c>
       <c r="D2" s="1">
@@ -653,19 +653,19 @@
         <v>43398</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D31" si="5">B9+5</f>
+        <f t="shared" ref="D9:D32" si="5">B9+5</f>
         <v>43402</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E31" si="6">B9+7</f>
+        <f t="shared" ref="E9:E32" si="6">B9+7</f>
         <v>43404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F31" si="7">B9+15</f>
+        <f t="shared" ref="F9:F32" si="7">B9+15</f>
         <v>43412</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G31" si="8">B9+30</f>
+        <f t="shared" ref="G9:G32" si="8">B9+30</f>
         <v>43427</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -916,7 +916,7 @@
         <f t="shared" si="7"/>
         <v>43425</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f t="shared" si="8"/>
         <v>43440</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="B31" s="1">
         <v>43439</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>43440</v>
       </c>
@@ -1285,13 +1285,33 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43440</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>43441</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>43445</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="6"/>
+        <v>43447</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>43455</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="8"/>
+        <v>43470</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -415,8 +415,8 @@
   <dimension ref="A1:G936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -944,12 +944,12 @@
         <f t="shared" si="7"/>
         <v>43426</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="8"/>
         <v>43441</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -972,7 +972,7 @@
         <f t="shared" si="7"/>
         <v>43427</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="8"/>
         <v>43442</v>
       </c>
@@ -1240,7 +1240,7 @@
         <f t="shared" si="0"/>
         <v>43439</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <f t="shared" si="5"/>
         <v>43443</v>
       </c>
